--- a/data/nhs-statistics/xlsx/vaccination_ages.xlsx
+++ b/data/nhs-statistics/xlsx/vaccination_ages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\mike\projects\work\covid-stats\data\nhs-statistics\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80860BC9-6225-4CA7-820C-2FAD40CD6B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A3D03F-AD60-414D-B8FF-B5E31D73E4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{15FAF7AC-E094-4D6F-B923-EA6D67CAD3D5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
   <si>
     <t>Title:</t>
   </si>
@@ -393,6 +393,9 @@
   <si>
     <t>number of persons</t>
   </si>
+  <si>
+    <t>qx (needs weighting)</t>
+  </si>
 </sst>
 </file>
 
@@ -403,8 +406,8 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -533,7 +536,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,6 +594,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,7 +1001,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1101,7 +1110,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1149,7 +1157,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1177,10 +1185,15 @@
     <xf numFmtId="166" fontId="8" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="4" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="19" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1229,9 +1242,23 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="4" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2721,7 +2748,7 @@
             <c:numRef>
               <c:f>'Population 2020'!$C$3:$C$103</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>3.3955999999999999E-3</c:v>
@@ -3236,7 +3263,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6494,10 +6521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74738783-BCF0-4DFA-80E9-194113B7A8A4}">
-  <dimension ref="A1:CH67"/>
+  <dimension ref="A1:CH68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6592,18 +6619,18 @@
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -6798,115 +6825,115 @@
     </row>
     <row r="11" spans="1:86" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="106" t="s">
+      <c r="D11" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="101"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="100"/>
       <c r="S11" s="16"/>
-      <c r="T11" s="107" t="s">
+      <c r="T11" s="111" t="s">
         <v>75</v>
       </c>
       <c r="U11" s="17"/>
-      <c r="V11" s="106" t="s">
+      <c r="V11" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="W11" s="106"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
-      <c r="AD11" s="106"/>
-      <c r="AE11" s="106"/>
-      <c r="AF11" s="106"/>
-      <c r="AG11" s="106"/>
-      <c r="AH11" s="106"/>
-      <c r="AI11" s="106"/>
-      <c r="AJ11" s="101"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="110"/>
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="110"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="110"/>
+      <c r="AG11" s="110"/>
+      <c r="AH11" s="110"/>
+      <c r="AI11" s="110"/>
+      <c r="AJ11" s="100"/>
       <c r="AK11" s="16"/>
-      <c r="AL11" s="107" t="s">
+      <c r="AL11" s="111" t="s">
         <v>17</v>
       </c>
       <c r="AM11" s="17"/>
-      <c r="AN11" s="106" t="s">
+      <c r="AN11" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="AO11" s="106"/>
-      <c r="AP11" s="106"/>
-      <c r="AQ11" s="106"/>
-      <c r="AR11" s="106"/>
-      <c r="AS11" s="106"/>
-      <c r="AT11" s="106"/>
-      <c r="AU11" s="106"/>
-      <c r="AV11" s="106"/>
-      <c r="AW11" s="106"/>
-      <c r="AX11" s="106"/>
-      <c r="AY11" s="106"/>
-      <c r="AZ11" s="106"/>
-      <c r="BA11" s="106"/>
-      <c r="BB11" s="101"/>
+      <c r="AO11" s="110"/>
+      <c r="AP11" s="110"/>
+      <c r="AQ11" s="110"/>
+      <c r="AR11" s="110"/>
+      <c r="AS11" s="110"/>
+      <c r="AT11" s="110"/>
+      <c r="AU11" s="110"/>
+      <c r="AV11" s="110"/>
+      <c r="AW11" s="110"/>
+      <c r="AX11" s="110"/>
+      <c r="AY11" s="110"/>
+      <c r="AZ11" s="110"/>
+      <c r="BA11" s="110"/>
+      <c r="BB11" s="100"/>
       <c r="BC11" s="16"/>
-      <c r="BD11" s="109" t="s">
+      <c r="BD11" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="BF11" s="109" t="s">
+      <c r="BF11" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="BH11" s="110" t="s">
+      <c r="BH11" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="BI11" s="111"/>
-      <c r="BJ11" s="111"/>
-      <c r="BK11" s="111"/>
-      <c r="BL11" s="111"/>
-      <c r="BM11" s="111"/>
-      <c r="BN11" s="111"/>
-      <c r="BO11" s="111"/>
-      <c r="BP11" s="111"/>
-      <c r="BQ11" s="111"/>
-      <c r="BR11" s="111"/>
-      <c r="BS11" s="111"/>
-      <c r="BT11" s="112"/>
-      <c r="BV11" s="110" t="s">
+      <c r="BI11" s="115"/>
+      <c r="BJ11" s="115"/>
+      <c r="BK11" s="115"/>
+      <c r="BL11" s="115"/>
+      <c r="BM11" s="115"/>
+      <c r="BN11" s="115"/>
+      <c r="BO11" s="115"/>
+      <c r="BP11" s="115"/>
+      <c r="BQ11" s="115"/>
+      <c r="BR11" s="115"/>
+      <c r="BS11" s="115"/>
+      <c r="BT11" s="116"/>
+      <c r="BV11" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="BW11" s="111"/>
-      <c r="BX11" s="111"/>
-      <c r="BY11" s="111"/>
-      <c r="BZ11" s="111"/>
-      <c r="CA11" s="111"/>
-      <c r="CB11" s="111"/>
-      <c r="CC11" s="111"/>
-      <c r="CD11" s="111"/>
-      <c r="CE11" s="111"/>
-      <c r="CF11" s="111"/>
-      <c r="CG11" s="111"/>
-      <c r="CH11" s="112"/>
+      <c r="BW11" s="115"/>
+      <c r="BX11" s="115"/>
+      <c r="BY11" s="115"/>
+      <c r="BZ11" s="115"/>
+      <c r="CA11" s="115"/>
+      <c r="CB11" s="115"/>
+      <c r="CC11" s="115"/>
+      <c r="CD11" s="115"/>
+      <c r="CE11" s="115"/>
+      <c r="CF11" s="115"/>
+      <c r="CG11" s="115"/>
+      <c r="CH11" s="116"/>
     </row>
     <row r="12" spans="1:86" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="18" t="s">
         <v>23</v>
       </c>
@@ -6949,11 +6976,11 @@
       <c r="Q12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R12" s="101" t="s">
+      <c r="R12" s="100" t="s">
         <v>73</v>
       </c>
       <c r="S12" s="16"/>
-      <c r="T12" s="108"/>
+      <c r="T12" s="112"/>
       <c r="U12" s="17"/>
       <c r="V12" s="18" t="s">
         <v>23</v>
@@ -6997,11 +7024,11 @@
       <c r="AI12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AJ12" s="101" t="s">
+      <c r="AJ12" s="100" t="s">
         <v>73</v>
       </c>
       <c r="AK12" s="16"/>
-      <c r="AL12" s="108"/>
+      <c r="AL12" s="112"/>
       <c r="AM12" s="17"/>
       <c r="AN12" s="18" t="s">
         <v>23</v>
@@ -7045,12 +7072,12 @@
       <c r="BA12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="BB12" s="101" t="s">
+      <c r="BB12" s="100" t="s">
         <v>73</v>
       </c>
       <c r="BC12" s="16"/>
-      <c r="BD12" s="109"/>
-      <c r="BF12" s="109"/>
+      <c r="BD12" s="113"/>
+      <c r="BF12" s="113"/>
       <c r="BG12" s="19"/>
       <c r="BH12" s="20" t="s">
         <v>24</v>
@@ -7133,261 +7160,261 @@
     </row>
     <row r="13" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="68">
+      <c r="C13" s="118"/>
+      <c r="D13" s="67">
         <f>D15-V13</f>
         <v>11398343</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="67">
         <f t="shared" ref="E13:Q13" si="0">E15-W13</f>
         <v>1311039</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="67">
         <f t="shared" si="0"/>
         <v>961423</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="67">
         <f t="shared" si="0"/>
         <v>697891</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="67">
         <f t="shared" si="0"/>
         <v>559553</v>
       </c>
-      <c r="I13" s="68">
+      <c r="I13" s="67">
         <f t="shared" si="0"/>
         <v>331882</v>
       </c>
-      <c r="J13" s="68">
+      <c r="J13" s="67">
         <f t="shared" si="0"/>
         <v>362790</v>
       </c>
-      <c r="K13" s="68">
+      <c r="K13" s="67">
         <f t="shared" si="0"/>
         <v>223070</v>
       </c>
-      <c r="L13" s="68">
+      <c r="L13" s="67">
         <f t="shared" si="0"/>
         <v>141506</v>
       </c>
-      <c r="M13" s="68">
+      <c r="M13" s="67">
         <f t="shared" si="0"/>
         <v>71792</v>
       </c>
-      <c r="N13" s="68">
+      <c r="N13" s="67">
         <f t="shared" si="0"/>
         <v>113931</v>
       </c>
-      <c r="O13" s="68">
+      <c r="O13" s="67">
         <f t="shared" si="0"/>
         <v>102839</v>
       </c>
-      <c r="P13" s="68">
+      <c r="P13" s="67">
         <f t="shared" si="0"/>
         <v>31713</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="67">
         <f t="shared" si="0"/>
         <v>218627.90317505458</v>
       </c>
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
-      <c r="T13" s="69">
+      <c r="T13" s="68">
         <f>SUM(D13:Q13)</f>
         <v>16526399.903175054</v>
       </c>
       <c r="U13" s="23"/>
-      <c r="V13" s="68">
+      <c r="V13" s="67">
         <v>694945</v>
       </c>
-      <c r="W13" s="68">
+      <c r="W13" s="67">
         <v>3398550</v>
       </c>
-      <c r="X13" s="68">
+      <c r="X13" s="67">
         <v>2810070</v>
       </c>
-      <c r="Y13" s="68">
+      <c r="Y13" s="67">
         <v>3126761</v>
       </c>
-      <c r="Z13" s="68">
+      <c r="Z13" s="67">
         <v>3178656</v>
       </c>
-      <c r="AA13" s="68">
+      <c r="AA13" s="67">
         <v>3144421</v>
       </c>
-      <c r="AB13" s="68">
+      <c r="AB13" s="67">
         <v>3275849</v>
       </c>
-      <c r="AC13" s="68">
+      <c r="AC13" s="67">
         <v>3652281</v>
       </c>
-      <c r="AD13" s="68">
+      <c r="AD13" s="67">
         <v>3620276</v>
       </c>
-      <c r="AE13" s="68">
+      <c r="AE13" s="67">
         <v>3125021</v>
       </c>
-      <c r="AF13" s="68">
+      <c r="AF13" s="67">
         <v>2670369</v>
       </c>
-      <c r="AG13" s="68">
+      <c r="AG13" s="67">
         <v>2711289</v>
       </c>
-      <c r="AH13" s="68">
+      <c r="AH13" s="67">
         <v>1978279</v>
       </c>
-      <c r="AI13" s="68">
+      <c r="AI13" s="67">
         <v>2632656</v>
       </c>
       <c r="AJ13" s="22"/>
       <c r="AK13" s="22"/>
-      <c r="AL13" s="69">
+      <c r="AL13" s="68">
         <f>SUM(V13:AI13)</f>
         <v>40019423</v>
       </c>
       <c r="AM13" s="23"/>
-      <c r="AN13" s="68">
+      <c r="AN13" s="67">
         <v>140046</v>
       </c>
-      <c r="AO13" s="68">
+      <c r="AO13" s="67">
         <v>2109209</v>
       </c>
-      <c r="AP13" s="68">
+      <c r="AP13" s="67">
         <v>2045386</v>
       </c>
-      <c r="AQ13" s="68">
+      <c r="AQ13" s="67">
         <v>2563710</v>
       </c>
-      <c r="AR13" s="68">
+      <c r="AR13" s="67">
         <v>2782006</v>
       </c>
-      <c r="AS13" s="68">
+      <c r="AS13" s="67">
         <v>2903781</v>
       </c>
-      <c r="AT13" s="68">
+      <c r="AT13" s="67">
         <v>3096775</v>
       </c>
-      <c r="AU13" s="68">
+      <c r="AU13" s="67">
         <v>3518967</v>
       </c>
-      <c r="AV13" s="68">
+      <c r="AV13" s="67">
         <v>3502930</v>
       </c>
-      <c r="AW13" s="68">
+      <c r="AW13" s="67">
         <v>3040363</v>
       </c>
-      <c r="AX13" s="68">
+      <c r="AX13" s="67">
         <v>2626539</v>
       </c>
-      <c r="AY13" s="68">
+      <c r="AY13" s="67">
         <v>2679056</v>
       </c>
-      <c r="AZ13" s="68">
+      <c r="AZ13" s="67">
         <v>1956002</v>
       </c>
-      <c r="BA13" s="68">
+      <c r="BA13" s="67">
         <v>2583061</v>
       </c>
       <c r="BB13" s="22"/>
       <c r="BC13" s="22"/>
-      <c r="BD13" s="69">
+      <c r="BD13" s="68">
         <f>SUM(AN13:BA13)</f>
         <v>35547831</v>
       </c>
       <c r="BE13" s="24"/>
-      <c r="BF13" s="68">
+      <c r="BF13" s="67">
         <v>75568103</v>
       </c>
       <c r="BG13" s="25"/>
-      <c r="BH13" s="70">
+      <c r="BH13" s="69">
         <v>0.71599429993915664</v>
       </c>
-      <c r="BI13" s="70">
+      <c r="BI13" s="69">
         <v>0.73921801100591911</v>
       </c>
-      <c r="BJ13" s="70">
+      <c r="BJ13" s="69">
         <v>0.82111312269003245</v>
       </c>
-      <c r="BK13" s="70">
+      <c r="BK13" s="69">
         <v>0.85135532544362846</v>
       </c>
-      <c r="BL13" s="70">
+      <c r="BL13" s="69">
         <v>0.92095708135525411</v>
       </c>
-      <c r="BM13" s="70">
+      <c r="BM13" s="69">
         <v>0.88159707757012462</v>
       </c>
-      <c r="BN13" s="70">
+      <c r="BN13" s="69">
         <v>0.93469416585347875</v>
       </c>
-      <c r="BO13" s="71">
+      <c r="BO13" s="70">
         <v>0.98627627633354409</v>
       </c>
-      <c r="BP13" s="72" t="s">
+      <c r="BP13" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="BQ13" s="72">
+      <c r="BQ13" s="71">
         <v>0.95481489162381916</v>
       </c>
-      <c r="BR13" s="72">
+      <c r="BR13" s="71">
         <v>0.97552032399221966</v>
       </c>
-      <c r="BS13" s="72" t="s">
+      <c r="BS13" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="BT13" s="70">
+      <c r="BT13" s="69">
         <v>0.92798357680957533</v>
       </c>
-      <c r="BV13" s="73">
+      <c r="BV13" s="72">
         <v>0.44436057182632849</v>
       </c>
-      <c r="BW13" s="73">
+      <c r="BW13" s="72">
         <v>0.53805996671234269</v>
       </c>
-      <c r="BX13" s="73">
+      <c r="BX13" s="72">
         <v>0.67325130503152086</v>
       </c>
-      <c r="BY13" s="73">
+      <c r="BY13" s="72">
         <v>0.74511857323224884</v>
       </c>
-      <c r="BZ13" s="73">
+      <c r="BZ13" s="72">
         <v>0.85047697959492097</v>
       </c>
-      <c r="CA13" s="73">
+      <c r="CA13" s="72">
         <v>0.83340465018144083</v>
       </c>
-      <c r="CB13" s="73">
+      <c r="CB13" s="72">
         <v>0.90057635891951315</v>
       </c>
-      <c r="CC13" s="73">
+      <c r="CC13" s="72">
         <v>0.95430756015758511</v>
       </c>
-      <c r="CD13" s="73">
+      <c r="CD13" s="72">
         <v>0.97703220125745738</v>
       </c>
-      <c r="CE13" s="73">
+      <c r="CE13" s="72">
         <v>0.93914307372154726</v>
       </c>
-      <c r="CF13" s="73">
+      <c r="CF13" s="72">
         <v>0.96392290792803725</v>
       </c>
-      <c r="CG13" s="74" t="s">
+      <c r="CG13" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="CH13" s="73">
+      <c r="CH13" s="72">
         <v>0.91050186043954029</v>
       </c>
     </row>
-    <row r="14" spans="1:86" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
+    <row r="14" spans="1:86" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="80"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
@@ -7403,9 +7430,9 @@
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
       <c r="U14" s="23"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="82"/>
-      <c r="X14" s="82"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
       <c r="Y14" s="22"/>
       <c r="Z14" s="22"/>
       <c r="AA14" s="22"/>
@@ -7438,1022 +7465,1065 @@
       <c r="BB14" s="22"/>
       <c r="BC14" s="22"/>
       <c r="BD14" s="22"/>
-      <c r="BE14" s="83"/>
+      <c r="BE14" s="82"/>
       <c r="BF14" s="22"/>
-      <c r="BG14" s="84"/>
-      <c r="BH14" s="64"/>
-      <c r="BI14" s="64"/>
-      <c r="BJ14" s="64"/>
-      <c r="BK14" s="64"/>
-      <c r="BL14" s="64"/>
-      <c r="BM14" s="64"/>
-      <c r="BN14" s="64"/>
-      <c r="BO14" s="64"/>
-      <c r="BP14" s="64"/>
-      <c r="BQ14" s="64"/>
-      <c r="BR14" s="64"/>
-      <c r="BS14" s="64"/>
-      <c r="BT14" s="64"/>
-      <c r="BV14" s="65"/>
-      <c r="BW14" s="65"/>
-      <c r="BX14" s="65"/>
-      <c r="BY14" s="65"/>
-      <c r="BZ14" s="65"/>
-      <c r="CA14" s="65"/>
-      <c r="CB14" s="65"/>
-      <c r="CC14" s="65"/>
-      <c r="CD14" s="65"/>
-      <c r="CE14" s="65"/>
-      <c r="CF14" s="65"/>
-      <c r="CG14" s="66"/>
-      <c r="CH14" s="65"/>
-    </row>
-    <row r="15" spans="1:86" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="92"/>
-      <c r="C15" s="92" t="s">
+      <c r="BG14" s="83"/>
+      <c r="BH14" s="63"/>
+      <c r="BI14" s="63"/>
+      <c r="BJ14" s="63"/>
+      <c r="BK14" s="63"/>
+      <c r="BL14" s="63"/>
+      <c r="BM14" s="63"/>
+      <c r="BN14" s="63"/>
+      <c r="BO14" s="63"/>
+      <c r="BP14" s="63"/>
+      <c r="BQ14" s="63"/>
+      <c r="BR14" s="63"/>
+      <c r="BS14" s="63"/>
+      <c r="BT14" s="63"/>
+      <c r="BV14" s="64"/>
+      <c r="BW14" s="64"/>
+      <c r="BX14" s="64"/>
+      <c r="BY14" s="64"/>
+      <c r="BZ14" s="64"/>
+      <c r="CA14" s="64"/>
+      <c r="CB14" s="64"/>
+      <c r="CC14" s="64"/>
+      <c r="CD14" s="64"/>
+      <c r="CE14" s="64"/>
+      <c r="CF14" s="64"/>
+      <c r="CG14" s="65"/>
+      <c r="CH14" s="64"/>
+    </row>
+    <row r="15" spans="1:86" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="91"/>
+      <c r="C15" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="93">
+      <c r="D15" s="92">
         <f>SUM('Population 2020'!E3:E20)</f>
         <v>12093288</v>
       </c>
-      <c r="E15" s="93">
+      <c r="E15" s="92">
         <f>SUM('Population 2020'!E21:E27)</f>
         <v>4709589</v>
       </c>
-      <c r="F15" s="93">
+      <c r="F15" s="92">
         <f>SUM('Population 2020'!E28:E32)</f>
         <v>3771493</v>
       </c>
-      <c r="G15" s="93">
+      <c r="G15" s="92">
         <f>SUM('Population 2020'!E33:E37)</f>
         <v>3824652</v>
       </c>
-      <c r="H15" s="93">
+      <c r="H15" s="92">
         <f>SUM('Population 2020'!E38:E42)</f>
         <v>3738209</v>
       </c>
-      <c r="I15" s="93">
+      <c r="I15" s="92">
         <f>SUM('Population 2020'!E43:E47)</f>
         <v>3476303</v>
       </c>
-      <c r="J15" s="93">
+      <c r="J15" s="92">
         <f>SUM('Population 2020'!E48:E52)</f>
         <v>3638639</v>
       </c>
-      <c r="K15" s="93">
+      <c r="K15" s="92">
         <f>SUM('Population 2020'!E53:E57)</f>
         <v>3875351</v>
       </c>
-      <c r="L15" s="93">
+      <c r="L15" s="92">
         <f>SUM('Population 2020'!E58:E62)</f>
         <v>3761782</v>
       </c>
-      <c r="M15" s="93">
+      <c r="M15" s="92">
         <f>SUM('Population 2020'!E63:E67)</f>
         <v>3196813</v>
       </c>
-      <c r="N15" s="93">
+      <c r="N15" s="92">
         <f>SUM('Population 2020'!E68:E72)</f>
         <v>2784300</v>
       </c>
-      <c r="O15" s="93">
+      <c r="O15" s="92">
         <f>SUM('Population 2020'!E73:E77)</f>
         <v>2814128</v>
       </c>
-      <c r="P15" s="93">
+      <c r="P15" s="92">
         <f>SUM('Population 2020'!E78:E82)</f>
         <v>2009992</v>
       </c>
-      <c r="Q15" s="93">
+      <c r="Q15" s="92">
         <f>SUM('Population 2020'!E83:E103)</f>
         <v>2851283.9031750546</v>
       </c>
-      <c r="R15" s="93">
+      <c r="R15" s="92">
         <f>SUM(D15:Q15)</f>
         <v>56545822.903175056</v>
       </c>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="94"/>
-      <c r="V15" s="93">
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="92">
         <f>D15</f>
         <v>12093288</v>
       </c>
-      <c r="W15" s="93">
+      <c r="W15" s="92">
         <f t="shared" ref="W15:W16" si="1">E15</f>
         <v>4709589</v>
       </c>
-      <c r="X15" s="93">
+      <c r="X15" s="92">
         <f t="shared" ref="X15:X16" si="2">F15</f>
         <v>3771493</v>
       </c>
-      <c r="Y15" s="93">
+      <c r="Y15" s="92">
         <f t="shared" ref="Y15:Y16" si="3">G15</f>
         <v>3824652</v>
       </c>
-      <c r="Z15" s="93">
+      <c r="Z15" s="92">
         <f t="shared" ref="Z15:Z16" si="4">H15</f>
         <v>3738209</v>
       </c>
-      <c r="AA15" s="93">
+      <c r="AA15" s="92">
         <f t="shared" ref="AA15:AA16" si="5">I15</f>
         <v>3476303</v>
       </c>
-      <c r="AB15" s="93">
+      <c r="AB15" s="92">
         <f t="shared" ref="AB15:AB16" si="6">J15</f>
         <v>3638639</v>
       </c>
-      <c r="AC15" s="93">
+      <c r="AC15" s="92">
         <f t="shared" ref="AC15:AC16" si="7">K15</f>
         <v>3875351</v>
       </c>
-      <c r="AD15" s="93">
+      <c r="AD15" s="92">
         <f t="shared" ref="AD15:AD16" si="8">L15</f>
         <v>3761782</v>
       </c>
-      <c r="AE15" s="93">
+      <c r="AE15" s="92">
         <f t="shared" ref="AE15:AE16" si="9">M15</f>
         <v>3196813</v>
       </c>
-      <c r="AF15" s="93">
+      <c r="AF15" s="92">
         <f t="shared" ref="AF15:AF16" si="10">N15</f>
         <v>2784300</v>
       </c>
-      <c r="AG15" s="93">
+      <c r="AG15" s="92">
         <f t="shared" ref="AG15:AG16" si="11">O15</f>
         <v>2814128</v>
       </c>
-      <c r="AH15" s="93">
+      <c r="AH15" s="92">
         <f t="shared" ref="AH15:AH16" si="12">P15</f>
         <v>2009992</v>
       </c>
-      <c r="AI15" s="93">
+      <c r="AI15" s="92">
         <f t="shared" ref="AI15:AI16" si="13">Q15</f>
         <v>2851283.9031750546</v>
       </c>
-      <c r="AJ15" s="93">
+      <c r="AJ15" s="92">
         <f t="shared" ref="AJ15:AJ16" si="14">R15</f>
         <v>56545822.903175056</v>
       </c>
-      <c r="AK15" s="93"/>
-      <c r="AL15" s="93"/>
-      <c r="AM15" s="94"/>
-      <c r="AN15" s="93">
+      <c r="AK15" s="92"/>
+      <c r="AL15" s="92"/>
+      <c r="AM15" s="93"/>
+      <c r="AN15" s="92">
         <f>D15</f>
         <v>12093288</v>
       </c>
-      <c r="AO15" s="93">
+      <c r="AO15" s="92">
         <f t="shared" ref="AO15:AO16" si="15">E15</f>
         <v>4709589</v>
       </c>
-      <c r="AP15" s="93">
+      <c r="AP15" s="92">
         <f t="shared" ref="AP15:AP16" si="16">F15</f>
         <v>3771493</v>
       </c>
-      <c r="AQ15" s="93">
+      <c r="AQ15" s="92">
         <f t="shared" ref="AQ15:AQ16" si="17">G15</f>
         <v>3824652</v>
       </c>
-      <c r="AR15" s="93">
+      <c r="AR15" s="92">
         <f t="shared" ref="AR15:AR16" si="18">H15</f>
         <v>3738209</v>
       </c>
-      <c r="AS15" s="93">
+      <c r="AS15" s="92">
         <f t="shared" ref="AS15:AS16" si="19">I15</f>
         <v>3476303</v>
       </c>
-      <c r="AT15" s="93">
+      <c r="AT15" s="92">
         <f t="shared" ref="AT15:AT16" si="20">J15</f>
         <v>3638639</v>
       </c>
-      <c r="AU15" s="93">
+      <c r="AU15" s="92">
         <f t="shared" ref="AU15:AU16" si="21">K15</f>
         <v>3875351</v>
       </c>
-      <c r="AV15" s="93">
+      <c r="AV15" s="92">
         <f t="shared" ref="AV15:AV16" si="22">L15</f>
         <v>3761782</v>
       </c>
-      <c r="AW15" s="93">
+      <c r="AW15" s="92">
         <f t="shared" ref="AW15:AW16" si="23">M15</f>
         <v>3196813</v>
       </c>
-      <c r="AX15" s="93">
+      <c r="AX15" s="92">
         <f t="shared" ref="AX15:AX16" si="24">N15</f>
         <v>2784300</v>
       </c>
-      <c r="AY15" s="93">
+      <c r="AY15" s="92">
         <f t="shared" ref="AY15:AY16" si="25">O15</f>
         <v>2814128</v>
       </c>
-      <c r="AZ15" s="93">
+      <c r="AZ15" s="92">
         <f t="shared" ref="AZ15:AZ16" si="26">P15</f>
         <v>2009992</v>
       </c>
-      <c r="BA15" s="93">
+      <c r="BA15" s="92">
         <f t="shared" ref="BA15:BA16" si="27">Q15</f>
         <v>2851283.9031750546</v>
       </c>
-      <c r="BB15" s="93">
+      <c r="BB15" s="92">
         <f t="shared" ref="BB15:BB16" si="28">AJ15</f>
         <v>56545822.903175056</v>
       </c>
-      <c r="BC15" s="93"/>
-      <c r="BD15" s="93"/>
-      <c r="BE15" s="95"/>
-      <c r="BF15" s="93"/>
-      <c r="BG15" s="96"/>
-      <c r="BH15" s="97"/>
-      <c r="BI15" s="97"/>
-      <c r="BJ15" s="97"/>
-      <c r="BK15" s="97"/>
-      <c r="BL15" s="97"/>
-      <c r="BM15" s="97"/>
-      <c r="BN15" s="97"/>
-      <c r="BO15" s="97"/>
-      <c r="BP15" s="97"/>
-      <c r="BQ15" s="97"/>
-      <c r="BR15" s="97"/>
-      <c r="BS15" s="97"/>
-      <c r="BT15" s="97"/>
-      <c r="BV15" s="98"/>
-      <c r="BW15" s="98"/>
-      <c r="BX15" s="98"/>
-      <c r="BY15" s="98"/>
-      <c r="BZ15" s="98"/>
-      <c r="CA15" s="98"/>
-      <c r="CB15" s="98"/>
-      <c r="CC15" s="98"/>
-      <c r="CD15" s="98"/>
-      <c r="CE15" s="98"/>
-      <c r="CF15" s="98"/>
-      <c r="CG15" s="99"/>
-      <c r="CH15" s="98"/>
-    </row>
-    <row r="16" spans="1:86" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="92"/>
-      <c r="C16" s="92" t="s">
+      <c r="BC15" s="92"/>
+      <c r="BD15" s="92"/>
+      <c r="BE15" s="94"/>
+      <c r="BF15" s="92"/>
+      <c r="BG15" s="95"/>
+      <c r="BH15" s="96"/>
+      <c r="BI15" s="96"/>
+      <c r="BJ15" s="96"/>
+      <c r="BK15" s="96"/>
+      <c r="BL15" s="96"/>
+      <c r="BM15" s="96"/>
+      <c r="BN15" s="96"/>
+      <c r="BO15" s="96"/>
+      <c r="BP15" s="96"/>
+      <c r="BQ15" s="96"/>
+      <c r="BR15" s="96"/>
+      <c r="BS15" s="96"/>
+      <c r="BT15" s="96"/>
+      <c r="BV15" s="97"/>
+      <c r="BW15" s="97"/>
+      <c r="BX15" s="97"/>
+      <c r="BY15" s="97"/>
+      <c r="BZ15" s="97"/>
+      <c r="CA15" s="97"/>
+      <c r="CB15" s="97"/>
+      <c r="CC15" s="97"/>
+      <c r="CD15" s="97"/>
+      <c r="CE15" s="97"/>
+      <c r="CF15" s="97"/>
+      <c r="CG15" s="98"/>
+      <c r="CH15" s="97"/>
+    </row>
+    <row r="16" spans="1:86" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="91"/>
+      <c r="C16" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="93">
+      <c r="D16" s="92">
         <f>SUM('Population 2020'!F3:F20)</f>
         <v>108781473</v>
       </c>
-      <c r="E16" s="93">
+      <c r="E16" s="92">
         <f>SUM('Population 2020'!F21:F27)</f>
         <v>101833071.5</v>
       </c>
-      <c r="F16" s="93">
+      <c r="F16" s="92">
         <f>SUM('Population 2020'!F28:F32)</f>
         <v>103857979.5</v>
       </c>
-      <c r="G16" s="93">
+      <c r="G16" s="92">
         <f>SUM('Population 2020'!F33:F37)</f>
         <v>124268119</v>
       </c>
-      <c r="H16" s="93">
+      <c r="H16" s="92">
         <f>SUM('Population 2020'!F38:F42)</f>
         <v>140164701.5</v>
       </c>
-      <c r="I16" s="93">
+      <c r="I16" s="92">
         <f>SUM('Population 2020'!F43:F47)</f>
         <v>147529787.5</v>
       </c>
-      <c r="J16" s="93">
+      <c r="J16" s="92">
         <f>SUM('Population 2020'!F48:F52)</f>
         <v>173078948.5</v>
       </c>
-      <c r="K16" s="93">
+      <c r="K16" s="92">
         <f>SUM('Population 2020'!F53:F57)</f>
         <v>203511582.5</v>
       </c>
-      <c r="L16" s="93">
+      <c r="L16" s="92">
         <f>SUM('Population 2020'!F58:F62)</f>
         <v>216113888</v>
       </c>
-      <c r="M16" s="93">
+      <c r="M16" s="92">
         <f>SUM('Population 2020'!F63:F67)</f>
         <v>199592648.5</v>
       </c>
-      <c r="N16" s="93">
+      <c r="N16" s="92">
         <f>SUM('Population 2020'!F68:F72)</f>
         <v>187853569</v>
       </c>
-      <c r="O16" s="93">
+      <c r="O16" s="92">
         <f>SUM('Population 2020'!F73:F77)</f>
         <v>203961346</v>
       </c>
-      <c r="P16" s="93">
+      <c r="P16" s="92">
         <f>SUM('Population 2020'!F78:F82)</f>
         <v>155396794</v>
       </c>
-      <c r="Q16" s="93">
+      <c r="Q16" s="92">
         <f>SUM('Population 2020'!F83:F103)</f>
         <v>244750656.88774106</v>
       </c>
-      <c r="R16" s="93">
+      <c r="R16" s="92">
         <f>SUM(D16:Q16)</f>
         <v>2310694565.3877411</v>
       </c>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="93">
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="92">
         <f t="shared" ref="V16" si="29">D16</f>
         <v>108781473</v>
       </c>
-      <c r="W16" s="93">
+      <c r="W16" s="92">
         <f t="shared" si="1"/>
         <v>101833071.5</v>
       </c>
-      <c r="X16" s="93">
+      <c r="X16" s="92">
         <f t="shared" si="2"/>
         <v>103857979.5</v>
       </c>
-      <c r="Y16" s="93">
+      <c r="Y16" s="92">
         <f t="shared" si="3"/>
         <v>124268119</v>
       </c>
-      <c r="Z16" s="93">
+      <c r="Z16" s="92">
         <f t="shared" si="4"/>
         <v>140164701.5</v>
       </c>
-      <c r="AA16" s="93">
+      <c r="AA16" s="92">
         <f t="shared" si="5"/>
         <v>147529787.5</v>
       </c>
-      <c r="AB16" s="93">
+      <c r="AB16" s="92">
         <f t="shared" si="6"/>
         <v>173078948.5</v>
       </c>
-      <c r="AC16" s="93">
+      <c r="AC16" s="92">
         <f t="shared" si="7"/>
         <v>203511582.5</v>
       </c>
-      <c r="AD16" s="93">
+      <c r="AD16" s="92">
         <f t="shared" si="8"/>
         <v>216113888</v>
       </c>
-      <c r="AE16" s="93">
+      <c r="AE16" s="92">
         <f t="shared" si="9"/>
         <v>199592648.5</v>
       </c>
-      <c r="AF16" s="93">
+      <c r="AF16" s="92">
         <f t="shared" si="10"/>
         <v>187853569</v>
       </c>
-      <c r="AG16" s="93">
+      <c r="AG16" s="92">
         <f t="shared" si="11"/>
         <v>203961346</v>
       </c>
-      <c r="AH16" s="93">
+      <c r="AH16" s="92">
         <f t="shared" si="12"/>
         <v>155396794</v>
       </c>
-      <c r="AI16" s="93">
+      <c r="AI16" s="92">
         <f t="shared" si="13"/>
         <v>244750656.88774106</v>
       </c>
-      <c r="AJ16" s="93">
+      <c r="AJ16" s="92">
         <f t="shared" si="14"/>
         <v>2310694565.3877411</v>
       </c>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="94"/>
-      <c r="AN16" s="93">
+      <c r="AK16" s="92"/>
+      <c r="AL16" s="92"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="92">
         <f t="shared" ref="AN16" si="30">D16</f>
         <v>108781473</v>
       </c>
-      <c r="AO16" s="93">
+      <c r="AO16" s="92">
         <f t="shared" si="15"/>
         <v>101833071.5</v>
       </c>
-      <c r="AP16" s="93">
+      <c r="AP16" s="92">
         <f t="shared" si="16"/>
         <v>103857979.5</v>
       </c>
-      <c r="AQ16" s="93">
+      <c r="AQ16" s="92">
         <f t="shared" si="17"/>
         <v>124268119</v>
       </c>
-      <c r="AR16" s="93">
+      <c r="AR16" s="92">
         <f t="shared" si="18"/>
         <v>140164701.5</v>
       </c>
-      <c r="AS16" s="93">
+      <c r="AS16" s="92">
         <f t="shared" si="19"/>
         <v>147529787.5</v>
       </c>
-      <c r="AT16" s="93">
+      <c r="AT16" s="92">
         <f t="shared" si="20"/>
         <v>173078948.5</v>
       </c>
-      <c r="AU16" s="93">
+      <c r="AU16" s="92">
         <f t="shared" si="21"/>
         <v>203511582.5</v>
       </c>
-      <c r="AV16" s="93">
+      <c r="AV16" s="92">
         <f t="shared" si="22"/>
         <v>216113888</v>
       </c>
-      <c r="AW16" s="93">
+      <c r="AW16" s="92">
         <f t="shared" si="23"/>
         <v>199592648.5</v>
       </c>
-      <c r="AX16" s="93">
+      <c r="AX16" s="92">
         <f t="shared" si="24"/>
         <v>187853569</v>
       </c>
-      <c r="AY16" s="93">
+      <c r="AY16" s="92">
         <f t="shared" si="25"/>
         <v>203961346</v>
       </c>
-      <c r="AZ16" s="93">
+      <c r="AZ16" s="92">
         <f t="shared" si="26"/>
         <v>155396794</v>
       </c>
-      <c r="BA16" s="93">
+      <c r="BA16" s="92">
         <f t="shared" si="27"/>
         <v>244750656.88774106</v>
       </c>
-      <c r="BB16" s="93">
+      <c r="BB16" s="92">
         <f t="shared" si="28"/>
         <v>2310694565.3877411</v>
       </c>
-      <c r="BC16" s="93"/>
-      <c r="BD16" s="93"/>
-      <c r="BE16" s="95"/>
-      <c r="BF16" s="93"/>
-      <c r="BG16" s="96"/>
-      <c r="BH16" s="97"/>
-      <c r="BI16" s="97"/>
-      <c r="BJ16" s="97"/>
-      <c r="BK16" s="97"/>
-      <c r="BL16" s="97"/>
-      <c r="BM16" s="97"/>
-      <c r="BN16" s="97"/>
-      <c r="BO16" s="97"/>
-      <c r="BP16" s="97"/>
-      <c r="BQ16" s="97"/>
-      <c r="BR16" s="97"/>
-      <c r="BS16" s="97"/>
-      <c r="BT16" s="97"/>
-      <c r="BV16" s="98"/>
-      <c r="BW16" s="98"/>
-      <c r="BX16" s="98"/>
-      <c r="BY16" s="98"/>
-      <c r="BZ16" s="98"/>
-      <c r="CA16" s="98"/>
-      <c r="CB16" s="98"/>
-      <c r="CC16" s="98"/>
-      <c r="CD16" s="98"/>
-      <c r="CE16" s="98"/>
-      <c r="CF16" s="98"/>
-      <c r="CG16" s="99"/>
-      <c r="CH16" s="98"/>
-    </row>
-    <row r="17" spans="1:86" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="92"/>
-      <c r="C17" s="92" t="s">
+      <c r="BC16" s="92"/>
+      <c r="BD16" s="92"/>
+      <c r="BE16" s="94"/>
+      <c r="BF16" s="92"/>
+      <c r="BG16" s="95"/>
+      <c r="BH16" s="96"/>
+      <c r="BI16" s="96"/>
+      <c r="BJ16" s="96"/>
+      <c r="BK16" s="96"/>
+      <c r="BL16" s="96"/>
+      <c r="BM16" s="96"/>
+      <c r="BN16" s="96"/>
+      <c r="BO16" s="96"/>
+      <c r="BP16" s="96"/>
+      <c r="BQ16" s="96"/>
+      <c r="BR16" s="96"/>
+      <c r="BS16" s="96"/>
+      <c r="BT16" s="96"/>
+      <c r="BV16" s="97"/>
+      <c r="BW16" s="97"/>
+      <c r="BX16" s="97"/>
+      <c r="BY16" s="97"/>
+      <c r="BZ16" s="97"/>
+      <c r="CA16" s="97"/>
+      <c r="CB16" s="97"/>
+      <c r="CC16" s="97"/>
+      <c r="CD16" s="97"/>
+      <c r="CE16" s="97"/>
+      <c r="CF16" s="97"/>
+      <c r="CG16" s="98"/>
+      <c r="CH16" s="97"/>
+    </row>
+    <row r="17" spans="1:86" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="91"/>
+      <c r="C17" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="100">
+      <c r="D17" s="99">
         <f>D16/D15</f>
         <v>8.9951941109812328</v>
       </c>
-      <c r="E17" s="100">
+      <c r="E17" s="99">
         <f>E16/E15</f>
         <v>21.622496464128822</v>
       </c>
-      <c r="F17" s="100">
+      <c r="F17" s="99">
         <f t="shared" ref="F17:R17" si="31">F16/F15</f>
         <v>27.537630190484247</v>
       </c>
-      <c r="G17" s="100">
+      <c r="G17" s="99">
         <f t="shared" si="31"/>
         <v>32.491353200238869</v>
       </c>
-      <c r="H17" s="100">
+      <c r="H17" s="99">
         <f t="shared" si="31"/>
         <v>37.495148478857118</v>
       </c>
-      <c r="I17" s="100">
+      <c r="I17" s="99">
         <f t="shared" si="31"/>
         <v>42.438702121190239</v>
       </c>
-      <c r="J17" s="100">
+      <c r="J17" s="99">
         <f t="shared" si="31"/>
         <v>47.566947009582428</v>
       </c>
-      <c r="K17" s="100">
+      <c r="K17" s="99">
         <f t="shared" si="31"/>
         <v>52.514361279791174</v>
       </c>
-      <c r="L17" s="100">
+      <c r="L17" s="99">
         <f t="shared" si="31"/>
         <v>57.449870300830831</v>
       </c>
-      <c r="M17" s="100">
+      <c r="M17" s="99">
         <f t="shared" si="31"/>
         <v>62.434883898432595</v>
       </c>
-      <c r="N17" s="100">
+      <c r="N17" s="99">
         <f t="shared" si="31"/>
         <v>67.468867938081388</v>
       </c>
-      <c r="O17" s="100">
+      <c r="O17" s="99">
         <f t="shared" si="31"/>
         <v>72.477636411705504</v>
       </c>
-      <c r="P17" s="100">
+      <c r="P17" s="99">
         <f t="shared" si="31"/>
         <v>77.312145520977197</v>
       </c>
-      <c r="Q17" s="100">
+      <c r="Q17" s="99">
         <f t="shared" si="31"/>
         <v>85.83875376815277</v>
       </c>
-      <c r="R17" s="100">
+      <c r="R17" s="99">
         <f t="shared" si="31"/>
         <v>40.864107139167572</v>
       </c>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="94"/>
-      <c r="V17" s="100">
+      <c r="S17" s="92"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="99">
         <f>V16/V15</f>
         <v>8.9951941109812328</v>
       </c>
-      <c r="W17" s="100">
+      <c r="W17" s="99">
         <f>W16/W15</f>
         <v>21.622496464128822</v>
       </c>
-      <c r="X17" s="100">
+      <c r="X17" s="99">
         <f t="shared" ref="X17" si="32">X16/X15</f>
         <v>27.537630190484247</v>
       </c>
-      <c r="Y17" s="100">
+      <c r="Y17" s="99">
         <f t="shared" ref="Y17" si="33">Y16/Y15</f>
         <v>32.491353200238869</v>
       </c>
-      <c r="Z17" s="100">
+      <c r="Z17" s="99">
         <f t="shared" ref="Z17" si="34">Z16/Z15</f>
         <v>37.495148478857118</v>
       </c>
-      <c r="AA17" s="100">
+      <c r="AA17" s="99">
         <f t="shared" ref="AA17" si="35">AA16/AA15</f>
         <v>42.438702121190239</v>
       </c>
-      <c r="AB17" s="100">
+      <c r="AB17" s="99">
         <f t="shared" ref="AB17" si="36">AB16/AB15</f>
         <v>47.566947009582428</v>
       </c>
-      <c r="AC17" s="100">
+      <c r="AC17" s="99">
         <f t="shared" ref="AC17" si="37">AC16/AC15</f>
         <v>52.514361279791174</v>
       </c>
-      <c r="AD17" s="100">
+      <c r="AD17" s="99">
         <f t="shared" ref="AD17" si="38">AD16/AD15</f>
         <v>57.449870300830831</v>
       </c>
-      <c r="AE17" s="100">
+      <c r="AE17" s="99">
         <f t="shared" ref="AE17" si="39">AE16/AE15</f>
         <v>62.434883898432595</v>
       </c>
-      <c r="AF17" s="100">
+      <c r="AF17" s="99">
         <f t="shared" ref="AF17" si="40">AF16/AF15</f>
         <v>67.468867938081388</v>
       </c>
-      <c r="AG17" s="100">
+      <c r="AG17" s="99">
         <f t="shared" ref="AG17" si="41">AG16/AG15</f>
         <v>72.477636411705504</v>
       </c>
-      <c r="AH17" s="100">
+      <c r="AH17" s="99">
         <f t="shared" ref="AH17" si="42">AH16/AH15</f>
         <v>77.312145520977197</v>
       </c>
-      <c r="AI17" s="100">
+      <c r="AI17" s="99">
         <f t="shared" ref="AI17" si="43">AI16/AI15</f>
         <v>85.83875376815277</v>
       </c>
-      <c r="AJ17" s="100">
+      <c r="AJ17" s="99">
         <f t="shared" ref="AJ17" si="44">AJ16/AJ15</f>
         <v>40.864107139167572</v>
       </c>
-      <c r="AK17" s="93"/>
-      <c r="AL17" s="93"/>
-      <c r="AM17" s="94"/>
-      <c r="AN17" s="100">
+      <c r="AK17" s="92"/>
+      <c r="AL17" s="92"/>
+      <c r="AM17" s="93"/>
+      <c r="AN17" s="99">
         <f t="shared" ref="AN17:BB17" si="45">AN16/AN15</f>
         <v>8.9951941109812328</v>
       </c>
-      <c r="AO17" s="100">
+      <c r="AO17" s="99">
         <f t="shared" si="45"/>
         <v>21.622496464128822</v>
       </c>
-      <c r="AP17" s="100">
+      <c r="AP17" s="99">
         <f t="shared" si="45"/>
         <v>27.537630190484247</v>
       </c>
-      <c r="AQ17" s="100">
+      <c r="AQ17" s="99">
         <f t="shared" si="45"/>
         <v>32.491353200238869</v>
       </c>
-      <c r="AR17" s="100">
+      <c r="AR17" s="99">
         <f t="shared" si="45"/>
         <v>37.495148478857118</v>
       </c>
-      <c r="AS17" s="100">
+      <c r="AS17" s="99">
         <f t="shared" si="45"/>
         <v>42.438702121190239</v>
       </c>
-      <c r="AT17" s="100">
+      <c r="AT17" s="99">
         <f t="shared" si="45"/>
         <v>47.566947009582428</v>
       </c>
-      <c r="AU17" s="100">
+      <c r="AU17" s="99">
         <f t="shared" si="45"/>
         <v>52.514361279791174</v>
       </c>
-      <c r="AV17" s="100">
+      <c r="AV17" s="99">
         <f t="shared" si="45"/>
         <v>57.449870300830831</v>
       </c>
-      <c r="AW17" s="100">
+      <c r="AW17" s="99">
         <f t="shared" si="45"/>
         <v>62.434883898432595</v>
       </c>
-      <c r="AX17" s="100">
+      <c r="AX17" s="99">
         <f t="shared" si="45"/>
         <v>67.468867938081388</v>
       </c>
-      <c r="AY17" s="100">
+      <c r="AY17" s="99">
         <f t="shared" si="45"/>
         <v>72.477636411705504</v>
       </c>
-      <c r="AZ17" s="100">
+      <c r="AZ17" s="99">
         <f t="shared" si="45"/>
         <v>77.312145520977197</v>
       </c>
-      <c r="BA17" s="100">
+      <c r="BA17" s="99">
         <f t="shared" si="45"/>
         <v>85.83875376815277</v>
       </c>
-      <c r="BB17" s="100">
+      <c r="BB17" s="99">
         <f t="shared" si="45"/>
         <v>40.864107139167572</v>
       </c>
-      <c r="BC17" s="93"/>
-      <c r="BD17" s="93"/>
-      <c r="BE17" s="95"/>
-      <c r="BF17" s="93"/>
-      <c r="BG17" s="96"/>
-      <c r="BH17" s="97"/>
-      <c r="BI17" s="97"/>
-      <c r="BJ17" s="97"/>
-      <c r="BK17" s="97"/>
-      <c r="BL17" s="97"/>
-      <c r="BM17" s="97"/>
-      <c r="BN17" s="97"/>
-      <c r="BO17" s="97"/>
-      <c r="BP17" s="97"/>
-      <c r="BQ17" s="97"/>
-      <c r="BR17" s="97"/>
-      <c r="BS17" s="97"/>
-      <c r="BT17" s="97"/>
-      <c r="BV17" s="98"/>
-      <c r="BW17" s="98"/>
-      <c r="BX17" s="98"/>
-      <c r="BY17" s="98"/>
-      <c r="BZ17" s="98"/>
-      <c r="CA17" s="98"/>
-      <c r="CB17" s="98"/>
-      <c r="CC17" s="98"/>
-      <c r="CD17" s="98"/>
-      <c r="CE17" s="98"/>
-      <c r="CF17" s="98"/>
-      <c r="CG17" s="99"/>
-      <c r="CH17" s="98"/>
-    </row>
-    <row r="18" spans="1:86" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="92"/>
-      <c r="C18" s="92" t="s">
+      <c r="BC17" s="92"/>
+      <c r="BD17" s="92"/>
+      <c r="BE17" s="94"/>
+      <c r="BF17" s="92"/>
+      <c r="BG17" s="95"/>
+      <c r="BH17" s="96"/>
+      <c r="BI17" s="96"/>
+      <c r="BJ17" s="96"/>
+      <c r="BK17" s="96"/>
+      <c r="BL17" s="96"/>
+      <c r="BM17" s="96"/>
+      <c r="BN17" s="96"/>
+      <c r="BO17" s="96"/>
+      <c r="BP17" s="96"/>
+      <c r="BQ17" s="96"/>
+      <c r="BR17" s="96"/>
+      <c r="BS17" s="96"/>
+      <c r="BT17" s="96"/>
+      <c r="BV17" s="97"/>
+      <c r="BW17" s="97"/>
+      <c r="BX17" s="97"/>
+      <c r="BY17" s="97"/>
+      <c r="BZ17" s="97"/>
+      <c r="CA17" s="97"/>
+      <c r="CB17" s="97"/>
+      <c r="CC17" s="97"/>
+      <c r="CD17" s="97"/>
+      <c r="CE17" s="97"/>
+      <c r="CF17" s="97"/>
+      <c r="CG17" s="98"/>
+      <c r="CH17" s="97"/>
+    </row>
+    <row r="18" spans="1:86" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="91"/>
+      <c r="C18" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="100">
+      <c r="D18" s="99">
         <f>D13*D17</f>
         <v>102530307.82854415</v>
       </c>
-      <c r="E18" s="100">
+      <c r="E18" s="99">
         <f t="shared" ref="E18:Q18" si="46">E13*E17</f>
         <v>28347936.141834985</v>
       </c>
-      <c r="F18" s="100">
+      <c r="F18" s="99">
         <f t="shared" si="46"/>
         <v>26475311.030625936</v>
       </c>
-      <c r="G18" s="100">
+      <c r="G18" s="99">
         <f t="shared" si="46"/>
         <v>22675422.976267904</v>
       </c>
-      <c r="H18" s="100">
+      <c r="H18" s="99">
         <f t="shared" si="46"/>
         <v>20980522.816789936</v>
       </c>
-      <c r="I18" s="100">
+      <c r="I18" s="99">
         <f t="shared" si="46"/>
         <v>14084641.337384859</v>
       </c>
-      <c r="J18" s="100">
+      <c r="J18" s="99">
         <f t="shared" si="46"/>
         <v>17256812.705606408</v>
       </c>
-      <c r="K18" s="100">
+      <c r="K18" s="99">
         <f t="shared" si="46"/>
         <v>11714378.570683017</v>
       </c>
-      <c r="L18" s="100">
+      <c r="L18" s="99">
         <f t="shared" si="46"/>
         <v>8129501.3467893675</v>
       </c>
-      <c r="M18" s="100">
+      <c r="M18" s="99">
         <f t="shared" si="46"/>
         <v>4482325.1848362731</v>
       </c>
-      <c r="N18" s="100">
+      <c r="N18" s="99">
         <f t="shared" si="46"/>
         <v>7686795.5930535505</v>
       </c>
-      <c r="O18" s="100">
+      <c r="O18" s="99">
         <f t="shared" si="46"/>
         <v>7453527.6509433826</v>
       </c>
-      <c r="P18" s="100">
+      <c r="P18" s="99">
         <f t="shared" si="46"/>
         <v>2451800.0709067499</v>
       </c>
-      <c r="Q18" s="100">
+      <c r="Q18" s="99">
         <f t="shared" si="46"/>
         <v>18766746.747491054</v>
       </c>
-      <c r="R18" s="120">
+      <c r="R18" s="103">
         <f>SUM(D18:Q18)/SUM(D13:Q13)</f>
         <v>17.731389275256461</v>
       </c>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="94"/>
-      <c r="V18" s="100">
+      <c r="S18" s="92"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="99">
         <f>V13*V17</f>
         <v>6251165.1714558527</v>
       </c>
-      <c r="W18" s="100">
+      <c r="W18" s="99">
         <f t="shared" ref="W18" si="47">W13*W17</f>
         <v>73485135.358165011</v>
       </c>
-      <c r="X18" s="100">
+      <c r="X18" s="99">
         <f t="shared" ref="X18" si="48">X13*X17</f>
         <v>77382668.469374076</v>
       </c>
-      <c r="Y18" s="100">
+      <c r="Y18" s="99">
         <f t="shared" ref="Y18" si="49">Y13*Y17</f>
         <v>101592696.02373208</v>
       </c>
-      <c r="Z18" s="100">
+      <c r="Z18" s="99">
         <f t="shared" ref="Z18" si="50">Z13*Z17</f>
         <v>119184178.68321005</v>
       </c>
-      <c r="AA18" s="100">
+      <c r="AA18" s="99">
         <f t="shared" ref="AA18" si="51">AA13*AA17</f>
         <v>133445146.16261514</v>
       </c>
-      <c r="AB18" s="100">
+      <c r="AB18" s="99">
         <f t="shared" ref="AB18" si="52">AB13*AB17</f>
         <v>155822135.7943936</v>
       </c>
-      <c r="AC18" s="100">
+      <c r="AC18" s="99">
         <f t="shared" ref="AC18" si="53">AC13*AC17</f>
         <v>191797203.929317</v>
       </c>
-      <c r="AD18" s="100">
+      <c r="AD18" s="99">
         <f t="shared" ref="AD18" si="54">AD13*AD17</f>
         <v>207984386.65321064</v>
       </c>
-      <c r="AE18" s="100">
+      <c r="AE18" s="99">
         <f t="shared" ref="AE18" si="55">AE13*AE17</f>
         <v>195110323.31516373</v>
       </c>
-      <c r="AF18" s="100">
+      <c r="AF18" s="99">
         <f t="shared" ref="AF18" si="56">AF13*AF17</f>
         <v>180166773.40694645</v>
       </c>
-      <c r="AG18" s="100">
+      <c r="AG18" s="99">
         <f t="shared" ref="AG18" si="57">AG13*AG17</f>
         <v>196507818.3490566</v>
       </c>
-      <c r="AH18" s="100">
+      <c r="AH18" s="99">
         <f t="shared" ref="AH18" si="58">AH13*AH17</f>
         <v>152944993.92909324</v>
       </c>
-      <c r="AI18" s="100">
+      <c r="AI18" s="99">
         <f t="shared" ref="AI18" si="59">AI13*AI17</f>
         <v>225983910.14025</v>
       </c>
-      <c r="AJ18" s="120">
+      <c r="AJ18" s="103">
         <f>SUM(V18:AI18)/SUM(V13:AI13)</f>
         <v>50.416982158537948</v>
       </c>
-      <c r="AK18" s="93"/>
-      <c r="AL18" s="93"/>
-      <c r="AM18" s="94"/>
-      <c r="AN18" s="100">
+      <c r="AK18" s="92"/>
+      <c r="AL18" s="92"/>
+      <c r="AM18" s="93"/>
+      <c r="AN18" s="99">
         <f>AN13*AN17</f>
         <v>1259740.9544664777</v>
       </c>
-      <c r="AO18" s="100">
+      <c r="AO18" s="99">
         <f t="shared" ref="AO18" si="60">AO13*AO17</f>
         <v>45606364.144608691</v>
       </c>
-      <c r="AP18" s="100">
+      <c r="AP18" s="99">
         <f t="shared" ref="AP18" si="61">AP13*AP17</f>
         <v>56325083.264793813</v>
       </c>
-      <c r="AQ18" s="100">
+      <c r="AQ18" s="99">
         <f t="shared" ref="AQ18" si="62">AQ13*AQ17</f>
         <v>83298407.112984389</v>
       </c>
-      <c r="AR18" s="100">
+      <c r="AR18" s="99">
         <f t="shared" ref="AR18" si="63">AR13*AR17</f>
         <v>104311728.03907138</v>
       </c>
-      <c r="AS18" s="100">
+      <c r="AS18" s="99">
         <f t="shared" ref="AS18" si="64">AS13*AS17</f>
         <v>123232696.88417192</v>
       </c>
-      <c r="AT18" s="100">
+      <c r="AT18" s="99">
         <f t="shared" ref="AT18" si="65">AT13*AT17</f>
         <v>147304132.32559961</v>
       </c>
-      <c r="AU18" s="100">
+      <c r="AU18" s="99">
         <f t="shared" ref="AU18" si="66">AU13*AU17</f>
         <v>184796304.36966291</v>
       </c>
-      <c r="AV18" s="100">
+      <c r="AV18" s="99">
         <f t="shared" ref="AV18" si="67">AV13*AV17</f>
         <v>201242874.17288935</v>
       </c>
-      <c r="AW18" s="100">
+      <c r="AW18" s="99">
         <f t="shared" ref="AW18" si="68">AW13*AW17</f>
         <v>189824710.91409022</v>
       </c>
-      <c r="AX18" s="100">
+      <c r="AX18" s="99">
         <f t="shared" ref="AX18" si="69">AX13*AX17</f>
         <v>177209612.92522034</v>
       </c>
-      <c r="AY18" s="100">
+      <c r="AY18" s="99">
         <f t="shared" ref="AY18" si="70">AY13*AY17</f>
         <v>194171646.69459811</v>
       </c>
-      <c r="AZ18" s="100">
+      <c r="AZ18" s="99">
         <f t="shared" ref="AZ18" si="71">AZ13*AZ17</f>
         <v>151222711.26332244</v>
       </c>
-      <c r="BA18" s="100">
+      <c r="BA18" s="99">
         <f t="shared" ref="BA18" si="72">BA13*BA17</f>
         <v>221726737.14711845</v>
       </c>
-      <c r="BB18" s="120">
+      <c r="BB18" s="103">
         <f>SUM(AN18:BA18)/SUM(AN13:BA13)</f>
         <v>52.92960772241203</v>
       </c>
-      <c r="BC18" s="100">
+      <c r="BC18" s="99">
         <f>SUM(AN18:BA18)/SUM(AN13:BA13)</f>
         <v>52.92960772241203</v>
       </c>
-      <c r="BD18" s="93"/>
-      <c r="BE18" s="95"/>
-      <c r="BF18" s="93"/>
-      <c r="BG18" s="96"/>
-      <c r="BH18" s="97"/>
-      <c r="BI18" s="97"/>
-      <c r="BJ18" s="97"/>
-      <c r="BK18" s="97"/>
-      <c r="BL18" s="97"/>
-      <c r="BM18" s="97"/>
-      <c r="BN18" s="97"/>
-      <c r="BO18" s="97"/>
-      <c r="BP18" s="97"/>
-      <c r="BQ18" s="97"/>
-      <c r="BR18" s="97"/>
-      <c r="BS18" s="97"/>
-      <c r="BT18" s="97"/>
-      <c r="BV18" s="98"/>
-      <c r="BW18" s="98"/>
-      <c r="BX18" s="98"/>
-      <c r="BY18" s="98"/>
-      <c r="BZ18" s="98"/>
-      <c r="CA18" s="98"/>
-      <c r="CB18" s="98"/>
-      <c r="CC18" s="98"/>
-      <c r="CD18" s="98"/>
-      <c r="CE18" s="98"/>
-      <c r="CF18" s="98"/>
-      <c r="CG18" s="99"/>
-      <c r="CH18" s="98"/>
-    </row>
-    <row r="19" spans="1:86" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="22"/>
-      <c r="AG19" s="22"/>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="22"/>
-      <c r="AJ19" s="22"/>
-      <c r="AK19" s="22"/>
-      <c r="AL19" s="22"/>
-      <c r="AM19" s="23"/>
-      <c r="AN19" s="22"/>
-      <c r="AO19" s="22"/>
-      <c r="AP19" s="22"/>
-      <c r="AQ19" s="22"/>
-      <c r="AR19" s="22"/>
-      <c r="AS19" s="22"/>
-      <c r="AT19" s="22"/>
-      <c r="AU19" s="22"/>
-      <c r="AV19" s="22"/>
-      <c r="AW19" s="22"/>
-      <c r="AX19" s="22"/>
-      <c r="AY19" s="22"/>
-      <c r="AZ19" s="22"/>
-      <c r="BA19" s="22"/>
-      <c r="BB19" s="22"/>
-      <c r="BC19" s="22"/>
-      <c r="BD19" s="22"/>
-      <c r="BE19" s="83"/>
-      <c r="BF19" s="22"/>
-      <c r="BG19" s="84"/>
-      <c r="BH19" s="64"/>
-      <c r="BI19" s="64"/>
-      <c r="BJ19" s="64"/>
-      <c r="BK19" s="64"/>
-      <c r="BL19" s="64"/>
-      <c r="BM19" s="64"/>
-      <c r="BN19" s="64"/>
-      <c r="BO19" s="64"/>
-      <c r="BP19" s="64"/>
-      <c r="BQ19" s="64"/>
-      <c r="BR19" s="64"/>
-      <c r="BS19" s="64"/>
-      <c r="BT19" s="64"/>
-      <c r="BV19" s="65"/>
-      <c r="BW19" s="65"/>
-      <c r="BX19" s="65"/>
-      <c r="BY19" s="65"/>
-      <c r="BZ19" s="65"/>
-      <c r="CA19" s="65"/>
-      <c r="CB19" s="65"/>
-      <c r="CC19" s="65"/>
-      <c r="CD19" s="65"/>
-      <c r="CE19" s="65"/>
-      <c r="CF19" s="65"/>
-      <c r="CG19" s="66"/>
-      <c r="CH19" s="65"/>
-    </row>
-    <row r="20" spans="1:86" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
+      <c r="BD18" s="92"/>
+      <c r="BE18" s="94"/>
+      <c r="BF18" s="92"/>
+      <c r="BG18" s="95"/>
+      <c r="BH18" s="96"/>
+      <c r="BI18" s="96"/>
+      <c r="BJ18" s="96"/>
+      <c r="BK18" s="96"/>
+      <c r="BL18" s="96"/>
+      <c r="BM18" s="96"/>
+      <c r="BN18" s="96"/>
+      <c r="BO18" s="96"/>
+      <c r="BP18" s="96"/>
+      <c r="BQ18" s="96"/>
+      <c r="BR18" s="96"/>
+      <c r="BS18" s="96"/>
+      <c r="BT18" s="96"/>
+      <c r="BV18" s="97"/>
+      <c r="BW18" s="97"/>
+      <c r="BX18" s="97"/>
+      <c r="BY18" s="97"/>
+      <c r="BZ18" s="97"/>
+      <c r="CA18" s="97"/>
+      <c r="CB18" s="97"/>
+      <c r="CC18" s="97"/>
+      <c r="CD18" s="97"/>
+      <c r="CE18" s="97"/>
+      <c r="CF18" s="97"/>
+      <c r="CG18" s="98"/>
+      <c r="CH18" s="97"/>
+    </row>
+    <row r="19" spans="1:86" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="123"/>
+      <c r="C19" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="124">
+        <f>AVERAGE('Population 2020'!B3:B20)</f>
+        <v>29.113611111111101</v>
+      </c>
+      <c r="E19" s="124">
+        <f>AVERAGE('Population 2020'!B21:B27)</f>
+        <v>29.22</v>
+      </c>
+      <c r="F19" s="124">
+        <f>AVERAGE('Population 2020'!B28:B32)</f>
+        <v>40.088999999999999</v>
+      </c>
+      <c r="G19" s="124">
+        <f>AVERAGE('Population 2020'!B33:B37)</f>
+        <v>60.195000000000007</v>
+      </c>
+      <c r="H19" s="124">
+        <f>AVERAGE('Population 2020'!B38:B42)</f>
+        <v>91.529000000000011</v>
+      </c>
+      <c r="I19" s="124">
+        <f>AVERAGE('Population 2020'!B43:B47)</f>
+        <v>139.44199999999998</v>
+      </c>
+      <c r="J19" s="124">
+        <f>AVERAGE('Population 2020'!B48:B52)</f>
+        <v>203.15799999999999</v>
+      </c>
+      <c r="K19" s="124">
+        <f>AVERAGE('Population 2020'!B53:B57)</f>
+        <v>298.52700000000004</v>
+      </c>
+      <c r="L19" s="124">
+        <f>AVERAGE('Population 2020'!B58:B62)</f>
+        <v>466.59899999999999</v>
+      </c>
+      <c r="M19" s="124">
+        <f>AVERAGE('Population 2020'!B63:B67)</f>
+        <v>740.69500000000005</v>
+      </c>
+      <c r="N19" s="124">
+        <f>AVERAGE('Population 2020'!B68:B72)</f>
+        <v>1152.5409999999999</v>
+      </c>
+      <c r="O19" s="124">
+        <f>AVERAGE('Population 2020'!B73:B77)</f>
+        <v>1882.0450000000005</v>
+      </c>
+      <c r="P19" s="124">
+        <f>AVERAGE('Population 2020'!B78:B82)</f>
+        <v>3253.2620000000002</v>
+      </c>
+      <c r="Q19" s="124">
+        <f>AVERAGE('Population 2020'!B83:B103)</f>
+        <v>17029.282857142858</v>
+      </c>
+      <c r="R19" s="124"/>
+      <c r="S19" s="124"/>
+      <c r="T19" s="124"/>
+      <c r="U19" s="125"/>
+      <c r="V19" s="124"/>
+      <c r="W19" s="124"/>
+      <c r="X19" s="124"/>
+      <c r="Y19" s="124"/>
+      <c r="Z19" s="124"/>
+      <c r="AA19" s="124"/>
+      <c r="AB19" s="124"/>
+      <c r="AC19" s="124"/>
+      <c r="AD19" s="124"/>
+      <c r="AE19" s="124"/>
+      <c r="AF19" s="124"/>
+      <c r="AG19" s="124"/>
+      <c r="AH19" s="124"/>
+      <c r="AI19" s="124"/>
+      <c r="AJ19" s="124"/>
+      <c r="AK19" s="124"/>
+      <c r="AL19" s="124"/>
+      <c r="AM19" s="125"/>
+      <c r="AN19" s="124"/>
+      <c r="AO19" s="124"/>
+      <c r="AP19" s="124"/>
+      <c r="AQ19" s="124"/>
+      <c r="AR19" s="124"/>
+      <c r="AS19" s="124"/>
+      <c r="AT19" s="124"/>
+      <c r="AU19" s="124"/>
+      <c r="AV19" s="124"/>
+      <c r="AW19" s="124"/>
+      <c r="AX19" s="124"/>
+      <c r="AY19" s="124"/>
+      <c r="AZ19" s="124"/>
+      <c r="BA19" s="124"/>
+      <c r="BB19" s="124"/>
+      <c r="BC19" s="124"/>
+      <c r="BD19" s="124"/>
+      <c r="BE19" s="126"/>
+      <c r="BF19" s="124"/>
+      <c r="BG19" s="127"/>
+      <c r="BH19" s="128"/>
+      <c r="BI19" s="128"/>
+      <c r="BJ19" s="128"/>
+      <c r="BK19" s="128"/>
+      <c r="BL19" s="128"/>
+      <c r="BM19" s="128"/>
+      <c r="BN19" s="128"/>
+      <c r="BO19" s="128"/>
+      <c r="BP19" s="128"/>
+      <c r="BQ19" s="128"/>
+      <c r="BR19" s="128"/>
+      <c r="BS19" s="128"/>
+      <c r="BT19" s="128"/>
+      <c r="BV19" s="129"/>
+      <c r="BW19" s="129"/>
+      <c r="BX19" s="129"/>
+      <c r="BY19" s="129"/>
+      <c r="BZ19" s="129"/>
+      <c r="CA19" s="129"/>
+      <c r="CB19" s="129"/>
+      <c r="CC19" s="129"/>
+      <c r="CD19" s="129"/>
+      <c r="CE19" s="129"/>
+      <c r="CF19" s="129"/>
+      <c r="CG19" s="130"/>
+      <c r="CH19" s="129"/>
+    </row>
+    <row r="20" spans="1:86" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="80"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -8507,40 +8577,40 @@
       <c r="BB20" s="22"/>
       <c r="BC20" s="22"/>
       <c r="BD20" s="22"/>
-      <c r="BE20" s="83"/>
+      <c r="BE20" s="82"/>
       <c r="BF20" s="22"/>
-      <c r="BG20" s="84"/>
-      <c r="BH20" s="64"/>
-      <c r="BI20" s="64"/>
-      <c r="BJ20" s="64"/>
-      <c r="BK20" s="64"/>
-      <c r="BL20" s="64"/>
-      <c r="BM20" s="64"/>
-      <c r="BN20" s="64"/>
-      <c r="BO20" s="64"/>
-      <c r="BP20" s="64"/>
-      <c r="BQ20" s="64"/>
-      <c r="BR20" s="64"/>
-      <c r="BS20" s="64"/>
-      <c r="BT20" s="64"/>
-      <c r="BV20" s="65"/>
-      <c r="BW20" s="65"/>
-      <c r="BX20" s="65"/>
-      <c r="BY20" s="65"/>
-      <c r="BZ20" s="65"/>
-      <c r="CA20" s="65"/>
-      <c r="CB20" s="65"/>
-      <c r="CC20" s="65"/>
-      <c r="CD20" s="65"/>
-      <c r="CE20" s="65"/>
-      <c r="CF20" s="65"/>
-      <c r="CG20" s="66"/>
-      <c r="CH20" s="65"/>
-    </row>
-    <row r="21" spans="1:86" s="85" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
+      <c r="BG20" s="83"/>
+      <c r="BH20" s="63"/>
+      <c r="BI20" s="63"/>
+      <c r="BJ20" s="63"/>
+      <c r="BK20" s="63"/>
+      <c r="BL20" s="63"/>
+      <c r="BM20" s="63"/>
+      <c r="BN20" s="63"/>
+      <c r="BO20" s="63"/>
+      <c r="BP20" s="63"/>
+      <c r="BQ20" s="63"/>
+      <c r="BR20" s="63"/>
+      <c r="BS20" s="63"/>
+      <c r="BT20" s="63"/>
+      <c r="BV20" s="64"/>
+      <c r="BW20" s="64"/>
+      <c r="BX20" s="64"/>
+      <c r="BY20" s="64"/>
+      <c r="BZ20" s="64"/>
+      <c r="CA20" s="64"/>
+      <c r="CB20" s="64"/>
+      <c r="CC20" s="64"/>
+      <c r="CD20" s="64"/>
+      <c r="CE20" s="64"/>
+      <c r="CF20" s="64"/>
+      <c r="CG20" s="65"/>
+      <c r="CH20" s="64"/>
+    </row>
+    <row r="21" spans="1:86" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="80"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -8554,10 +8624,10 @@
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
       <c r="U21" s="23"/>
       <c r="V21" s="22"/>
       <c r="W21" s="22"/>
@@ -8572,10 +8642,10 @@
       <c r="AF21" s="22"/>
       <c r="AG21" s="22"/>
       <c r="AH21" s="22"/>
-      <c r="AI21" s="23"/>
-      <c r="AJ21" s="23"/>
-      <c r="AK21" s="23"/>
-      <c r="AL21" s="23"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
       <c r="AM21" s="23"/>
       <c r="AN21" s="22"/>
       <c r="AO21" s="22"/>
@@ -8590,1823 +8660,1848 @@
       <c r="AX21" s="22"/>
       <c r="AY21" s="22"/>
       <c r="AZ21" s="22"/>
-      <c r="BA21" s="23"/>
-      <c r="BB21" s="23"/>
-      <c r="BC21" s="23"/>
-      <c r="BD21" s="23"/>
-      <c r="BE21" s="83"/>
-      <c r="BF21" s="83"/>
-      <c r="BG21" s="87"/>
-      <c r="BH21" s="87"/>
-      <c r="BI21" s="87"/>
-      <c r="BJ21" s="87"/>
-      <c r="BK21" s="87"/>
-      <c r="BL21" s="87"/>
-      <c r="BM21" s="87"/>
-      <c r="BN21" s="87"/>
-      <c r="BO21" s="64"/>
-      <c r="BP21" s="88"/>
-      <c r="BQ21" s="88"/>
-      <c r="BR21" s="88"/>
-      <c r="BS21" s="88"/>
-      <c r="BT21" s="89"/>
-      <c r="BV21" s="90"/>
-      <c r="BW21" s="90"/>
-      <c r="BX21" s="90"/>
-      <c r="BY21" s="90"/>
-      <c r="BZ21" s="90"/>
-      <c r="CA21" s="90"/>
-      <c r="CB21" s="90"/>
-      <c r="CC21" s="90"/>
-      <c r="CD21" s="90"/>
-    </row>
-    <row r="22" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="76">
-        <v>89993</v>
-      </c>
-      <c r="E22" s="76">
-        <v>379470</v>
-      </c>
-      <c r="F22" s="76">
-        <v>305052</v>
-      </c>
-      <c r="G22" s="76">
-        <v>348265</v>
-      </c>
-      <c r="H22" s="76">
-        <v>366965</v>
-      </c>
-      <c r="I22" s="76">
-        <v>376838</v>
-      </c>
-      <c r="J22" s="76">
-        <v>394856</v>
-      </c>
-      <c r="K22" s="76">
-        <v>436726</v>
-      </c>
-      <c r="L22" s="76">
-        <v>431104</v>
-      </c>
-      <c r="M22" s="76">
-        <v>371230</v>
-      </c>
-      <c r="N22" s="76">
-        <v>321999</v>
-      </c>
-      <c r="O22" s="76">
-        <v>339185</v>
-      </c>
-      <c r="P22" s="76">
-        <v>248559</v>
-      </c>
-      <c r="Q22" s="76">
-        <v>333242</v>
-      </c>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="77">
-        <v>4743484</v>
-      </c>
-      <c r="U22" s="27"/>
-      <c r="V22" s="76">
-        <v>89993</v>
-      </c>
-      <c r="W22" s="76">
-        <v>379470</v>
-      </c>
-      <c r="X22" s="76">
-        <v>305052</v>
-      </c>
-      <c r="Y22" s="76">
-        <v>348265</v>
-      </c>
-      <c r="Z22" s="76">
-        <v>366965</v>
-      </c>
-      <c r="AA22" s="76">
-        <v>376838</v>
-      </c>
-      <c r="AB22" s="76">
-        <v>394856</v>
-      </c>
-      <c r="AC22" s="76">
-        <v>436726</v>
-      </c>
-      <c r="AD22" s="76">
-        <v>431104</v>
-      </c>
-      <c r="AE22" s="76">
-        <v>371230</v>
-      </c>
-      <c r="AF22" s="76">
-        <v>321999</v>
-      </c>
-      <c r="AG22" s="76">
-        <v>339185</v>
-      </c>
-      <c r="AH22" s="76">
-        <v>248559</v>
-      </c>
-      <c r="AI22" s="76">
-        <v>333242</v>
-      </c>
-      <c r="AJ22" s="22"/>
-      <c r="AK22" s="22"/>
-      <c r="AL22" s="77">
-        <f t="shared" ref="AL22:AL28" si="73">SUM(V22:AI22)</f>
-        <v>4743484</v>
-      </c>
-      <c r="AM22" s="27"/>
-      <c r="AN22" s="76">
-        <v>15232</v>
-      </c>
-      <c r="AO22" s="76">
-        <v>227123</v>
-      </c>
-      <c r="AP22" s="76">
-        <v>217030</v>
-      </c>
-      <c r="AQ22" s="76">
-        <v>287418</v>
-      </c>
-      <c r="AR22" s="76">
-        <v>324345</v>
-      </c>
-      <c r="AS22" s="76">
-        <v>351114</v>
-      </c>
-      <c r="AT22" s="76">
-        <v>375928</v>
-      </c>
-      <c r="AU22" s="76">
-        <v>423145</v>
-      </c>
-      <c r="AV22" s="76">
-        <v>419979</v>
-      </c>
-      <c r="AW22" s="76">
-        <v>362095</v>
-      </c>
-      <c r="AX22" s="76">
-        <v>317432</v>
-      </c>
-      <c r="AY22" s="76">
-        <v>335571</v>
-      </c>
-      <c r="AZ22" s="76">
-        <v>246231</v>
-      </c>
-      <c r="BA22" s="76">
-        <v>328749</v>
-      </c>
-      <c r="BB22" s="22"/>
-      <c r="BC22" s="22"/>
-      <c r="BD22" s="77">
-        <f t="shared" ref="BD22:BD28" si="74">SUM(AN22:BA22)</f>
-        <v>4231392</v>
-      </c>
-      <c r="BE22" s="24"/>
-      <c r="BF22" s="76">
-        <v>8974876</v>
-      </c>
-      <c r="BG22" s="13"/>
-      <c r="BH22" s="78">
-        <v>0.78495173044343458</v>
-      </c>
-      <c r="BI22" s="78">
-        <v>0.78645770223341693</v>
-      </c>
-      <c r="BJ22" s="78">
-        <v>0.8362126301686279</v>
-      </c>
-      <c r="BK22" s="78">
-        <v>0.85970682841004664</v>
-      </c>
-      <c r="BL22" s="78">
-        <v>0.92908089930301307</v>
-      </c>
-      <c r="BM22" s="78">
-        <v>0.89770603614868705</v>
-      </c>
-      <c r="BN22" s="78">
-        <v>0.94094606095209365</v>
-      </c>
-      <c r="BO22" s="79">
-        <v>0.99560975046477518</v>
-      </c>
-      <c r="BP22" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="BQ22" s="79">
-        <v>0.95284582196523582</v>
-      </c>
-      <c r="BR22" s="79">
-        <v>0.97515431521992257</v>
-      </c>
-      <c r="BS22" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="BT22" s="79">
-        <v>0.93070838872565997</v>
-      </c>
-      <c r="BV22" s="80">
-        <v>0.46981472019791864</v>
-      </c>
-      <c r="BW22" s="80">
-        <v>0.55952727769599442</v>
-      </c>
-      <c r="BX22" s="80">
-        <v>0.69011402735792204</v>
-      </c>
-      <c r="BY22" s="80">
-        <v>0.75985887280982267</v>
-      </c>
-      <c r="BZ22" s="80">
-        <v>0.86565927766806461</v>
-      </c>
-      <c r="CA22" s="80">
-        <v>0.85467318404001369</v>
-      </c>
-      <c r="CB22" s="80">
-        <v>0.9116851778038717</v>
-      </c>
-      <c r="CC22" s="80">
-        <v>0.96991720649877022</v>
-      </c>
-      <c r="CD22" s="80">
-        <v>0.98112507146515071</v>
-      </c>
-      <c r="CE22" s="80">
-        <v>0.93933134872489898</v>
-      </c>
-      <c r="CF22" s="80">
-        <v>0.96476409249425721</v>
-      </c>
-      <c r="CG22" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="CH22" s="80">
-        <v>0.91815993207690505</v>
-      </c>
+      <c r="BA21" s="22"/>
+      <c r="BB21" s="22"/>
+      <c r="BC21" s="22"/>
+      <c r="BD21" s="22"/>
+      <c r="BE21" s="82"/>
+      <c r="BF21" s="22"/>
+      <c r="BG21" s="83"/>
+      <c r="BH21" s="63"/>
+      <c r="BI21" s="63"/>
+      <c r="BJ21" s="63"/>
+      <c r="BK21" s="63"/>
+      <c r="BL21" s="63"/>
+      <c r="BM21" s="63"/>
+      <c r="BN21" s="63"/>
+      <c r="BO21" s="63"/>
+      <c r="BP21" s="63"/>
+      <c r="BQ21" s="63"/>
+      <c r="BR21" s="63"/>
+      <c r="BS21" s="63"/>
+      <c r="BT21" s="63"/>
+      <c r="BV21" s="64"/>
+      <c r="BW21" s="64"/>
+      <c r="BX21" s="64"/>
+      <c r="BY21" s="64"/>
+      <c r="BZ21" s="64"/>
+      <c r="CA21" s="64"/>
+      <c r="CB21" s="64"/>
+      <c r="CC21" s="64"/>
+      <c r="CD21" s="64"/>
+      <c r="CE21" s="64"/>
+      <c r="CF21" s="64"/>
+      <c r="CG21" s="65"/>
+      <c r="CH21" s="64"/>
+    </row>
+    <row r="22" spans="1:86" s="84" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="80"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="23"/>
+      <c r="AL22" s="23"/>
+      <c r="AM22" s="23"/>
+      <c r="AN22" s="22"/>
+      <c r="AO22" s="22"/>
+      <c r="AP22" s="22"/>
+      <c r="AQ22" s="22"/>
+      <c r="AR22" s="22"/>
+      <c r="AS22" s="22"/>
+      <c r="AT22" s="22"/>
+      <c r="AU22" s="22"/>
+      <c r="AV22" s="22"/>
+      <c r="AW22" s="22"/>
+      <c r="AX22" s="22"/>
+      <c r="AY22" s="22"/>
+      <c r="AZ22" s="22"/>
+      <c r="BA22" s="23"/>
+      <c r="BB22" s="23"/>
+      <c r="BC22" s="23"/>
+      <c r="BD22" s="23"/>
+      <c r="BE22" s="82"/>
+      <c r="BF22" s="82"/>
+      <c r="BG22" s="86"/>
+      <c r="BH22" s="86"/>
+      <c r="BI22" s="86"/>
+      <c r="BJ22" s="86"/>
+      <c r="BK22" s="86"/>
+      <c r="BL22" s="86"/>
+      <c r="BM22" s="86"/>
+      <c r="BN22" s="86"/>
+      <c r="BO22" s="63"/>
+      <c r="BP22" s="87"/>
+      <c r="BQ22" s="87"/>
+      <c r="BR22" s="87"/>
+      <c r="BS22" s="87"/>
+      <c r="BT22" s="88"/>
+      <c r="BV22" s="89"/>
+      <c r="BW22" s="89"/>
+      <c r="BX22" s="89"/>
+      <c r="BY22" s="89"/>
+      <c r="BZ22" s="89"/>
+      <c r="CA22" s="89"/>
+      <c r="CB22" s="89"/>
+      <c r="CC22" s="89"/>
+      <c r="CD22" s="89"/>
     </row>
     <row r="23" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
-      <c r="B23" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="29">
-        <v>84639</v>
-      </c>
-      <c r="E23" s="29">
-        <v>504311</v>
-      </c>
-      <c r="F23" s="29">
-        <v>581357</v>
-      </c>
-      <c r="G23" s="29">
-        <v>624243</v>
-      </c>
-      <c r="H23" s="29">
-        <v>594367</v>
-      </c>
-      <c r="I23" s="29">
-        <v>563467</v>
-      </c>
-      <c r="J23" s="29">
-        <v>517842</v>
-      </c>
-      <c r="K23" s="29">
-        <v>508326</v>
-      </c>
-      <c r="L23" s="29">
-        <v>464148</v>
-      </c>
-      <c r="M23" s="29">
-        <v>372625</v>
-      </c>
-      <c r="N23" s="29">
-        <v>285495</v>
-      </c>
-      <c r="O23" s="29">
-        <v>252597</v>
-      </c>
-      <c r="P23" s="29">
-        <v>177783</v>
-      </c>
-      <c r="Q23" s="29">
-        <v>251917</v>
+      <c r="B23" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="75">
+        <v>89993</v>
+      </c>
+      <c r="E23" s="75">
+        <v>379470</v>
+      </c>
+      <c r="F23" s="75">
+        <v>305052</v>
+      </c>
+      <c r="G23" s="75">
+        <v>348265</v>
+      </c>
+      <c r="H23" s="75">
+        <v>366965</v>
+      </c>
+      <c r="I23" s="75">
+        <v>376838</v>
+      </c>
+      <c r="J23" s="75">
+        <v>394856</v>
+      </c>
+      <c r="K23" s="75">
+        <v>436726</v>
+      </c>
+      <c r="L23" s="75">
+        <v>431104</v>
+      </c>
+      <c r="M23" s="75">
+        <v>371230</v>
+      </c>
+      <c r="N23" s="75">
+        <v>321999</v>
+      </c>
+      <c r="O23" s="75">
+        <v>339185</v>
+      </c>
+      <c r="P23" s="75">
+        <v>248559</v>
+      </c>
+      <c r="Q23" s="75">
+        <v>333242</v>
       </c>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
-      <c r="T23" s="30">
-        <v>5783117</v>
+      <c r="T23" s="76">
+        <v>4743484</v>
       </c>
       <c r="U23" s="27"/>
-      <c r="V23" s="29">
-        <v>84639</v>
-      </c>
-      <c r="W23" s="29">
-        <v>504311</v>
-      </c>
-      <c r="X23" s="29">
-        <v>581357</v>
-      </c>
-      <c r="Y23" s="29">
-        <v>624243</v>
-      </c>
-      <c r="Z23" s="29">
-        <v>594367</v>
-      </c>
-      <c r="AA23" s="29">
-        <v>563467</v>
-      </c>
-      <c r="AB23" s="29">
-        <v>517842</v>
-      </c>
-      <c r="AC23" s="29">
-        <v>508326</v>
-      </c>
-      <c r="AD23" s="29">
-        <v>464148</v>
-      </c>
-      <c r="AE23" s="29">
-        <v>372625</v>
-      </c>
-      <c r="AF23" s="29">
-        <v>285495</v>
-      </c>
-      <c r="AG23" s="29">
-        <v>252597</v>
-      </c>
-      <c r="AH23" s="29">
-        <v>177783</v>
-      </c>
-      <c r="AI23" s="29">
-        <v>251917</v>
+      <c r="V23" s="75">
+        <v>89993</v>
+      </c>
+      <c r="W23" s="75">
+        <v>379470</v>
+      </c>
+      <c r="X23" s="75">
+        <v>305052</v>
+      </c>
+      <c r="Y23" s="75">
+        <v>348265</v>
+      </c>
+      <c r="Z23" s="75">
+        <v>366965</v>
+      </c>
+      <c r="AA23" s="75">
+        <v>376838</v>
+      </c>
+      <c r="AB23" s="75">
+        <v>394856</v>
+      </c>
+      <c r="AC23" s="75">
+        <v>436726</v>
+      </c>
+      <c r="AD23" s="75">
+        <v>431104</v>
+      </c>
+      <c r="AE23" s="75">
+        <v>371230</v>
+      </c>
+      <c r="AF23" s="75">
+        <v>321999</v>
+      </c>
+      <c r="AG23" s="75">
+        <v>339185</v>
+      </c>
+      <c r="AH23" s="75">
+        <v>248559</v>
+      </c>
+      <c r="AI23" s="75">
+        <v>333242</v>
       </c>
       <c r="AJ23" s="22"/>
       <c r="AK23" s="22"/>
-      <c r="AL23" s="30">
-        <f t="shared" si="73"/>
-        <v>5783117</v>
+      <c r="AL23" s="76">
+        <f t="shared" ref="AL23:AL29" si="73">SUM(V23:AI23)</f>
+        <v>4743484</v>
       </c>
       <c r="AM23" s="27"/>
-      <c r="AN23" s="29">
-        <v>18832</v>
-      </c>
-      <c r="AO23" s="29">
-        <v>315695</v>
-      </c>
-      <c r="AP23" s="29">
-        <v>438081</v>
-      </c>
-      <c r="AQ23" s="29">
-        <v>514816</v>
-      </c>
-      <c r="AR23" s="29">
-        <v>514818</v>
-      </c>
-      <c r="AS23" s="29">
-        <v>511098</v>
-      </c>
-      <c r="AT23" s="29">
-        <v>478944</v>
-      </c>
-      <c r="AU23" s="29">
-        <v>478500</v>
-      </c>
-      <c r="AV23" s="29">
-        <v>438672</v>
-      </c>
-      <c r="AW23" s="29">
-        <v>356095</v>
-      </c>
-      <c r="AX23" s="29">
-        <v>276367</v>
-      </c>
-      <c r="AY23" s="29">
-        <v>246478</v>
-      </c>
-      <c r="AZ23" s="29">
-        <v>173552</v>
-      </c>
-      <c r="BA23" s="29">
-        <v>244215</v>
+      <c r="AN23" s="75">
+        <v>15232</v>
+      </c>
+      <c r="AO23" s="75">
+        <v>227123</v>
+      </c>
+      <c r="AP23" s="75">
+        <v>217030</v>
+      </c>
+      <c r="AQ23" s="75">
+        <v>287418</v>
+      </c>
+      <c r="AR23" s="75">
+        <v>324345</v>
+      </c>
+      <c r="AS23" s="75">
+        <v>351114</v>
+      </c>
+      <c r="AT23" s="75">
+        <v>375928</v>
+      </c>
+      <c r="AU23" s="75">
+        <v>423145</v>
+      </c>
+      <c r="AV23" s="75">
+        <v>419979</v>
+      </c>
+      <c r="AW23" s="75">
+        <v>362095</v>
+      </c>
+      <c r="AX23" s="75">
+        <v>317432</v>
+      </c>
+      <c r="AY23" s="75">
+        <v>335571</v>
+      </c>
+      <c r="AZ23" s="75">
+        <v>246231</v>
+      </c>
+      <c r="BA23" s="75">
+        <v>328749</v>
       </c>
       <c r="BB23" s="22"/>
       <c r="BC23" s="22"/>
-      <c r="BD23" s="30">
-        <f t="shared" si="74"/>
-        <v>5006163</v>
+      <c r="BD23" s="76">
+        <f t="shared" ref="BD23:BD29" si="74">SUM(AN23:BA23)</f>
+        <v>4231392</v>
       </c>
       <c r="BE23" s="24"/>
-      <c r="BF23" s="29">
-        <v>10789280</v>
+      <c r="BF23" s="75">
+        <v>8974876</v>
       </c>
       <c r="BG23" s="13"/>
-      <c r="BH23" s="31">
-        <v>0.67493171199794433</v>
-      </c>
-      <c r="BI23" s="31">
-        <v>0.75499928572356201</v>
-      </c>
-      <c r="BJ23" s="31">
-        <v>0.74482316739230814</v>
-      </c>
-      <c r="BK23" s="31">
-        <v>0.76052692189579285</v>
-      </c>
-      <c r="BL23" s="31">
-        <v>0.8524050272906607</v>
-      </c>
-      <c r="BM23" s="31">
-        <v>0.86796823406758805</v>
-      </c>
-      <c r="BN23" s="31">
-        <v>0.89649163958047118</v>
-      </c>
-      <c r="BO23" s="32">
-        <v>0.93678703770980165</v>
-      </c>
-      <c r="BP23" s="32">
-        <v>0.95282478507903878</v>
-      </c>
-      <c r="BQ23" s="32">
-        <v>0.91234029770616698</v>
-      </c>
-      <c r="BR23" s="32">
-        <v>0.92341690245881858</v>
-      </c>
-      <c r="BS23" s="32">
-        <v>0.91967823702860685</v>
-      </c>
-      <c r="BT23" s="32">
-        <v>0.83490039206848443</v>
-      </c>
-      <c r="BV23" s="33">
-        <v>0.42250231864700755</v>
-      </c>
-      <c r="BW23" s="33">
-        <v>0.61425900449702842</v>
-      </c>
-      <c r="BX23" s="33">
-        <v>0.61425900449702842</v>
-      </c>
-      <c r="BY23" s="33">
-        <v>0.65873937967038587</v>
-      </c>
-      <c r="BZ23" s="33">
-        <v>0.77318193370366339</v>
-      </c>
-      <c r="CA23" s="33">
-        <v>0.80277030039523045</v>
-      </c>
-      <c r="CB23" s="33">
-        <v>0.84389004209750329</v>
-      </c>
-      <c r="CC23" s="33">
-        <v>0.885368984475284</v>
-      </c>
-      <c r="CD23" s="33">
-        <v>0.91055656985634437</v>
-      </c>
-      <c r="CE23" s="33">
-        <v>0.88317046202616589</v>
-      </c>
-      <c r="CF23" s="33">
-        <v>0.90104772140700284</v>
-      </c>
-      <c r="CG23" s="33">
-        <v>0.89779111272050072</v>
-      </c>
-      <c r="CH23" s="33">
-        <v>0.80937451322858289</v>
+      <c r="BH23" s="77">
+        <v>0.78495173044343458</v>
+      </c>
+      <c r="BI23" s="77">
+        <v>0.78645770223341693</v>
+      </c>
+      <c r="BJ23" s="77">
+        <v>0.8362126301686279</v>
+      </c>
+      <c r="BK23" s="77">
+        <v>0.85970682841004664</v>
+      </c>
+      <c r="BL23" s="77">
+        <v>0.92908089930301307</v>
+      </c>
+      <c r="BM23" s="77">
+        <v>0.89770603614868705</v>
+      </c>
+      <c r="BN23" s="77">
+        <v>0.94094606095209365</v>
+      </c>
+      <c r="BO23" s="78">
+        <v>0.99560975046477518</v>
+      </c>
+      <c r="BP23" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="BQ23" s="78">
+        <v>0.95284582196523582</v>
+      </c>
+      <c r="BR23" s="78">
+        <v>0.97515431521992257</v>
+      </c>
+      <c r="BS23" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="BT23" s="78">
+        <v>0.93070838872565997</v>
+      </c>
+      <c r="BV23" s="79">
+        <v>0.46981472019791864</v>
+      </c>
+      <c r="BW23" s="79">
+        <v>0.55952727769599442</v>
+      </c>
+      <c r="BX23" s="79">
+        <v>0.69011402735792204</v>
+      </c>
+      <c r="BY23" s="79">
+        <v>0.75985887280982267</v>
+      </c>
+      <c r="BZ23" s="79">
+        <v>0.86565927766806461</v>
+      </c>
+      <c r="CA23" s="79">
+        <v>0.85467318404001369</v>
+      </c>
+      <c r="CB23" s="79">
+        <v>0.9116851778038717</v>
+      </c>
+      <c r="CC23" s="79">
+        <v>0.96991720649877022</v>
+      </c>
+      <c r="CD23" s="79">
+        <v>0.98112507146515071</v>
+      </c>
+      <c r="CE23" s="79">
+        <v>0.93933134872489898</v>
+      </c>
+      <c r="CF23" s="79">
+        <v>0.96476409249425721</v>
+      </c>
+      <c r="CG23" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="CH23" s="79">
+        <v>0.91815993207690505</v>
       </c>
     </row>
     <row r="24" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="29">
-        <v>130911</v>
+        <v>84639</v>
       </c>
       <c r="E24" s="29">
-        <v>636824</v>
+        <v>504311</v>
       </c>
       <c r="F24" s="29">
-        <v>479088</v>
+        <v>581357</v>
       </c>
       <c r="G24" s="29">
-        <v>541145</v>
+        <v>624243</v>
       </c>
       <c r="H24" s="29">
-        <v>557014</v>
+        <v>594367</v>
       </c>
       <c r="I24" s="29">
-        <v>556445</v>
+        <v>563467</v>
       </c>
       <c r="J24" s="29">
-        <v>602782</v>
+        <v>517842</v>
       </c>
       <c r="K24" s="29">
-        <v>694865</v>
+        <v>508326</v>
       </c>
       <c r="L24" s="29">
-        <v>684675</v>
+        <v>464148</v>
       </c>
       <c r="M24" s="29">
-        <v>594166</v>
+        <v>372625</v>
       </c>
       <c r="N24" s="29">
-        <v>519209</v>
+        <v>285495</v>
       </c>
       <c r="O24" s="29">
-        <v>528135</v>
+        <v>252597</v>
       </c>
       <c r="P24" s="29">
-        <v>396824</v>
+        <v>177783</v>
       </c>
       <c r="Q24" s="29">
-        <v>508501</v>
+        <v>251917</v>
       </c>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="30">
-        <v>7430584</v>
-      </c>
-      <c r="U24" s="23"/>
+        <v>5783117</v>
+      </c>
+      <c r="U24" s="27"/>
       <c r="V24" s="29">
-        <v>130911</v>
+        <v>84639</v>
       </c>
       <c r="W24" s="29">
-        <v>636824</v>
+        <v>504311</v>
       </c>
       <c r="X24" s="29">
-        <v>479088</v>
+        <v>581357</v>
       </c>
       <c r="Y24" s="29">
-        <v>541145</v>
+        <v>624243</v>
       </c>
       <c r="Z24" s="29">
-        <v>557014</v>
+        <v>594367</v>
       </c>
       <c r="AA24" s="29">
-        <v>556445</v>
+        <v>563467</v>
       </c>
       <c r="AB24" s="29">
-        <v>602782</v>
+        <v>517842</v>
       </c>
       <c r="AC24" s="29">
-        <v>694865</v>
+        <v>508326</v>
       </c>
       <c r="AD24" s="29">
-        <v>684675</v>
+        <v>464148</v>
       </c>
       <c r="AE24" s="29">
-        <v>594166</v>
+        <v>372625</v>
       </c>
       <c r="AF24" s="29">
-        <v>519209</v>
+        <v>285495</v>
       </c>
       <c r="AG24" s="29">
-        <v>528135</v>
+        <v>252597</v>
       </c>
       <c r="AH24" s="29">
-        <v>396824</v>
+        <v>177783</v>
       </c>
       <c r="AI24" s="29">
-        <v>508501</v>
+        <v>251917</v>
       </c>
       <c r="AJ24" s="22"/>
       <c r="AK24" s="22"/>
       <c r="AL24" s="30">
         <f t="shared" si="73"/>
-        <v>7430584</v>
-      </c>
-      <c r="AM24" s="23"/>
+        <v>5783117</v>
+      </c>
+      <c r="AM24" s="27"/>
       <c r="AN24" s="29">
-        <v>24867</v>
+        <v>18832</v>
       </c>
       <c r="AO24" s="29">
-        <v>404922</v>
+        <v>315695</v>
       </c>
       <c r="AP24" s="29">
-        <v>347146</v>
+        <v>438081</v>
       </c>
       <c r="AQ24" s="29">
-        <v>443221</v>
+        <v>514816</v>
       </c>
       <c r="AR24" s="29">
-        <v>487184</v>
+        <v>514818</v>
       </c>
       <c r="AS24" s="29">
-        <v>514155</v>
+        <v>511098</v>
       </c>
       <c r="AT24" s="29">
-        <v>571400</v>
+        <v>478944</v>
       </c>
       <c r="AU24" s="29">
-        <v>671236</v>
+        <v>478500</v>
       </c>
       <c r="AV24" s="29">
-        <v>662633</v>
+        <v>438672</v>
       </c>
       <c r="AW24" s="29">
-        <v>579713</v>
+        <v>356095</v>
       </c>
       <c r="AX24" s="29">
-        <v>511487</v>
+        <v>276367</v>
       </c>
       <c r="AY24" s="29">
-        <v>522509</v>
+        <v>246478</v>
       </c>
       <c r="AZ24" s="29">
-        <v>392706</v>
+        <v>173552</v>
       </c>
       <c r="BA24" s="29">
-        <v>500192</v>
+        <v>244215</v>
       </c>
       <c r="BB24" s="22"/>
       <c r="BC24" s="22"/>
       <c r="BD24" s="30">
         <f t="shared" si="74"/>
-        <v>6633371</v>
+        <v>5006163</v>
       </c>
       <c r="BE24" s="24"/>
       <c r="BF24" s="29">
-        <v>14063955</v>
+        <v>10789280</v>
       </c>
       <c r="BG24" s="13"/>
       <c r="BH24" s="31">
-        <v>0.66939896167183655</v>
+        <v>0.67493171199794433</v>
       </c>
       <c r="BI24" s="31">
-        <v>0.67074265153689461</v>
+        <v>0.75499928572356201</v>
       </c>
       <c r="BJ24" s="31">
-        <v>0.79985367043329814</v>
+        <v>0.74482316739230814</v>
       </c>
       <c r="BK24" s="31">
-        <v>0.84676133331914494</v>
+        <v>0.76052692189579285</v>
       </c>
       <c r="BL24" s="31">
-        <v>0.92150913899519904</v>
+        <v>0.8524050272906607</v>
       </c>
       <c r="BM24" s="31">
-        <v>0.86969732821233481</v>
+        <v>0.86796823406758805</v>
       </c>
       <c r="BN24" s="31">
-        <v>0.93914889821162117</v>
+        <v>0.89649163958047118</v>
       </c>
       <c r="BO24" s="32">
-        <v>0.9860036233031968</v>
-      </c>
-      <c r="BP24" s="32" t="s">
-        <v>38</v>
+        <v>0.93678703770980165</v>
+      </c>
+      <c r="BP24" s="32">
+        <v>0.95282478507903878</v>
       </c>
       <c r="BQ24" s="32">
-        <v>0.95195043783094002</v>
+        <v>0.91234029770616698</v>
       </c>
       <c r="BR24" s="32">
-        <v>0.97791730934098187</v>
-      </c>
-      <c r="BS24" s="32" t="s">
-        <v>38</v>
+        <v>0.92341690245881858</v>
+      </c>
+      <c r="BS24" s="32">
+        <v>0.91967823702860685</v>
       </c>
       <c r="BT24" s="32">
-        <v>0.94097324384390058</v>
+        <v>0.83490039206848443</v>
       </c>
       <c r="BV24" s="33">
-        <v>0.42563465943193629</v>
+        <v>0.42250231864700755</v>
       </c>
       <c r="BW24" s="33">
-        <v>0.48601849453634155</v>
+        <v>0.61425900449702842</v>
       </c>
       <c r="BX24" s="33">
-        <v>0.65511451397151743</v>
+        <v>0.61425900449702842</v>
       </c>
       <c r="BY24" s="33">
-        <v>0.74060719014558762</v>
+        <v>0.65873937967038587</v>
       </c>
       <c r="BZ24" s="33">
-        <v>0.85147414633984775</v>
+        <v>0.77318193370366339</v>
       </c>
       <c r="CA24" s="33">
-        <v>0.82441919855026879</v>
+        <v>0.80277030039523045</v>
       </c>
       <c r="CB24" s="33">
-        <v>0.90721298358670499</v>
+        <v>0.84389004209750329</v>
       </c>
       <c r="CC24" s="33">
-        <v>0.95426083750723656</v>
+        <v>0.885368984475284</v>
       </c>
       <c r="CD24" s="33">
-        <v>0.9832310040705563</v>
+        <v>0.91055656985634437</v>
       </c>
       <c r="CE24" s="33">
-        <v>0.93779243733223816</v>
+        <v>0.88317046202616589</v>
       </c>
       <c r="CF24" s="33">
-        <v>0.96749996759625301</v>
-      </c>
-      <c r="CG24" s="33" t="s">
-        <v>38</v>
+        <v>0.90104772140700284</v>
+      </c>
+      <c r="CG24" s="33">
+        <v>0.89779111272050072</v>
       </c>
       <c r="CH24" s="33">
-        <v>0.92559756772310831</v>
+        <v>0.80937451322858289</v>
       </c>
     </row>
     <row r="25" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25" s="29">
-        <v>104541</v>
+        <v>130911</v>
       </c>
       <c r="E25" s="29">
-        <v>527959</v>
+        <v>636824</v>
       </c>
       <c r="F25" s="29">
-        <v>405577</v>
+        <v>479088</v>
       </c>
       <c r="G25" s="29">
-        <v>445803</v>
+        <v>541145</v>
       </c>
       <c r="H25" s="29">
-        <v>455623</v>
+        <v>557014</v>
       </c>
       <c r="I25" s="29">
-        <v>442870</v>
+        <v>556445</v>
       </c>
       <c r="J25" s="29">
-        <v>480233</v>
+        <v>602782</v>
       </c>
       <c r="K25" s="29">
-        <v>563281</v>
+        <v>694865</v>
       </c>
       <c r="L25" s="29">
-        <v>575454</v>
+        <v>684675</v>
       </c>
       <c r="M25" s="29">
-        <v>514949</v>
+        <v>594166</v>
       </c>
       <c r="N25" s="29">
-        <v>444236</v>
+        <v>519209</v>
       </c>
       <c r="O25" s="29">
-        <v>447432</v>
+        <v>528135</v>
       </c>
       <c r="P25" s="29">
-        <v>312632</v>
+        <v>396824</v>
       </c>
       <c r="Q25" s="29">
-        <v>414047</v>
+        <v>508501</v>
       </c>
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="30">
-        <v>6134637</v>
+        <v>7430584</v>
       </c>
       <c r="U25" s="23"/>
       <c r="V25" s="29">
-        <v>104541</v>
+        <v>130911</v>
       </c>
       <c r="W25" s="29">
-        <v>527959</v>
+        <v>636824</v>
       </c>
       <c r="X25" s="29">
-        <v>405577</v>
+        <v>479088</v>
       </c>
       <c r="Y25" s="29">
-        <v>445803</v>
+        <v>541145</v>
       </c>
       <c r="Z25" s="29">
-        <v>455623</v>
+        <v>557014</v>
       </c>
       <c r="AA25" s="29">
-        <v>442870</v>
+        <v>556445</v>
       </c>
       <c r="AB25" s="29">
-        <v>480233</v>
+        <v>602782</v>
       </c>
       <c r="AC25" s="29">
-        <v>563281</v>
+        <v>694865</v>
       </c>
       <c r="AD25" s="29">
-        <v>575454</v>
+        <v>684675</v>
       </c>
       <c r="AE25" s="29">
-        <v>514949</v>
+        <v>594166</v>
       </c>
       <c r="AF25" s="29">
-        <v>444236</v>
+        <v>519209</v>
       </c>
       <c r="AG25" s="29">
-        <v>447432</v>
+        <v>528135</v>
       </c>
       <c r="AH25" s="29">
-        <v>312632</v>
+        <v>396824</v>
       </c>
       <c r="AI25" s="29">
-        <v>414047</v>
+        <v>508501</v>
       </c>
       <c r="AJ25" s="22"/>
       <c r="AK25" s="22"/>
       <c r="AL25" s="30">
         <f t="shared" si="73"/>
-        <v>6134637</v>
+        <v>7430584</v>
       </c>
       <c r="AM25" s="23"/>
       <c r="AN25" s="29">
-        <v>22677</v>
+        <v>24867</v>
       </c>
       <c r="AO25" s="29">
-        <v>323053</v>
+        <v>404922</v>
       </c>
       <c r="AP25" s="29">
-        <v>290912</v>
+        <v>347146</v>
       </c>
       <c r="AQ25" s="29">
-        <v>365039</v>
+        <v>443221</v>
       </c>
       <c r="AR25" s="29">
-        <v>399254</v>
+        <v>487184</v>
       </c>
       <c r="AS25" s="29">
-        <v>409095</v>
+        <v>514155</v>
       </c>
       <c r="AT25" s="29">
-        <v>455250</v>
+        <v>571400</v>
       </c>
       <c r="AU25" s="29">
-        <v>544937</v>
+        <v>671236</v>
       </c>
       <c r="AV25" s="29">
-        <v>560832</v>
+        <v>662633</v>
       </c>
       <c r="AW25" s="29">
-        <v>503294</v>
+        <v>579713</v>
       </c>
       <c r="AX25" s="29">
-        <v>438392</v>
+        <v>511487</v>
       </c>
       <c r="AY25" s="29">
-        <v>443429</v>
+        <v>522509</v>
       </c>
       <c r="AZ25" s="29">
-        <v>309791</v>
+        <v>392706</v>
       </c>
       <c r="BA25" s="29">
-        <v>406196</v>
+        <v>500192</v>
       </c>
       <c r="BB25" s="22"/>
       <c r="BC25" s="22"/>
       <c r="BD25" s="30">
         <f t="shared" si="74"/>
-        <v>5472151</v>
+        <v>6633371</v>
       </c>
       <c r="BE25" s="24"/>
       <c r="BF25" s="29">
-        <v>11606788</v>
+        <v>14063955</v>
       </c>
       <c r="BG25" s="13"/>
       <c r="BH25" s="31">
-        <v>0.6850409434576753</v>
+        <v>0.66939896167183655</v>
       </c>
       <c r="BI25" s="31">
-        <v>0.69841452977470719</v>
+        <v>0.67074265153689461</v>
       </c>
       <c r="BJ25" s="31">
-        <v>0.81627970849965215</v>
+        <v>0.79985367043329814</v>
       </c>
       <c r="BK25" s="31">
-        <v>0.86565539306864669</v>
+        <v>0.84676133331914494</v>
       </c>
       <c r="BL25" s="31">
-        <v>0.92908360850392513</v>
+        <v>0.92150913899519904</v>
       </c>
       <c r="BM25" s="31">
-        <v>0.86585880367522972</v>
+        <v>0.86969732821233481</v>
       </c>
       <c r="BN25" s="31">
-        <v>0.93724427908957952</v>
+        <v>0.93914889821162117</v>
       </c>
       <c r="BO25" s="32">
-        <v>0.98304517244383549</v>
+        <v>0.9860036233031968</v>
       </c>
       <c r="BP25" s="32" t="s">
         <v>38</v>
       </c>
       <c r="BQ25" s="32">
-        <v>0.96517860440661096</v>
+        <v>0.95195043783094002</v>
       </c>
       <c r="BR25" s="32">
-        <v>0.99011504783148452</v>
+        <v>0.97791730934098187</v>
       </c>
       <c r="BS25" s="32" t="s">
         <v>38</v>
       </c>
       <c r="BT25" s="32">
-        <v>0.93166747297008423</v>
+        <v>0.94097324384390058</v>
       </c>
       <c r="BV25" s="33">
-        <v>0.41916992021507804</v>
+        <v>0.42563465943193629</v>
       </c>
       <c r="BW25" s="33">
-        <v>0.5009583080051867</v>
+        <v>0.48601849453634155</v>
       </c>
       <c r="BX25" s="33">
-        <v>0.66839821291244006</v>
+        <v>0.65511451397151743</v>
       </c>
       <c r="BY25" s="33">
-        <v>0.75855779516009825</v>
+        <v>0.74060719014558762</v>
       </c>
       <c r="BZ25" s="33">
-        <v>0.85822805523271672</v>
+        <v>0.85147414633984775</v>
       </c>
       <c r="CA25" s="33">
-        <v>0.82081452206147498</v>
+        <v>0.82441919855026879</v>
       </c>
       <c r="CB25" s="33">
-        <v>0.90672166416804079</v>
+        <v>0.90721298358670499</v>
       </c>
       <c r="CC25" s="33">
-        <v>0.95806648342355982</v>
+        <v>0.95426083750723656</v>
       </c>
       <c r="CD25" s="33">
-        <v>0.98139366191141031</v>
+        <v>0.9832310040705563</v>
       </c>
       <c r="CE25" s="33">
-        <v>0.95248151600280706</v>
+        <v>0.93779243733223816</v>
       </c>
       <c r="CF25" s="33">
-        <v>0.98125687377046644</v>
+        <v>0.96749996759625301</v>
       </c>
       <c r="CG25" s="33" t="s">
         <v>38</v>
       </c>
       <c r="CH25" s="33">
-        <v>0.91400155260285998</v>
+        <v>0.92559756772310831</v>
       </c>
     </row>
     <row r="26" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D26" s="29">
-        <v>83912</v>
+        <v>104541</v>
       </c>
       <c r="E26" s="29">
-        <v>412492</v>
+        <v>527959</v>
       </c>
       <c r="F26" s="29">
-        <v>329193</v>
+        <v>405577</v>
       </c>
       <c r="G26" s="29">
-        <v>370514</v>
+        <v>445803</v>
       </c>
       <c r="H26" s="29">
-        <v>383320</v>
+        <v>455623</v>
       </c>
       <c r="I26" s="29">
-        <v>371949</v>
+        <v>442870</v>
       </c>
       <c r="J26" s="29">
-        <v>397515</v>
+        <v>480233</v>
       </c>
       <c r="K26" s="29">
-        <v>459431</v>
+        <v>563281</v>
       </c>
       <c r="L26" s="29">
-        <v>465806</v>
+        <v>575454</v>
       </c>
       <c r="M26" s="29">
-        <v>405094</v>
+        <v>514949</v>
       </c>
       <c r="N26" s="29">
-        <v>344360</v>
+        <v>444236</v>
       </c>
       <c r="O26" s="29">
-        <v>348843</v>
+        <v>447432</v>
       </c>
       <c r="P26" s="29">
-        <v>248286</v>
+        <v>312632</v>
       </c>
       <c r="Q26" s="29">
-        <v>321344</v>
+        <v>414047</v>
       </c>
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
       <c r="T26" s="30">
-        <v>4942059</v>
+        <v>6134637</v>
       </c>
       <c r="U26" s="23"/>
       <c r="V26" s="29">
-        <v>83912</v>
+        <v>104541</v>
       </c>
       <c r="W26" s="29">
-        <v>412492</v>
+        <v>527959</v>
       </c>
       <c r="X26" s="29">
-        <v>329193</v>
+        <v>405577</v>
       </c>
       <c r="Y26" s="29">
-        <v>370514</v>
+        <v>445803</v>
       </c>
       <c r="Z26" s="29">
-        <v>383320</v>
+        <v>455623</v>
       </c>
       <c r="AA26" s="29">
-        <v>371949</v>
+        <v>442870</v>
       </c>
       <c r="AB26" s="29">
-        <v>397515</v>
+        <v>480233</v>
       </c>
       <c r="AC26" s="29">
-        <v>459431</v>
+        <v>563281</v>
       </c>
       <c r="AD26" s="29">
-        <v>465806</v>
+        <v>575454</v>
       </c>
       <c r="AE26" s="29">
-        <v>405094</v>
+        <v>514949</v>
       </c>
       <c r="AF26" s="29">
-        <v>344360</v>
+        <v>444236</v>
       </c>
       <c r="AG26" s="29">
-        <v>348843</v>
+        <v>447432</v>
       </c>
       <c r="AH26" s="29">
-        <v>248286</v>
+        <v>312632</v>
       </c>
       <c r="AI26" s="29">
-        <v>321344</v>
+        <v>414047</v>
       </c>
       <c r="AJ26" s="22"/>
       <c r="AK26" s="22"/>
       <c r="AL26" s="30">
         <f t="shared" si="73"/>
-        <v>4942059</v>
+        <v>6134637</v>
       </c>
       <c r="AM26" s="23"/>
       <c r="AN26" s="29">
-        <v>21828</v>
+        <v>22677</v>
       </c>
       <c r="AO26" s="29">
-        <v>272870</v>
+        <v>323053</v>
       </c>
       <c r="AP26" s="29">
-        <v>243012</v>
+        <v>290912</v>
       </c>
       <c r="AQ26" s="29">
-        <v>301132</v>
+        <v>365039</v>
       </c>
       <c r="AR26" s="29">
-        <v>331576</v>
+        <v>399254</v>
       </c>
       <c r="AS26" s="29">
-        <v>338836</v>
+        <v>409095</v>
       </c>
       <c r="AT26" s="29">
-        <v>372037</v>
+        <v>455250</v>
       </c>
       <c r="AU26" s="29">
-        <v>440261</v>
+        <v>544937</v>
       </c>
       <c r="AV26" s="29">
-        <v>449148</v>
+        <v>560832</v>
       </c>
       <c r="AW26" s="29">
-        <v>393666</v>
+        <v>503294</v>
       </c>
       <c r="AX26" s="29">
-        <v>338264</v>
+        <v>438392</v>
       </c>
       <c r="AY26" s="29">
-        <v>344274</v>
+        <v>443429</v>
       </c>
       <c r="AZ26" s="29">
-        <v>245104</v>
+        <v>309791</v>
       </c>
       <c r="BA26" s="29">
-        <v>314055</v>
+        <v>406196</v>
       </c>
       <c r="BB26" s="22"/>
       <c r="BC26" s="22"/>
       <c r="BD26" s="30">
         <f t="shared" si="74"/>
-        <v>4406063</v>
+        <v>5472151</v>
       </c>
       <c r="BE26" s="24"/>
       <c r="BF26" s="29">
-        <v>9348122</v>
+        <v>11606788</v>
       </c>
       <c r="BG26" s="13"/>
       <c r="BH26" s="31">
-        <v>0.67154530047554473</v>
+        <v>0.6850409434576753</v>
       </c>
       <c r="BI26" s="31">
-        <v>0.67729889432513513</v>
+        <v>0.69841452977470719</v>
       </c>
       <c r="BJ26" s="31">
-        <v>0.78960614953147545</v>
+        <v>0.81627970849965215</v>
       </c>
       <c r="BK26" s="31">
-        <v>0.85612185643453786</v>
+        <v>0.86565539306864669</v>
       </c>
       <c r="BL26" s="31">
-        <v>0.92515191236714667</v>
+        <v>0.92908360850392513</v>
       </c>
       <c r="BM26" s="31">
-        <v>0.86692022672107161</v>
+        <v>0.86585880367522972</v>
       </c>
       <c r="BN26" s="31">
-        <v>0.93248750745899078</v>
+        <v>0.93724427908957952</v>
       </c>
       <c r="BO26" s="32">
-        <v>0.98667434870376214</v>
+        <v>0.98304517244383549</v>
       </c>
       <c r="BP26" s="32" t="s">
         <v>38</v>
       </c>
       <c r="BQ26" s="32">
-        <v>0.9581924676878556</v>
+        <v>0.96517860440661096</v>
       </c>
       <c r="BR26" s="32">
-        <v>0.98382861832549773</v>
+        <v>0.99011504783148452</v>
       </c>
       <c r="BS26" s="32" t="s">
         <v>38</v>
       </c>
       <c r="BT26" s="32">
-        <v>0.92853592852437039</v>
+        <v>0.93166747297008423</v>
       </c>
       <c r="BV26" s="33">
-        <v>0.44423786677259652</v>
+        <v>0.41916992021507804</v>
       </c>
       <c r="BW26" s="33">
-        <v>0.49998559783391422</v>
+        <v>0.5009583080051867</v>
       </c>
       <c r="BX26" s="33">
-        <v>0.64174546446480363</v>
+        <v>0.66839821291244006</v>
       </c>
       <c r="BY26" s="33">
-        <v>0.74055478625988291</v>
+        <v>0.75855779516009825</v>
       </c>
       <c r="BZ26" s="33">
-        <v>0.84278966573060954</v>
+        <v>0.85822805523271672</v>
       </c>
       <c r="CA26" s="33">
-        <v>0.81135655356056324</v>
+        <v>0.82081452206147498</v>
       </c>
       <c r="CB26" s="33">
-        <v>0.8935789759972721</v>
+        <v>0.90672166416804079</v>
       </c>
       <c r="CC26" s="33">
-        <v>0.95138922721389885</v>
+        <v>0.95806648342355982</v>
       </c>
       <c r="CD26" s="33">
-        <v>0.98432987525410509</v>
+        <v>0.98139366191141031</v>
       </c>
       <c r="CE26" s="33">
-        <v>0.94123015707389013</v>
+        <v>0.95248151600280706</v>
       </c>
       <c r="CF26" s="33">
-        <v>0.97094284175228507</v>
-      </c>
-      <c r="CG26" s="33">
-        <v>0.98953955469428123</v>
+        <v>0.98125687377046644</v>
+      </c>
+      <c r="CG26" s="33" t="s">
+        <v>38</v>
       </c>
       <c r="CH26" s="33">
-        <v>0.90747408083773506</v>
+        <v>0.91400155260285998</v>
       </c>
     </row>
     <row r="27" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D27" s="29">
-        <v>125402</v>
+        <v>83912</v>
       </c>
       <c r="E27" s="29">
-        <v>546319</v>
+        <v>412492</v>
       </c>
       <c r="F27" s="29">
-        <v>416972</v>
+        <v>329193</v>
       </c>
       <c r="G27" s="29">
-        <v>476559</v>
+        <v>370514</v>
       </c>
       <c r="H27" s="29">
-        <v>503939</v>
+        <v>383320</v>
       </c>
       <c r="I27" s="29">
-        <v>521869</v>
+        <v>371949</v>
       </c>
       <c r="J27" s="29">
-        <v>547414</v>
+        <v>397515</v>
       </c>
       <c r="K27" s="29">
-        <v>601602</v>
+        <v>459431</v>
       </c>
       <c r="L27" s="29">
-        <v>597195</v>
+        <v>465806</v>
       </c>
       <c r="M27" s="29">
-        <v>508709</v>
+        <v>405094</v>
       </c>
       <c r="N27" s="29">
-        <v>435078</v>
+        <v>344360</v>
       </c>
       <c r="O27" s="29">
-        <v>456344</v>
+        <v>348843</v>
       </c>
       <c r="P27" s="29">
-        <v>340654</v>
+        <v>248286</v>
       </c>
       <c r="Q27" s="29">
-        <v>466757</v>
+        <v>321344</v>
       </c>
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
       <c r="T27" s="30">
-        <v>6544813</v>
+        <v>4942059</v>
       </c>
       <c r="U27" s="23"/>
       <c r="V27" s="29">
-        <v>125402</v>
+        <v>83912</v>
       </c>
       <c r="W27" s="29">
-        <v>546319</v>
+        <v>412492</v>
       </c>
       <c r="X27" s="29">
-        <v>416972</v>
+        <v>329193</v>
       </c>
       <c r="Y27" s="29">
-        <v>476559</v>
+        <v>370514</v>
       </c>
       <c r="Z27" s="29">
-        <v>503939</v>
+        <v>383320</v>
       </c>
       <c r="AA27" s="29">
-        <v>521869</v>
+        <v>371949</v>
       </c>
       <c r="AB27" s="29">
-        <v>547414</v>
+        <v>397515</v>
       </c>
       <c r="AC27" s="29">
-        <v>601602</v>
+        <v>459431</v>
       </c>
       <c r="AD27" s="29">
-        <v>597195</v>
+        <v>465806</v>
       </c>
       <c r="AE27" s="29">
-        <v>508709</v>
+        <v>405094</v>
       </c>
       <c r="AF27" s="29">
-        <v>435078</v>
+        <v>344360</v>
       </c>
       <c r="AG27" s="29">
-        <v>456344</v>
+        <v>348843</v>
       </c>
       <c r="AH27" s="29">
-        <v>340654</v>
+        <v>248286</v>
       </c>
       <c r="AI27" s="29">
-        <v>466757</v>
+        <v>321344</v>
       </c>
       <c r="AJ27" s="22"/>
       <c r="AK27" s="22"/>
       <c r="AL27" s="30">
         <f t="shared" si="73"/>
-        <v>6544813</v>
+        <v>4942059</v>
       </c>
       <c r="AM27" s="23"/>
       <c r="AN27" s="29">
-        <v>22050</v>
+        <v>21828</v>
       </c>
       <c r="AO27" s="29">
-        <v>331347</v>
+        <v>272870</v>
       </c>
       <c r="AP27" s="29">
-        <v>303231</v>
+        <v>243012</v>
       </c>
       <c r="AQ27" s="29">
-        <v>393918</v>
+        <v>301132</v>
       </c>
       <c r="AR27" s="29">
-        <v>447744</v>
+        <v>331576</v>
       </c>
       <c r="AS27" s="29">
-        <v>489779</v>
+        <v>338836</v>
       </c>
       <c r="AT27" s="29">
-        <v>524043</v>
+        <v>372037</v>
       </c>
       <c r="AU27" s="29">
-        <v>584825</v>
+        <v>440261</v>
       </c>
       <c r="AV27" s="29">
-        <v>581612</v>
+        <v>449148</v>
       </c>
       <c r="AW27" s="29">
-        <v>497219</v>
+        <v>393666</v>
       </c>
       <c r="AX27" s="29">
-        <v>429188</v>
+        <v>338264</v>
       </c>
       <c r="AY27" s="29">
-        <v>451510</v>
+        <v>344274</v>
       </c>
       <c r="AZ27" s="29">
-        <v>337399</v>
+        <v>245104</v>
       </c>
       <c r="BA27" s="29">
-        <v>458188</v>
+        <v>314055</v>
       </c>
       <c r="BB27" s="22"/>
       <c r="BC27" s="22"/>
       <c r="BD27" s="30">
         <f t="shared" si="74"/>
-        <v>5852053</v>
+        <v>4406063</v>
       </c>
       <c r="BE27" s="24"/>
       <c r="BF27" s="29">
-        <v>12396866</v>
+        <v>9348122</v>
       </c>
       <c r="BG27" s="13"/>
       <c r="BH27" s="31">
-        <v>0.76000189193964152</v>
+        <v>0.67154530047554473</v>
       </c>
       <c r="BI27" s="31">
-        <v>0.7886576976836116</v>
+        <v>0.67729889432513513</v>
       </c>
       <c r="BJ27" s="31">
-        <v>0.89868297484753512</v>
+        <v>0.78960614953147545</v>
       </c>
       <c r="BK27" s="31">
-        <v>0.8941445957143288</v>
+        <v>0.85612185643453786</v>
       </c>
       <c r="BL27" s="31">
-        <v>0.94241687674715935</v>
+        <v>0.92515191236714667</v>
       </c>
       <c r="BM27" s="31">
-        <v>0.89901085058966312</v>
+        <v>0.86692022672107161</v>
       </c>
       <c r="BN27" s="31">
-        <v>0.93679897973960935</v>
+        <v>0.93248750745899078</v>
       </c>
       <c r="BO27" s="32">
-        <v>0.9962897405654475</v>
+        <v>0.98667434870376214</v>
       </c>
       <c r="BP27" s="32" t="s">
         <v>38</v>
       </c>
       <c r="BQ27" s="32">
-        <v>0.96378373469021572</v>
+        <v>0.9581924676878556</v>
       </c>
       <c r="BR27" s="32">
-        <v>0.96842471611105574</v>
+        <v>0.98382861832549773</v>
       </c>
       <c r="BS27" s="32" t="s">
         <v>38</v>
       </c>
       <c r="BT27" s="32">
-        <v>0.93490701144705612</v>
+        <v>0.92853592852437039</v>
       </c>
       <c r="BV27" s="33">
-        <v>0.46094744442079522</v>
+        <v>0.44423786677259652</v>
       </c>
       <c r="BW27" s="33">
-        <v>0.57352882765821023</v>
+        <v>0.49998559783391422</v>
       </c>
       <c r="BX27" s="33">
-        <v>0.74284065579706049</v>
+        <v>0.64174546446480363</v>
       </c>
       <c r="BY27" s="33">
-        <v>0.79443717962593974</v>
+        <v>0.74055478625988291</v>
       </c>
       <c r="BZ27" s="33">
-        <v>0.88446716604425057</v>
+        <v>0.84278966573060954</v>
       </c>
       <c r="CA27" s="33">
-        <v>0.86062896304361747</v>
+        <v>0.81135655356056324</v>
       </c>
       <c r="CB27" s="33">
-        <v>0.91067427190437711</v>
+        <v>0.8935789759972721</v>
       </c>
       <c r="CC27" s="33">
-        <v>0.9702929002917825</v>
+        <v>0.95138922721389885</v>
       </c>
       <c r="CD27" s="33">
-        <v>0.9865632521215657</v>
+        <v>0.98432987525410509</v>
       </c>
       <c r="CE27" s="33">
-        <v>0.95073622091722476</v>
+        <v>0.94123015707389013</v>
       </c>
       <c r="CF27" s="33">
-        <v>0.95816630342746423</v>
-      </c>
-      <c r="CG27" s="33" t="s">
-        <v>38</v>
+        <v>0.97094284175228507</v>
+      </c>
+      <c r="CG27" s="33">
+        <v>0.98953955469428123</v>
       </c>
       <c r="CH27" s="33">
-        <v>0.91774343772220612</v>
+        <v>0.90747408083773506</v>
       </c>
     </row>
     <row r="28" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
-      <c r="B28" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="35">
-        <v>73959</v>
-      </c>
-      <c r="E28" s="35">
-        <v>365231</v>
-      </c>
-      <c r="F28" s="35">
-        <v>270715</v>
-      </c>
-      <c r="G28" s="35">
-        <v>298779</v>
-      </c>
-      <c r="H28" s="35">
-        <v>300714</v>
-      </c>
-      <c r="I28" s="35">
-        <v>298701</v>
-      </c>
-      <c r="J28" s="35">
-        <v>325102</v>
-      </c>
-      <c r="K28" s="35">
-        <v>378114</v>
-      </c>
-      <c r="L28" s="35">
-        <v>392407</v>
-      </c>
-      <c r="M28" s="35">
-        <v>350577</v>
-      </c>
-      <c r="N28" s="35">
-        <v>314630</v>
-      </c>
-      <c r="O28" s="35">
-        <v>334065</v>
-      </c>
-      <c r="P28" s="35">
-        <v>250498</v>
-      </c>
-      <c r="Q28" s="35">
-        <v>332975</v>
+      <c r="B28" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="29">
+        <v>125402</v>
+      </c>
+      <c r="E28" s="29">
+        <v>546319</v>
+      </c>
+      <c r="F28" s="29">
+        <v>416972</v>
+      </c>
+      <c r="G28" s="29">
+        <v>476559</v>
+      </c>
+      <c r="H28" s="29">
+        <v>503939</v>
+      </c>
+      <c r="I28" s="29">
+        <v>521869</v>
+      </c>
+      <c r="J28" s="29">
+        <v>547414</v>
+      </c>
+      <c r="K28" s="29">
+        <v>601602</v>
+      </c>
+      <c r="L28" s="29">
+        <v>597195</v>
+      </c>
+      <c r="M28" s="29">
+        <v>508709</v>
+      </c>
+      <c r="N28" s="29">
+        <v>435078</v>
+      </c>
+      <c r="O28" s="29">
+        <v>456344</v>
+      </c>
+      <c r="P28" s="29">
+        <v>340654</v>
+      </c>
+      <c r="Q28" s="29">
+        <v>466757</v>
       </c>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
-      <c r="T28" s="36">
-        <v>4286467</v>
+      <c r="T28" s="30">
+        <v>6544813</v>
       </c>
       <c r="U28" s="23"/>
-      <c r="V28" s="35">
-        <v>73959</v>
-      </c>
-      <c r="W28" s="35">
-        <v>365231</v>
-      </c>
-      <c r="X28" s="35">
-        <v>270715</v>
-      </c>
-      <c r="Y28" s="35">
-        <v>298779</v>
-      </c>
-      <c r="Z28" s="35">
-        <v>300714</v>
-      </c>
-      <c r="AA28" s="35">
-        <v>298701</v>
-      </c>
-      <c r="AB28" s="35">
-        <v>325102</v>
-      </c>
-      <c r="AC28" s="35">
-        <v>378114</v>
-      </c>
-      <c r="AD28" s="35">
-        <v>392407</v>
-      </c>
-      <c r="AE28" s="35">
-        <v>350577</v>
-      </c>
-      <c r="AF28" s="35">
-        <v>314630</v>
-      </c>
-      <c r="AG28" s="35">
-        <v>334065</v>
-      </c>
-      <c r="AH28" s="35">
-        <v>250498</v>
-      </c>
-      <c r="AI28" s="35">
-        <v>332975</v>
+      <c r="V28" s="29">
+        <v>125402</v>
+      </c>
+      <c r="W28" s="29">
+        <v>546319</v>
+      </c>
+      <c r="X28" s="29">
+        <v>416972</v>
+      </c>
+      <c r="Y28" s="29">
+        <v>476559</v>
+      </c>
+      <c r="Z28" s="29">
+        <v>503939</v>
+      </c>
+      <c r="AA28" s="29">
+        <v>521869</v>
+      </c>
+      <c r="AB28" s="29">
+        <v>547414</v>
+      </c>
+      <c r="AC28" s="29">
+        <v>601602</v>
+      </c>
+      <c r="AD28" s="29">
+        <v>597195</v>
+      </c>
+      <c r="AE28" s="29">
+        <v>508709</v>
+      </c>
+      <c r="AF28" s="29">
+        <v>435078</v>
+      </c>
+      <c r="AG28" s="29">
+        <v>456344</v>
+      </c>
+      <c r="AH28" s="29">
+        <v>340654</v>
+      </c>
+      <c r="AI28" s="29">
+        <v>466757</v>
       </c>
       <c r="AJ28" s="22"/>
       <c r="AK28" s="22"/>
-      <c r="AL28" s="36">
+      <c r="AL28" s="30">
+        <f t="shared" si="73"/>
+        <v>6544813</v>
+      </c>
+      <c r="AM28" s="23"/>
+      <c r="AN28" s="29">
+        <v>22050</v>
+      </c>
+      <c r="AO28" s="29">
+        <v>331347</v>
+      </c>
+      <c r="AP28" s="29">
+        <v>303231</v>
+      </c>
+      <c r="AQ28" s="29">
+        <v>393918</v>
+      </c>
+      <c r="AR28" s="29">
+        <v>447744</v>
+      </c>
+      <c r="AS28" s="29">
+        <v>489779</v>
+      </c>
+      <c r="AT28" s="29">
+        <v>524043</v>
+      </c>
+      <c r="AU28" s="29">
+        <v>584825</v>
+      </c>
+      <c r="AV28" s="29">
+        <v>581612</v>
+      </c>
+      <c r="AW28" s="29">
+        <v>497219</v>
+      </c>
+      <c r="AX28" s="29">
+        <v>429188</v>
+      </c>
+      <c r="AY28" s="29">
+        <v>451510</v>
+      </c>
+      <c r="AZ28" s="29">
+        <v>337399</v>
+      </c>
+      <c r="BA28" s="29">
+        <v>458188</v>
+      </c>
+      <c r="BB28" s="22"/>
+      <c r="BC28" s="22"/>
+      <c r="BD28" s="30">
+        <f t="shared" si="74"/>
+        <v>5852053</v>
+      </c>
+      <c r="BE28" s="24"/>
+      <c r="BF28" s="29">
+        <v>12396866</v>
+      </c>
+      <c r="BG28" s="13"/>
+      <c r="BH28" s="31">
+        <v>0.76000189193964152</v>
+      </c>
+      <c r="BI28" s="31">
+        <v>0.7886576976836116</v>
+      </c>
+      <c r="BJ28" s="31">
+        <v>0.89868297484753512</v>
+      </c>
+      <c r="BK28" s="31">
+        <v>0.8941445957143288</v>
+      </c>
+      <c r="BL28" s="31">
+        <v>0.94241687674715935</v>
+      </c>
+      <c r="BM28" s="31">
+        <v>0.89901085058966312</v>
+      </c>
+      <c r="BN28" s="31">
+        <v>0.93679897973960935</v>
+      </c>
+      <c r="BO28" s="32">
+        <v>0.9962897405654475</v>
+      </c>
+      <c r="BP28" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="BQ28" s="32">
+        <v>0.96378373469021572</v>
+      </c>
+      <c r="BR28" s="32">
+        <v>0.96842471611105574</v>
+      </c>
+      <c r="BS28" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="BT28" s="32">
+        <v>0.93490701144705612</v>
+      </c>
+      <c r="BV28" s="33">
+        <v>0.46094744442079522</v>
+      </c>
+      <c r="BW28" s="33">
+        <v>0.57352882765821023</v>
+      </c>
+      <c r="BX28" s="33">
+        <v>0.74284065579706049</v>
+      </c>
+      <c r="BY28" s="33">
+        <v>0.79443717962593974</v>
+      </c>
+      <c r="BZ28" s="33">
+        <v>0.88446716604425057</v>
+      </c>
+      <c r="CA28" s="33">
+        <v>0.86062896304361747</v>
+      </c>
+      <c r="CB28" s="33">
+        <v>0.91067427190437711</v>
+      </c>
+      <c r="CC28" s="33">
+        <v>0.9702929002917825</v>
+      </c>
+      <c r="CD28" s="33">
+        <v>0.9865632521215657</v>
+      </c>
+      <c r="CE28" s="33">
+        <v>0.95073622091722476</v>
+      </c>
+      <c r="CF28" s="33">
+        <v>0.95816630342746423</v>
+      </c>
+      <c r="CG28" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="CH28" s="33">
+        <v>0.91774343772220612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="35">
+        <v>73959</v>
+      </c>
+      <c r="E29" s="35">
+        <v>365231</v>
+      </c>
+      <c r="F29" s="35">
+        <v>270715</v>
+      </c>
+      <c r="G29" s="35">
+        <v>298779</v>
+      </c>
+      <c r="H29" s="35">
+        <v>300714</v>
+      </c>
+      <c r="I29" s="35">
+        <v>298701</v>
+      </c>
+      <c r="J29" s="35">
+        <v>325102</v>
+      </c>
+      <c r="K29" s="35">
+        <v>378114</v>
+      </c>
+      <c r="L29" s="35">
+        <v>392407</v>
+      </c>
+      <c r="M29" s="35">
+        <v>350577</v>
+      </c>
+      <c r="N29" s="35">
+        <v>314630</v>
+      </c>
+      <c r="O29" s="35">
+        <v>334065</v>
+      </c>
+      <c r="P29" s="35">
+        <v>250498</v>
+      </c>
+      <c r="Q29" s="35">
+        <v>332975</v>
+      </c>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="36">
+        <v>4286467</v>
+      </c>
+      <c r="U29" s="23"/>
+      <c r="V29" s="35">
+        <v>73959</v>
+      </c>
+      <c r="W29" s="35">
+        <v>365231</v>
+      </c>
+      <c r="X29" s="35">
+        <v>270715</v>
+      </c>
+      <c r="Y29" s="35">
+        <v>298779</v>
+      </c>
+      <c r="Z29" s="35">
+        <v>300714</v>
+      </c>
+      <c r="AA29" s="35">
+        <v>298701</v>
+      </c>
+      <c r="AB29" s="35">
+        <v>325102</v>
+      </c>
+      <c r="AC29" s="35">
+        <v>378114</v>
+      </c>
+      <c r="AD29" s="35">
+        <v>392407</v>
+      </c>
+      <c r="AE29" s="35">
+        <v>350577</v>
+      </c>
+      <c r="AF29" s="35">
+        <v>314630</v>
+      </c>
+      <c r="AG29" s="35">
+        <v>334065</v>
+      </c>
+      <c r="AH29" s="35">
+        <v>250498</v>
+      </c>
+      <c r="AI29" s="35">
+        <v>332975</v>
+      </c>
+      <c r="AJ29" s="22"/>
+      <c r="AK29" s="22"/>
+      <c r="AL29" s="36">
         <f t="shared" si="73"/>
         <v>4286467</v>
       </c>
-      <c r="AM28" s="23"/>
-      <c r="AN28" s="35">
+      <c r="AM29" s="23"/>
+      <c r="AN29" s="35">
         <v>14262</v>
       </c>
-      <c r="AO28" s="35">
+      <c r="AO29" s="35">
         <v>221808</v>
       </c>
-      <c r="AP28" s="35">
+      <c r="AP29" s="35">
         <v>191710</v>
       </c>
-      <c r="AQ28" s="35">
+      <c r="AQ29" s="35">
         <v>242541</v>
       </c>
-      <c r="AR28" s="35">
+      <c r="AR29" s="35">
         <v>264334</v>
       </c>
-      <c r="AS28" s="35">
+      <c r="AS29" s="35">
         <v>279832</v>
       </c>
-      <c r="AT28" s="35">
+      <c r="AT29" s="35">
         <v>311060</v>
       </c>
-      <c r="AU28" s="35">
+      <c r="AU29" s="35">
         <v>367901</v>
       </c>
-      <c r="AV28" s="35">
+      <c r="AV29" s="35">
         <v>382105</v>
       </c>
-      <c r="AW28" s="35">
+      <c r="AW29" s="35">
         <v>341733</v>
       </c>
-      <c r="AX28" s="35">
+      <c r="AX29" s="35">
         <v>310686</v>
       </c>
-      <c r="AY28" s="35">
+      <c r="AY29" s="35">
         <v>331061</v>
       </c>
-      <c r="AZ28" s="35">
+      <c r="AZ29" s="35">
         <v>248500</v>
       </c>
-      <c r="BA28" s="35">
+      <c r="BA29" s="35">
         <v>328051</v>
       </c>
-      <c r="BB28" s="22"/>
-      <c r="BC28" s="22"/>
-      <c r="BD28" s="36">
+      <c r="BB29" s="22"/>
+      <c r="BC29" s="22"/>
+      <c r="BD29" s="36">
         <f t="shared" si="74"/>
         <v>3835584</v>
       </c>
-      <c r="BE28" s="24"/>
-      <c r="BF28" s="35">
+      <c r="BE29" s="24"/>
+      <c r="BF29" s="35">
         <v>8122051</v>
       </c>
-      <c r="BG28" s="13"/>
-      <c r="BH28" s="37">
+      <c r="BG29" s="13"/>
+      <c r="BH29" s="37">
         <v>0.79248848906189651</v>
       </c>
-      <c r="BI28" s="37">
+      <c r="BI29" s="37">
         <v>0.81102659432642388</v>
       </c>
-      <c r="BJ28" s="37">
+      <c r="BJ29" s="37">
         <v>0.90225761446612673</v>
       </c>
-      <c r="BK28" s="37">
+      <c r="BK29" s="37">
         <v>0.9118513936394731</v>
       </c>
-      <c r="BL28" s="37">
+      <c r="BL29" s="37">
         <v>0.95937369519832982</v>
       </c>
-      <c r="BM28" s="37">
+      <c r="BM29" s="37">
         <v>0.8927008221254441</v>
       </c>
-      <c r="BN28" s="37">
+      <c r="BN29" s="37">
         <v>0.94400822887045266</v>
       </c>
-      <c r="BO28" s="38" t="s">
+      <c r="BO29" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="BP28" s="38" t="s">
+      <c r="BP29" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="BQ28" s="38">
+      <c r="BQ29" s="38">
         <v>0.95519279635931986</v>
       </c>
-      <c r="BR28" s="38">
+      <c r="BR29" s="38">
         <v>0.98198669578739128</v>
       </c>
-      <c r="BS28" s="38" t="s">
+      <c r="BS29" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="BT28" s="38">
+      <c r="BT29" s="38">
         <v>0.95948811931972089</v>
       </c>
-      <c r="BV28" s="39">
+      <c r="BV29" s="39">
         <v>0.48128523258387468</v>
       </c>
-      <c r="BW28" s="39">
+      <c r="BW29" s="39">
         <v>0.57433798791466573</v>
       </c>
-      <c r="BX28" s="39">
+      <c r="BX29" s="39">
         <v>0.73242920041311088</v>
       </c>
-      <c r="BY28" s="39">
+      <c r="BY29" s="39">
         <v>0.8015367634572933</v>
       </c>
-      <c r="BZ28" s="39">
+      <c r="BZ29" s="39">
         <v>0.89876987313312995</v>
       </c>
-      <c r="CA28" s="39">
+      <c r="CA29" s="39">
         <v>0.85414275436736975</v>
       </c>
-      <c r="CB28" s="39">
+      <c r="CB29" s="39">
         <v>0.91851021493430141</v>
       </c>
-      <c r="CC28" s="39">
+      <c r="CC29" s="39">
         <v>0.97752814737687677</v>
       </c>
-      <c r="CD28" s="39">
+      <c r="CD29" s="39">
         <v>0.98955522094168069</v>
       </c>
-      <c r="CE28" s="39">
+      <c r="CE29" s="39">
         <v>0.94321911174932982</v>
       </c>
-      <c r="CF28" s="39">
+      <c r="CF29" s="39">
         <v>0.97315641415314247</v>
       </c>
-      <c r="CG28" s="39" t="s">
+      <c r="CG29" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="CH28" s="39">
+      <c r="CH29" s="39">
         <v>0.94529930784879868</v>
       </c>
     </row>
-    <row r="29" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
-      <c r="AJ29" s="13"/>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="13"/>
-      <c r="AM29" s="13"/>
-      <c r="AN29" s="13"/>
-      <c r="AO29" s="13"/>
-      <c r="AP29" s="13"/>
-      <c r="AQ29" s="13"/>
-      <c r="AR29" s="13"/>
-      <c r="AS29" s="13"/>
-      <c r="AT29" s="13"/>
-      <c r="AU29" s="13"/>
-      <c r="AV29" s="13"/>
-      <c r="AW29" s="13"/>
-      <c r="AX29" s="13"/>
-      <c r="AY29" s="13"/>
-      <c r="AZ29" s="13"/>
-      <c r="BA29" s="13"/>
-      <c r="BB29" s="13"/>
-      <c r="BC29" s="13"/>
-      <c r="BD29" s="13"/>
-      <c r="BG29" s="40"/>
-      <c r="BH29" s="40"/>
-      <c r="BI29" s="40"/>
-      <c r="BJ29" s="40"/>
-      <c r="BK29" s="40"/>
-      <c r="BL29" s="40"/>
-      <c r="BM29" s="40"/>
-      <c r="BN29" s="40"/>
-      <c r="BO29" s="41"/>
-      <c r="BP29" s="41"/>
-      <c r="BQ29" s="41"/>
-      <c r="BR29" s="26"/>
-      <c r="BS29" s="13"/>
-      <c r="BT29" s="13"/>
-      <c r="BU29" s="13"/>
-      <c r="BV29" s="13"/>
-      <c r="BW29" s="13"/>
-      <c r="BX29" s="13"/>
-      <c r="BY29" s="13"/>
-      <c r="BZ29" s="13"/>
-      <c r="CA29" s="13"/>
-      <c r="CB29" s="13"/>
-      <c r="CC29" s="13"/>
-      <c r="CD29" s="13"/>
-      <c r="CE29" s="13"/>
-      <c r="CF29" s="13"/>
-      <c r="CG29" s="13"/>
-    </row>
     <row r="30" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="B30" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="43"/>
-      <c r="AC30" s="43"/>
-      <c r="AD30" s="43"/>
-      <c r="AE30" s="43"/>
-      <c r="AF30" s="43"/>
-      <c r="AG30" s="43"/>
-      <c r="AH30" s="43"/>
-      <c r="AI30" s="44"/>
-      <c r="AJ30" s="44"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
       <c r="AK30" s="13"/>
       <c r="AL30" s="13"/>
       <c r="AM30" s="13"/>
-      <c r="BB30" s="44"/>
-      <c r="BO30" s="13"/>
-      <c r="BP30" s="13"/>
-      <c r="BQ30" s="13"/>
-      <c r="BR30" s="13"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="13"/>
+      <c r="AQ30" s="13"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="13"/>
+      <c r="AT30" s="13"/>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="13"/>
+      <c r="AW30" s="13"/>
+      <c r="AX30" s="13"/>
+      <c r="AY30" s="13"/>
+      <c r="AZ30" s="13"/>
+      <c r="BA30" s="13"/>
+      <c r="BB30" s="13"/>
+      <c r="BC30" s="13"/>
+      <c r="BD30" s="13"/>
+      <c r="BG30" s="40"/>
+      <c r="BH30" s="40"/>
+      <c r="BI30" s="40"/>
+      <c r="BJ30" s="40"/>
+      <c r="BK30" s="40"/>
+      <c r="BL30" s="40"/>
+      <c r="BM30" s="40"/>
+      <c r="BN30" s="40"/>
+      <c r="BO30" s="41"/>
+      <c r="BP30" s="41"/>
+      <c r="BQ30" s="41"/>
+      <c r="BR30" s="26"/>
       <c r="BS30" s="13"/>
       <c r="BT30" s="13"/>
       <c r="BU30" s="13"/>
@@ -10424,10 +10519,10 @@
       <c r="CG30" s="13"/>
     </row>
     <row r="31" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="B31" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="46"/>
+      <c r="B31" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="43"/>
       <c r="D31" s="43"/>
       <c r="E31" s="43"/>
       <c r="F31" s="43"/>
@@ -10441,9 +10536,11 @@
       <c r="N31" s="43"/>
       <c r="O31" s="43"/>
       <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="13"/>
       <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
       <c r="V31" s="43"/>
       <c r="W31" s="43"/>
       <c r="X31" s="43"/>
@@ -10457,21 +10554,12 @@
       <c r="AF31" s="43"/>
       <c r="AG31" s="43"/>
       <c r="AH31" s="43"/>
-      <c r="AI31" s="43"/>
-      <c r="AJ31" s="43"/>
+      <c r="AI31" s="44"/>
+      <c r="AJ31" s="44"/>
+      <c r="AK31" s="13"/>
       <c r="AL31" s="13"/>
-      <c r="AN31" s="47"/>
-      <c r="AO31" s="47"/>
-      <c r="AP31" s="47"/>
-      <c r="AQ31" s="47"/>
-      <c r="AR31" s="47"/>
-      <c r="AS31" s="47"/>
-      <c r="AT31" s="47"/>
-      <c r="AU31" s="47"/>
-      <c r="AV31" s="47"/>
-      <c r="AW31" s="47"/>
-      <c r="AX31" s="47"/>
-      <c r="BB31" s="43"/>
+      <c r="AM31" s="13"/>
+      <c r="BB31" s="44"/>
       <c r="BO31" s="13"/>
       <c r="BP31" s="13"/>
       <c r="BQ31" s="13"/>
@@ -10492,9 +10580,9 @@
       <c r="CF31" s="13"/>
       <c r="CG31" s="13"/>
     </row>
-    <row r="32" spans="1:86" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="48" t="s">
-        <v>55</v>
+    <row r="32" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="B32" s="45" t="s">
+        <v>54</v>
       </c>
       <c r="C32" s="46"/>
       <c r="D32" s="43"/>
@@ -10529,17 +10617,18 @@
       <c r="AI32" s="43"/>
       <c r="AJ32" s="43"/>
       <c r="AL32" s="13"/>
+      <c r="AN32" s="47"/>
+      <c r="AO32" s="47"/>
+      <c r="AP32" s="47"/>
+      <c r="AQ32" s="47"/>
+      <c r="AR32" s="47"/>
+      <c r="AS32" s="47"/>
+      <c r="AT32" s="47"/>
+      <c r="AU32" s="47"/>
+      <c r="AV32" s="47"/>
+      <c r="AW32" s="47"/>
+      <c r="AX32" s="47"/>
       <c r="BB32" s="43"/>
-      <c r="BE32" s="49"/>
-      <c r="BF32" s="49"/>
-      <c r="BG32" s="49"/>
-      <c r="BH32" s="49"/>
-      <c r="BI32" s="49"/>
-      <c r="BJ32" s="49"/>
-      <c r="BK32" s="49"/>
-      <c r="BL32" s="49"/>
-      <c r="BM32" s="49"/>
-      <c r="BN32" s="49"/>
       <c r="BO32" s="13"/>
       <c r="BP32" s="13"/>
       <c r="BQ32" s="13"/>
@@ -10560,9 +10649,9 @@
       <c r="CF32" s="13"/>
       <c r="CG32" s="13"/>
     </row>
-    <row r="33" spans="2:85" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:85" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="46"/>
       <c r="D33" s="43"/>
@@ -10628,20 +10717,20 @@
       <c r="CF33" s="13"/>
       <c r="CG33" s="13"/>
     </row>
-    <row r="34" spans="2:85" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="102"/>
-      <c r="L34" s="102"/>
+    <row r="34" spans="2:85" x14ac:dyDescent="0.25">
+      <c r="B34" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="46"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
       <c r="M34" s="43"/>
       <c r="N34" s="43"/>
       <c r="O34" s="43"/>
@@ -10649,6 +10738,15 @@
       <c r="Q34" s="43"/>
       <c r="R34" s="43"/>
       <c r="T34" s="13"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
       <c r="AE34" s="43"/>
       <c r="AF34" s="43"/>
       <c r="AG34" s="43"/>
@@ -10657,6 +10755,16 @@
       <c r="AJ34" s="43"/>
       <c r="AL34" s="13"/>
       <c r="BB34" s="43"/>
+      <c r="BE34" s="49"/>
+      <c r="BF34" s="49"/>
+      <c r="BG34" s="49"/>
+      <c r="BH34" s="49"/>
+      <c r="BI34" s="49"/>
+      <c r="BJ34" s="49"/>
+      <c r="BK34" s="49"/>
+      <c r="BL34" s="49"/>
+      <c r="BM34" s="49"/>
+      <c r="BN34" s="49"/>
       <c r="BO34" s="13"/>
       <c r="BP34" s="13"/>
       <c r="BQ34" s="13"/>
@@ -10677,137 +10785,128 @@
       <c r="CF34" s="13"/>
       <c r="CG34" s="13"/>
     </row>
-    <row r="35" spans="2:85" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="102" t="s">
+    <row r="35" spans="2:85" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="T35" s="13"/>
+      <c r="AE35" s="43"/>
+      <c r="AF35" s="43"/>
+      <c r="AG35" s="43"/>
+      <c r="AH35" s="43"/>
+      <c r="AI35" s="43"/>
+      <c r="AJ35" s="43"/>
+      <c r="AL35" s="13"/>
+      <c r="BB35" s="43"/>
+      <c r="BO35" s="13"/>
+      <c r="BP35" s="13"/>
+      <c r="BQ35" s="13"/>
+      <c r="BR35" s="13"/>
+      <c r="BS35" s="13"/>
+      <c r="BT35" s="13"/>
+      <c r="BU35" s="13"/>
+      <c r="BV35" s="13"/>
+      <c r="BW35" s="13"/>
+      <c r="BX35" s="13"/>
+      <c r="BY35" s="13"/>
+      <c r="BZ35" s="13"/>
+      <c r="CA35" s="13"/>
+      <c r="CB35" s="13"/>
+      <c r="CC35" s="13"/>
+      <c r="CD35" s="13"/>
+      <c r="CE35" s="13"/>
+      <c r="CF35" s="13"/>
+      <c r="CG35" s="13"/>
+    </row>
+    <row r="36" spans="2:85" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="102"/>
-      <c r="I35" s="102"/>
-      <c r="J35" s="102"/>
-      <c r="K35" s="102"/>
-      <c r="L35" s="102"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="50"/>
-      <c r="AC35" s="50"/>
-      <c r="AD35" s="50"/>
-      <c r="AE35" s="49"/>
-      <c r="AF35" s="49"/>
-      <c r="AG35" s="49"/>
-      <c r="AH35" s="49"/>
-      <c r="AI35" s="49"/>
-      <c r="AJ35" s="49"/>
-      <c r="AK35" s="49"/>
-      <c r="AL35" s="49"/>
-      <c r="AM35" s="50"/>
-      <c r="AN35" s="50"/>
-      <c r="AO35" s="50"/>
-      <c r="AP35" s="50"/>
-      <c r="AQ35" s="50"/>
-      <c r="AR35" s="50"/>
-      <c r="AS35" s="50"/>
-      <c r="AT35" s="50"/>
-      <c r="AU35" s="50"/>
-      <c r="AV35" s="50"/>
-      <c r="AW35" s="51"/>
-      <c r="AX35" s="51"/>
-      <c r="AY35" s="51"/>
-      <c r="AZ35" s="51"/>
-      <c r="BA35" s="51"/>
-      <c r="BB35" s="49"/>
-      <c r="BC35" s="51"/>
-      <c r="BD35" s="51"/>
-    </row>
-    <row r="36" spans="2:85" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="48" t="s">
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="50"/>
+      <c r="AE36" s="49"/>
+      <c r="AF36" s="49"/>
+      <c r="AG36" s="49"/>
+      <c r="AH36" s="49"/>
+      <c r="AI36" s="49"/>
+      <c r="AJ36" s="49"/>
+      <c r="AK36" s="49"/>
+      <c r="AL36" s="49"/>
+      <c r="AM36" s="50"/>
+      <c r="AN36" s="50"/>
+      <c r="AO36" s="50"/>
+      <c r="AP36" s="50"/>
+      <c r="AQ36" s="50"/>
+      <c r="AR36" s="50"/>
+      <c r="AS36" s="50"/>
+      <c r="AT36" s="50"/>
+      <c r="AU36" s="50"/>
+      <c r="AV36" s="50"/>
+      <c r="AW36" s="51"/>
+      <c r="AX36" s="51"/>
+      <c r="AY36" s="51"/>
+      <c r="AZ36" s="51"/>
+      <c r="BA36" s="51"/>
+      <c r="BB36" s="49"/>
+      <c r="BC36" s="51"/>
+      <c r="BD36" s="51"/>
+    </row>
+    <row r="37" spans="2:85" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="T36" s="13"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="43"/>
-      <c r="Z36" s="43"/>
-      <c r="AA36" s="43"/>
-      <c r="AB36" s="43"/>
-      <c r="AC36" s="43"/>
-      <c r="AD36" s="43"/>
-      <c r="AE36" s="43"/>
-      <c r="AF36" s="43"/>
-      <c r="AG36" s="43"/>
-      <c r="AH36" s="43"/>
-      <c r="AI36" s="43"/>
-      <c r="AJ36" s="43"/>
-      <c r="AL36" s="13"/>
-      <c r="BB36" s="43"/>
-      <c r="BO36" s="13"/>
-      <c r="BP36" s="13"/>
-      <c r="BQ36" s="13"/>
-      <c r="BR36" s="13"/>
-      <c r="BS36" s="13"/>
-      <c r="BT36" s="13"/>
-      <c r="BU36" s="13"/>
-      <c r="BV36" s="13"/>
-      <c r="BW36" s="13"/>
-      <c r="BX36" s="13"/>
-      <c r="BY36" s="13"/>
-      <c r="BZ36" s="13"/>
-      <c r="CA36" s="13"/>
-      <c r="CB36" s="13"/>
-      <c r="CC36" s="13"/>
-      <c r="CD36" s="13"/>
-      <c r="CE36" s="13"/>
-      <c r="CF36" s="13"/>
-      <c r="CG36" s="13"/>
-    </row>
-    <row r="37" spans="2:85" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="103" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="104"/>
-      <c r="L37" s="104"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
       <c r="M37" s="43"/>
       <c r="N37" s="43"/>
       <c r="O37" s="43"/>
@@ -10815,6 +10914,15 @@
       <c r="Q37" s="43"/>
       <c r="R37" s="43"/>
       <c r="T37" s="13"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="43"/>
+      <c r="AC37" s="43"/>
+      <c r="AD37" s="43"/>
       <c r="AE37" s="43"/>
       <c r="AF37" s="43"/>
       <c r="AG37" s="43"/>
@@ -10843,48 +10951,35 @@
       <c r="CF37" s="13"/>
       <c r="CG37" s="13"/>
     </row>
-    <row r="38" spans="2:85" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="105" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="105"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="13"/>
+    <row r="38" spans="2:85" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="108"/>
+      <c r="L38" s="108"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
       <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="50"/>
-      <c r="AF38" s="50"/>
-      <c r="AG38" s="50"/>
-      <c r="AH38" s="50"/>
-      <c r="AI38" s="50"/>
-      <c r="AJ38" s="50"/>
-      <c r="AK38" s="13"/>
+      <c r="AE38" s="43"/>
+      <c r="AF38" s="43"/>
+      <c r="AG38" s="43"/>
+      <c r="AH38" s="43"/>
+      <c r="AI38" s="43"/>
+      <c r="AJ38" s="43"/>
       <c r="AL38" s="13"/>
-      <c r="AM38" s="13"/>
-      <c r="BB38" s="50"/>
+      <c r="BB38" s="43"/>
       <c r="BO38" s="13"/>
       <c r="BP38" s="13"/>
       <c r="BQ38" s="13"/>
@@ -10905,18 +11000,67 @@
       <c r="CF38" s="13"/>
       <c r="CG38" s="13"/>
     </row>
-    <row r="39" spans="2:85" x14ac:dyDescent="0.25">
-      <c r="AN39" s="40"/>
-      <c r="AO39" s="40"/>
-      <c r="AP39" s="40"/>
-      <c r="AQ39" s="40"/>
-      <c r="AR39" s="40"/>
-      <c r="AS39" s="40"/>
-      <c r="AT39" s="40"/>
-      <c r="AU39" s="40"/>
-      <c r="AV39" s="40"/>
-      <c r="AW39" s="40"/>
-      <c r="AX39" s="40"/>
+    <row r="39" spans="2:85" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="109"/>
+      <c r="L39" s="109"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="50"/>
+      <c r="AF39" s="50"/>
+      <c r="AG39" s="50"/>
+      <c r="AH39" s="50"/>
+      <c r="AI39" s="50"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="13"/>
+      <c r="AL39" s="13"/>
+      <c r="AM39" s="13"/>
+      <c r="BB39" s="50"/>
+      <c r="BO39" s="13"/>
+      <c r="BP39" s="13"/>
+      <c r="BQ39" s="13"/>
+      <c r="BR39" s="13"/>
+      <c r="BS39" s="13"/>
+      <c r="BT39" s="13"/>
+      <c r="BU39" s="13"/>
+      <c r="BV39" s="13"/>
+      <c r="BW39" s="13"/>
+      <c r="BX39" s="13"/>
+      <c r="BY39" s="13"/>
+      <c r="BZ39" s="13"/>
+      <c r="CA39" s="13"/>
+      <c r="CB39" s="13"/>
+      <c r="CC39" s="13"/>
+      <c r="CD39" s="13"/>
+      <c r="CE39" s="13"/>
+      <c r="CF39" s="13"/>
+      <c r="CG39" s="13"/>
     </row>
     <row r="40" spans="2:85" x14ac:dyDescent="0.25">
       <c r="AN40" s="40"/>
@@ -11281,6 +11425,19 @@
       <c r="AV67" s="40"/>
       <c r="AW67" s="40"/>
       <c r="AX67" s="40"/>
+    </row>
+    <row r="68" spans="40:50" x14ac:dyDescent="0.25">
+      <c r="AN68" s="40"/>
+      <c r="AO68" s="40"/>
+      <c r="AP68" s="40"/>
+      <c r="AQ68" s="40"/>
+      <c r="AR68" s="40"/>
+      <c r="AS68" s="40"/>
+      <c r="AT68" s="40"/>
+      <c r="AU68" s="40"/>
+      <c r="AV68" s="40"/>
+      <c r="AW68" s="40"/>
+      <c r="AX68" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -11295,12 +11452,12 @@
     <mergeCell ref="BV11:CH11"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="AN11:BA11"/>
-    <mergeCell ref="B35:L35"/>
-    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="B36:L36"/>
     <mergeCell ref="B38:L38"/>
+    <mergeCell ref="B39:L39"/>
     <mergeCell ref="V11:AI11"/>
     <mergeCell ref="AL11:AL12"/>
-    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="B35:L35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11313,17 +11470,17 @@
   <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E112" sqref="E112"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" style="52" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="30.28515625" style="61" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="30.28515625" style="60" customWidth="1"/>
     <col min="5" max="5" width="36" style="53" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" style="53" customWidth="1"/>
   </cols>
@@ -11366,22 +11523,22 @@
       <c r="B3" s="53">
         <v>339.56</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="104">
         <f>B3/100000</f>
         <v>3.3955999999999999E-3</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="56">
         <f>C3*100</f>
         <v>0.33955999999999997</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="66">
         <v>601913</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="66">
         <f>E3*(A3+0.5)</f>
         <v>300956.5</v>
       </c>
-      <c r="G3" s="57"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="52">
@@ -11390,18 +11547,18 @@
       <c r="B4" s="53">
         <v>33.015000000000001</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="104">
         <f t="shared" ref="C4:C67" si="0">B4/100000</f>
         <v>3.3015000000000003E-4</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="56">
         <f t="shared" ref="D4:D67" si="1">C4*100</f>
         <v>3.3015000000000003E-2</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="66">
         <v>625476</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="66">
         <f t="shared" ref="F4:F67" si="2">E4*(A4+0.5)</f>
         <v>938214</v>
       </c>
@@ -11413,18 +11570,18 @@
       <c r="B5" s="53">
         <v>15.594999999999999</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="104">
         <f t="shared" si="0"/>
         <v>1.5595E-4</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="56">
         <f t="shared" si="1"/>
         <v>1.5594999999999999E-2</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="66">
         <v>650226</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="66">
         <f t="shared" si="2"/>
         <v>1625565</v>
       </c>
@@ -11436,18 +11593,18 @@
       <c r="B6" s="53">
         <v>8.64</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="104">
         <f t="shared" si="0"/>
         <v>8.6399999999999999E-5</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="56">
         <f t="shared" si="1"/>
         <v>8.6400000000000001E-3</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="66">
         <v>671016</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6" s="66">
         <f t="shared" si="2"/>
         <v>2348556</v>
       </c>
@@ -11459,18 +11616,18 @@
       <c r="B7" s="53">
         <v>7.7149999999999999</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="104">
         <f t="shared" si="0"/>
         <v>7.7150000000000005E-5</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="56">
         <f t="shared" si="1"/>
         <v>7.7150000000000005E-3</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="66">
         <v>690816</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="66">
         <f t="shared" si="2"/>
         <v>3108672</v>
       </c>
@@ -11482,18 +11639,18 @@
       <c r="B8" s="53">
         <v>7.4</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="104">
         <f t="shared" si="0"/>
         <v>7.400000000000001E-5</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="56">
         <f t="shared" si="1"/>
         <v>7.4000000000000012E-3</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="66">
         <v>689190</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="66">
         <f t="shared" si="2"/>
         <v>3790545</v>
       </c>
@@ -11505,18 +11662,18 @@
       <c r="B9" s="53">
         <v>7.0250000000000004</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="104">
         <f t="shared" si="0"/>
         <v>7.025E-5</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="56">
         <f t="shared" si="1"/>
         <v>7.025E-3</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="66">
         <v>694734</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="66">
         <f t="shared" si="2"/>
         <v>4515771</v>
       </c>
@@ -11528,18 +11685,18 @@
       <c r="B10" s="53">
         <v>6.5</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="104">
         <f t="shared" si="0"/>
         <v>6.4999999999999994E-5</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="56">
         <f t="shared" si="1"/>
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="66">
         <v>709940</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="66">
         <f t="shared" si="2"/>
         <v>5324550</v>
       </c>
@@ -11551,18 +11708,18 @@
       <c r="B11" s="53">
         <v>5.9849999999999994</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="104">
         <f t="shared" si="0"/>
         <v>5.9849999999999991E-5</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="56">
         <f t="shared" si="1"/>
         <v>5.984999999999999E-3</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="66">
         <v>730548</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="66">
         <f t="shared" si="2"/>
         <v>6209658</v>
       </c>
@@ -11574,18 +11731,18 @@
       <c r="B12" s="53">
         <v>5.69</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="104">
         <f t="shared" si="0"/>
         <v>5.6900000000000001E-5</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="56">
         <f t="shared" si="1"/>
         <v>5.6899999999999997E-3</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="66">
         <v>715046</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="66">
         <f t="shared" si="2"/>
         <v>6792937</v>
       </c>
@@ -11597,18 +11754,18 @@
       <c r="B13" s="53">
         <v>5.7850000000000001</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="104">
         <f t="shared" si="0"/>
         <v>5.7850000000000003E-5</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="56">
         <f t="shared" si="1"/>
         <v>5.7850000000000002E-3</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="66">
         <v>703087</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="66">
         <f t="shared" si="2"/>
         <v>7382413.5</v>
       </c>
@@ -11620,18 +11777,18 @@
       <c r="B14" s="53">
         <v>6.26</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="104">
         <f t="shared" si="0"/>
         <v>6.2600000000000004E-5</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="56">
         <f t="shared" si="1"/>
         <v>6.2599999999999999E-3</v>
       </c>
-      <c r="E14" s="67">
+      <c r="E14" s="66">
         <v>692873</v>
       </c>
-      <c r="F14" s="67">
+      <c r="F14" s="66">
         <f t="shared" si="2"/>
         <v>7968039.5</v>
       </c>
@@ -11643,18 +11800,18 @@
       <c r="B15" s="53">
         <v>7.22</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="104">
         <f t="shared" si="0"/>
         <v>7.2199999999999993E-5</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="56">
         <f t="shared" si="1"/>
         <v>7.219999999999999E-3</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="66">
         <v>698821</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15" s="66">
         <f t="shared" si="2"/>
         <v>8735262.5</v>
       </c>
@@ -11666,18 +11823,18 @@
       <c r="B16" s="53">
         <v>8.7050000000000001</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="104">
         <f t="shared" si="0"/>
         <v>8.7050000000000002E-5</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="56">
         <f t="shared" si="1"/>
         <v>8.7050000000000009E-3</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="66">
         <v>676773</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="66">
         <f t="shared" si="2"/>
         <v>9136435.5</v>
       </c>
@@ -11689,18 +11846,18 @@
       <c r="B17" s="53">
         <v>10.65</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="104">
         <f t="shared" si="0"/>
         <v>1.065E-4</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="56">
         <f t="shared" si="1"/>
         <v>1.065E-2</v>
       </c>
-      <c r="E17" s="67">
+      <c r="E17" s="66">
         <v>664025</v>
       </c>
-      <c r="F17" s="67">
+      <c r="F17" s="66">
         <f t="shared" si="2"/>
         <v>9628362.5</v>
       </c>
@@ -11712,18 +11869,18 @@
       <c r="B18" s="53">
         <v>13.04</v>
       </c>
-      <c r="C18" s="56">
+      <c r="C18" s="104">
         <f t="shared" si="0"/>
         <v>1.304E-4</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="56">
         <f t="shared" si="1"/>
         <v>1.304E-2</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="66">
         <v>637756</v>
       </c>
-      <c r="F18" s="67">
+      <c r="F18" s="66">
         <f t="shared" si="2"/>
         <v>9885218</v>
       </c>
@@ -11735,18 +11892,18 @@
       <c r="B19" s="53">
         <v>15.959999999999999</v>
       </c>
-      <c r="C19" s="56">
+      <c r="C19" s="104">
         <f t="shared" si="0"/>
         <v>1.596E-4</v>
       </c>
-      <c r="D19" s="57">
+      <c r="D19" s="56">
         <f t="shared" si="1"/>
         <v>1.5960000000000002E-2</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="66">
         <v>628023</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="66">
         <f t="shared" si="2"/>
         <v>10362379.5</v>
       </c>
@@ -11758,18 +11915,18 @@
       <c r="B20" s="53">
         <v>19.3</v>
       </c>
-      <c r="C20" s="56">
+      <c r="C20" s="105">
         <f t="shared" si="0"/>
         <v>1.93E-4</v>
       </c>
-      <c r="D20" s="57">
+      <c r="D20" s="56">
         <f t="shared" si="1"/>
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="66">
         <v>613025</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="66">
         <f t="shared" si="2"/>
         <v>10727937.5</v>
       </c>
@@ -11781,18 +11938,18 @@
       <c r="B21" s="53">
         <v>22.725000000000001</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21" s="104">
         <f t="shared" si="0"/>
         <v>2.2725000000000002E-4</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="56">
         <f t="shared" si="1"/>
         <v>2.2725000000000002E-2</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="56">
         <v>606611</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="56">
         <f t="shared" si="2"/>
         <v>11222303.5</v>
       </c>
@@ -11804,18 +11961,18 @@
       <c r="B22" s="53">
         <v>25.98</v>
       </c>
-      <c r="C22" s="56">
+      <c r="C22" s="104">
         <f t="shared" si="0"/>
         <v>2.5980000000000003E-4</v>
       </c>
-      <c r="D22" s="57">
+      <c r="D22" s="56">
         <f t="shared" si="1"/>
         <v>2.5980000000000003E-2</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="56">
         <v>630456</v>
       </c>
-      <c r="F22" s="57">
+      <c r="F22" s="56">
         <f t="shared" si="2"/>
         <v>12293892</v>
       </c>
@@ -11827,18 +11984,18 @@
       <c r="B23" s="53">
         <v>28.594999999999999</v>
       </c>
-      <c r="C23" s="56">
+      <c r="C23" s="104">
         <f t="shared" si="0"/>
         <v>2.8594999999999998E-4</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="56">
         <f t="shared" si="1"/>
         <v>2.8594999999999999E-2</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="56">
         <v>653155</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="56">
         <f t="shared" si="2"/>
         <v>13389677.5</v>
       </c>
@@ -11850,18 +12007,18 @@
       <c r="B24" s="53">
         <v>30.4</v>
       </c>
-      <c r="C24" s="56">
+      <c r="C24" s="104">
         <f t="shared" si="0"/>
         <v>3.0399999999999996E-4</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="56">
         <f t="shared" si="1"/>
         <v>3.0399999999999996E-2</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="56">
         <v>679487</v>
       </c>
-      <c r="F24" s="57">
+      <c r="F24" s="56">
         <f t="shared" si="2"/>
         <v>14608970.5</v>
       </c>
@@ -11873,18 +12030,18 @@
       <c r="B25" s="53">
         <v>31.47</v>
       </c>
-      <c r="C25" s="56">
+      <c r="C25" s="104">
         <f t="shared" si="0"/>
         <v>3.1470000000000001E-4</v>
       </c>
-      <c r="D25" s="57">
+      <c r="D25" s="56">
         <f t="shared" si="1"/>
         <v>3.1469999999999998E-2</v>
       </c>
-      <c r="E25" s="57">
+      <c r="E25" s="56">
         <v>694216</v>
       </c>
-      <c r="F25" s="57">
+      <c r="F25" s="56">
         <f t="shared" si="2"/>
         <v>15619860</v>
       </c>
@@ -11896,18 +12053,18 @@
       <c r="B26" s="53">
         <v>32.215000000000003</v>
       </c>
-      <c r="C26" s="56">
+      <c r="C26" s="104">
         <f t="shared" si="0"/>
         <v>3.2215000000000005E-4</v>
       </c>
-      <c r="D26" s="57">
+      <c r="D26" s="56">
         <f t="shared" si="1"/>
         <v>3.2215000000000008E-2</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="56">
         <v>720400</v>
       </c>
-      <c r="F26" s="57">
+      <c r="F26" s="56">
         <f t="shared" si="2"/>
         <v>16929400</v>
       </c>
@@ -11919,18 +12076,18 @@
       <c r="B27" s="53">
         <v>33.155000000000001</v>
       </c>
-      <c r="C27" s="56">
+      <c r="C27" s="104">
         <f t="shared" si="0"/>
         <v>3.3155000000000001E-4</v>
       </c>
-      <c r="D27" s="57">
+      <c r="D27" s="56">
         <f t="shared" si="1"/>
         <v>3.3155000000000004E-2</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="56">
         <v>725264</v>
       </c>
-      <c r="F27" s="57">
+      <c r="F27" s="56">
         <f t="shared" si="2"/>
         <v>17768968</v>
       </c>
@@ -11942,18 +12099,18 @@
       <c r="B28" s="53">
         <v>34.575000000000003</v>
       </c>
-      <c r="C28" s="56">
+      <c r="C28" s="104">
         <f t="shared" si="0"/>
         <v>3.4575000000000003E-4</v>
       </c>
-      <c r="D28" s="57">
+      <c r="D28" s="56">
         <f t="shared" si="1"/>
         <v>3.4575000000000002E-2</v>
       </c>
-      <c r="E28" s="67">
+      <c r="E28" s="66">
         <v>725111</v>
       </c>
-      <c r="F28" s="67">
+      <c r="F28" s="66">
         <f t="shared" si="2"/>
         <v>18490330.5</v>
       </c>
@@ -11965,18 +12122,18 @@
       <c r="B29" s="53">
         <v>36.65</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="104">
         <f t="shared" si="0"/>
         <v>3.6649999999999996E-4</v>
       </c>
-      <c r="D29" s="57">
+      <c r="D29" s="56">
         <f t="shared" si="1"/>
         <v>3.6649999999999995E-2</v>
       </c>
-      <c r="E29" s="67">
+      <c r="E29" s="66">
         <v>745909</v>
       </c>
-      <c r="F29" s="67">
+      <c r="F29" s="66">
         <f t="shared" si="2"/>
         <v>19766588.5</v>
       </c>
@@ -11988,18 +12145,18 @@
       <c r="B30" s="53">
         <v>39.44</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="104">
         <f t="shared" si="0"/>
         <v>3.9439999999999999E-4</v>
       </c>
-      <c r="D30" s="57">
+      <c r="D30" s="56">
         <f t="shared" si="1"/>
         <v>3.9439999999999996E-2</v>
       </c>
-      <c r="E30" s="67">
+      <c r="E30" s="66">
         <v>747190</v>
       </c>
-      <c r="F30" s="67">
+      <c r="F30" s="66">
         <f t="shared" si="2"/>
         <v>20547725</v>
       </c>
@@ -12011,18 +12168,18 @@
       <c r="B31" s="53">
         <v>42.93</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="104">
         <f t="shared" si="0"/>
         <v>4.2929999999999997E-4</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D31" s="56">
         <f t="shared" si="1"/>
         <v>4.2929999999999996E-2</v>
       </c>
-      <c r="E31" s="67">
+      <c r="E31" s="66">
         <v>768513</v>
       </c>
-      <c r="F31" s="67">
+      <c r="F31" s="66">
         <f t="shared" si="2"/>
         <v>21902620.5</v>
       </c>
@@ -12034,18 +12191,18 @@
       <c r="B32" s="53">
         <v>46.849999999999994</v>
       </c>
-      <c r="C32" s="56">
+      <c r="C32" s="104">
         <f t="shared" si="0"/>
         <v>4.6849999999999995E-4</v>
       </c>
-      <c r="D32" s="57">
+      <c r="D32" s="56">
         <f t="shared" si="1"/>
         <v>4.6849999999999996E-2</v>
       </c>
-      <c r="E32" s="67">
+      <c r="E32" s="66">
         <v>784770</v>
       </c>
-      <c r="F32" s="67">
+      <c r="F32" s="66">
         <f t="shared" si="2"/>
         <v>23150715</v>
       </c>
@@ -12057,18 +12214,18 @@
       <c r="B33" s="53">
         <v>50.945</v>
       </c>
-      <c r="C33" s="56">
+      <c r="C33" s="104">
         <f t="shared" si="0"/>
         <v>5.0945000000000005E-4</v>
       </c>
-      <c r="D33" s="57">
+      <c r="D33" s="56">
         <f t="shared" si="1"/>
         <v>5.0945000000000004E-2</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="56">
         <v>771964</v>
       </c>
-      <c r="F33" s="57">
+      <c r="F33" s="56">
         <f t="shared" si="2"/>
         <v>23544902</v>
       </c>
@@ -12080,18 +12237,18 @@
       <c r="B34" s="53">
         <v>55.245000000000005</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="104">
         <f t="shared" si="0"/>
         <v>5.5245000000000001E-4</v>
       </c>
-      <c r="D34" s="57">
+      <c r="D34" s="56">
         <f t="shared" si="1"/>
         <v>5.5245000000000002E-2</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="56">
         <v>764738</v>
       </c>
-      <c r="F34" s="57">
+      <c r="F34" s="56">
         <f t="shared" si="2"/>
         <v>24089247</v>
       </c>
@@ -12103,18 +12260,18 @@
       <c r="B35" s="53">
         <v>59.875</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35" s="104">
         <f t="shared" si="0"/>
         <v>5.9875E-4</v>
       </c>
-      <c r="D35" s="57">
+      <c r="D35" s="56">
         <f t="shared" si="1"/>
         <v>5.9874999999999998E-2</v>
       </c>
-      <c r="E35" s="57">
+      <c r="E35" s="56">
         <v>773176</v>
       </c>
-      <c r="F35" s="57">
+      <c r="F35" s="56">
         <f t="shared" si="2"/>
         <v>25128220</v>
       </c>
@@ -12126,18 +12283,18 @@
       <c r="B36" s="53">
         <v>64.805000000000007</v>
       </c>
-      <c r="C36" s="56">
+      <c r="C36" s="104">
         <f t="shared" si="0"/>
         <v>6.4805000000000006E-4</v>
       </c>
-      <c r="D36" s="57">
+      <c r="D36" s="56">
         <f t="shared" si="1"/>
         <v>6.4805000000000001E-2</v>
       </c>
-      <c r="E36" s="57">
+      <c r="E36" s="56">
         <v>753953</v>
       </c>
-      <c r="F36" s="57">
+      <c r="F36" s="56">
         <f t="shared" si="2"/>
         <v>25257425.5</v>
       </c>
@@ -12149,18 +12306,18 @@
       <c r="B37" s="53">
         <v>70.105000000000004</v>
       </c>
-      <c r="C37" s="56">
+      <c r="C37" s="104">
         <f t="shared" si="0"/>
         <v>7.0105000000000005E-4</v>
       </c>
-      <c r="D37" s="57">
+      <c r="D37" s="56">
         <f t="shared" si="1"/>
         <v>7.0105000000000001E-2</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="56">
         <v>760821</v>
       </c>
-      <c r="F37" s="57">
+      <c r="F37" s="56">
         <f t="shared" si="2"/>
         <v>26248324.5</v>
       </c>
@@ -12172,18 +12329,18 @@
       <c r="B38" s="53">
         <v>76.125</v>
       </c>
-      <c r="C38" s="56">
+      <c r="C38" s="104">
         <f t="shared" si="0"/>
         <v>7.6124999999999999E-4</v>
       </c>
-      <c r="D38" s="57">
+      <c r="D38" s="56">
         <f t="shared" si="1"/>
         <v>7.6124999999999998E-2</v>
       </c>
-      <c r="E38" s="67">
+      <c r="E38" s="66">
         <v>758955</v>
       </c>
-      <c r="F38" s="67">
+      <c r="F38" s="66">
         <f t="shared" si="2"/>
         <v>26942902.5</v>
       </c>
@@ -12195,18 +12352,18 @@
       <c r="B39" s="53">
         <v>83.025000000000006</v>
       </c>
-      <c r="C39" s="56">
+      <c r="C39" s="104">
         <f t="shared" si="0"/>
         <v>8.3025000000000004E-4</v>
       </c>
-      <c r="D39" s="57">
+      <c r="D39" s="56">
         <f t="shared" si="1"/>
         <v>8.3025000000000002E-2</v>
       </c>
-      <c r="E39" s="67">
+      <c r="E39" s="66">
         <v>741034</v>
       </c>
-      <c r="F39" s="67">
+      <c r="F39" s="66">
         <f t="shared" si="2"/>
         <v>27047741</v>
       </c>
@@ -12218,18 +12375,18 @@
       <c r="B40" s="53">
         <v>90.78</v>
       </c>
-      <c r="C40" s="56">
+      <c r="C40" s="104">
         <f t="shared" si="0"/>
         <v>9.0780000000000006E-4</v>
       </c>
-      <c r="D40" s="57">
+      <c r="D40" s="56">
         <f t="shared" si="1"/>
         <v>9.078E-2</v>
       </c>
-      <c r="E40" s="67">
+      <c r="E40" s="66">
         <v>745909</v>
       </c>
-      <c r="F40" s="67">
+      <c r="F40" s="66">
         <f t="shared" si="2"/>
         <v>27971587.5</v>
       </c>
@@ -12241,18 +12398,18 @@
       <c r="B41" s="53">
         <v>99.3</v>
       </c>
-      <c r="C41" s="56">
+      <c r="C41" s="104">
         <f t="shared" si="0"/>
         <v>9.9299999999999996E-4</v>
       </c>
-      <c r="D41" s="57">
+      <c r="D41" s="56">
         <f t="shared" si="1"/>
         <v>9.9299999999999999E-2</v>
       </c>
-      <c r="E41" s="67">
+      <c r="E41" s="66">
         <v>743814</v>
       </c>
-      <c r="F41" s="67">
+      <c r="F41" s="66">
         <f t="shared" si="2"/>
         <v>28636839</v>
       </c>
@@ -12264,18 +12421,18 @@
       <c r="B42" s="53">
         <v>108.41500000000001</v>
       </c>
-      <c r="C42" s="56">
+      <c r="C42" s="104">
         <f t="shared" si="0"/>
         <v>1.0841500000000001E-3</v>
       </c>
-      <c r="D42" s="57">
+      <c r="D42" s="56">
         <f t="shared" si="1"/>
         <v>0.10841500000000001</v>
       </c>
-      <c r="E42" s="67">
+      <c r="E42" s="66">
         <v>748497</v>
       </c>
-      <c r="F42" s="67">
+      <c r="F42" s="66">
         <f t="shared" si="2"/>
         <v>29565631.5</v>
       </c>
@@ -12287,18 +12444,18 @@
       <c r="B43" s="53">
         <v>118.13</v>
       </c>
-      <c r="C43" s="56">
+      <c r="C43" s="104">
         <f t="shared" si="0"/>
         <v>1.1812999999999999E-3</v>
       </c>
-      <c r="D43" s="57">
+      <c r="D43" s="56">
         <f t="shared" si="1"/>
         <v>0.11813</v>
       </c>
-      <c r="E43" s="57">
+      <c r="E43" s="56">
         <v>749883</v>
       </c>
-      <c r="F43" s="57">
+      <c r="F43" s="56">
         <f t="shared" si="2"/>
         <v>30370261.5</v>
       </c>
@@ -12310,18 +12467,18 @@
       <c r="B44" s="53">
         <v>128.345</v>
       </c>
-      <c r="C44" s="56">
+      <c r="C44" s="104">
         <f t="shared" si="0"/>
         <v>1.28345E-3</v>
       </c>
-      <c r="D44" s="57">
+      <c r="D44" s="56">
         <f t="shared" si="1"/>
         <v>0.12834499999999999</v>
       </c>
-      <c r="E44" s="57">
+      <c r="E44" s="56">
         <v>720148</v>
       </c>
-      <c r="F44" s="57">
+      <c r="F44" s="56">
         <f t="shared" si="2"/>
         <v>29886142</v>
       </c>
@@ -12333,18 +12490,18 @@
       <c r="B45" s="53">
         <v>138.93</v>
       </c>
-      <c r="C45" s="56">
+      <c r="C45" s="104">
         <f t="shared" si="0"/>
         <v>1.3893E-3</v>
       </c>
-      <c r="D45" s="57">
+      <c r="D45" s="56">
         <f t="shared" si="1"/>
         <v>0.13893</v>
       </c>
-      <c r="E45" s="57">
+      <c r="E45" s="56">
         <v>672256</v>
       </c>
-      <c r="F45" s="57">
+      <c r="F45" s="56">
         <f t="shared" si="2"/>
         <v>28570880</v>
       </c>
@@ -12356,18 +12513,18 @@
       <c r="B46" s="53">
         <v>150.02000000000001</v>
       </c>
-      <c r="C46" s="56">
+      <c r="C46" s="104">
         <f t="shared" si="0"/>
         <v>1.5002000000000001E-3</v>
       </c>
-      <c r="D46" s="57">
+      <c r="D46" s="56">
         <f t="shared" si="1"/>
         <v>0.15002000000000001</v>
       </c>
-      <c r="E46" s="57">
+      <c r="E46" s="56">
         <v>661208</v>
       </c>
-      <c r="F46" s="57">
+      <c r="F46" s="56">
         <f t="shared" si="2"/>
         <v>28762548</v>
       </c>
@@ -12379,18 +12536,18 @@
       <c r="B47" s="53">
         <v>161.785</v>
       </c>
-      <c r="C47" s="56">
+      <c r="C47" s="104">
         <f t="shared" si="0"/>
         <v>1.6178499999999999E-3</v>
       </c>
-      <c r="D47" s="57">
+      <c r="D47" s="56">
         <f t="shared" si="1"/>
         <v>0.16178499999999998</v>
       </c>
-      <c r="E47" s="57">
+      <c r="E47" s="56">
         <v>672808</v>
       </c>
-      <c r="F47" s="57">
+      <c r="F47" s="56">
         <f t="shared" si="2"/>
         <v>29939956</v>
       </c>
@@ -12402,18 +12559,18 @@
       <c r="B48" s="53">
         <v>174.29</v>
       </c>
-      <c r="C48" s="56">
+      <c r="C48" s="104">
         <f t="shared" si="0"/>
         <v>1.7428999999999999E-3</v>
       </c>
-      <c r="D48" s="57">
+      <c r="D48" s="56">
         <f t="shared" si="1"/>
         <v>0.17429</v>
       </c>
-      <c r="E48" s="67">
+      <c r="E48" s="66">
         <v>685301</v>
       </c>
-      <c r="F48" s="67">
+      <c r="F48" s="66">
         <f t="shared" si="2"/>
         <v>31181195.5</v>
       </c>
@@ -12425,18 +12582,18 @@
       <c r="B49" s="53">
         <v>187.61500000000001</v>
       </c>
-      <c r="C49" s="56">
+      <c r="C49" s="104">
         <f t="shared" si="0"/>
         <v>1.87615E-3</v>
       </c>
-      <c r="D49" s="57">
+      <c r="D49" s="56">
         <f t="shared" si="1"/>
         <v>0.187615</v>
       </c>
-      <c r="E49" s="67">
+      <c r="E49" s="66">
         <v>696231</v>
       </c>
-      <c r="F49" s="67">
+      <c r="F49" s="66">
         <f t="shared" si="2"/>
         <v>32374741.5</v>
       </c>
@@ -12448,18 +12605,18 @@
       <c r="B50" s="53">
         <v>201.97500000000002</v>
       </c>
-      <c r="C50" s="56">
+      <c r="C50" s="104">
         <f t="shared" si="0"/>
         <v>2.0197500000000003E-3</v>
       </c>
-      <c r="D50" s="57">
+      <c r="D50" s="56">
         <f t="shared" si="1"/>
         <v>0.20197500000000002</v>
       </c>
-      <c r="E50" s="67">
+      <c r="E50" s="66">
         <v>724675</v>
       </c>
-      <c r="F50" s="67">
+      <c r="F50" s="66">
         <f t="shared" si="2"/>
         <v>34422062.5</v>
       </c>
@@ -12471,18 +12628,18 @@
       <c r="B51" s="53">
         <v>217.52500000000001</v>
       </c>
-      <c r="C51" s="56">
+      <c r="C51" s="104">
         <f t="shared" si="0"/>
         <v>2.1752500000000001E-3</v>
       </c>
-      <c r="D51" s="57">
+      <c r="D51" s="56">
         <f t="shared" si="1"/>
         <v>0.21752500000000002</v>
       </c>
-      <c r="E51" s="67">
+      <c r="E51" s="66">
         <v>754435</v>
       </c>
-      <c r="F51" s="67">
+      <c r="F51" s="66">
         <f t="shared" si="2"/>
         <v>36590097.5</v>
       </c>
@@ -12494,18 +12651,18 @@
       <c r="B52" s="53">
         <v>234.38499999999999</v>
       </c>
-      <c r="C52" s="56">
+      <c r="C52" s="104">
         <f t="shared" si="0"/>
         <v>2.3438499999999998E-3</v>
       </c>
-      <c r="D52" s="57">
+      <c r="D52" s="56">
         <f t="shared" si="1"/>
         <v>0.23438499999999998</v>
       </c>
-      <c r="E52" s="67">
+      <c r="E52" s="66">
         <v>777997</v>
       </c>
-      <c r="F52" s="67">
+      <c r="F52" s="66">
         <f t="shared" si="2"/>
         <v>38510851.5</v>
       </c>
@@ -12517,18 +12674,18 @@
       <c r="B53" s="53">
         <v>252.875</v>
       </c>
-      <c r="C53" s="56">
+      <c r="C53" s="104">
         <f t="shared" si="0"/>
         <v>2.5287500000000002E-3</v>
       </c>
-      <c r="D53" s="57">
+      <c r="D53" s="56">
         <f t="shared" si="1"/>
         <v>0.25287500000000002</v>
       </c>
-      <c r="E53" s="57">
+      <c r="E53" s="56">
         <v>758905</v>
       </c>
-      <c r="F53" s="57">
+      <c r="F53" s="56">
         <f t="shared" si="2"/>
         <v>38324702.5</v>
       </c>
@@ -12540,18 +12697,18 @@
       <c r="B54" s="53">
         <v>273.35500000000002</v>
       </c>
-      <c r="C54" s="56">
+      <c r="C54" s="104">
         <f t="shared" si="0"/>
         <v>2.7335500000000004E-3</v>
       </c>
-      <c r="D54" s="57">
+      <c r="D54" s="56">
         <f t="shared" si="1"/>
         <v>0.27335500000000001</v>
       </c>
-      <c r="E54" s="57">
+      <c r="E54" s="56">
         <v>775715</v>
       </c>
-      <c r="F54" s="57">
+      <c r="F54" s="56">
         <f t="shared" si="2"/>
         <v>39949322.5</v>
       </c>
@@ -12563,18 +12720,18 @@
       <c r="B55" s="53">
         <v>295.90500000000003</v>
       </c>
-      <c r="C55" s="56">
+      <c r="C55" s="104">
         <f t="shared" si="0"/>
         <v>2.9590500000000004E-3</v>
       </c>
-      <c r="D55" s="57">
+      <c r="D55" s="56">
         <f t="shared" si="1"/>
         <v>0.29590500000000003</v>
       </c>
-      <c r="E55" s="57">
+      <c r="E55" s="56">
         <v>774083</v>
       </c>
-      <c r="F55" s="57">
+      <c r="F55" s="56">
         <f t="shared" si="2"/>
         <v>40639357.5</v>
       </c>
@@ -12586,18 +12743,18 @@
       <c r="B56" s="53">
         <v>320.93</v>
       </c>
-      <c r="C56" s="56">
+      <c r="C56" s="105">
         <f t="shared" si="0"/>
         <v>3.2093E-3</v>
       </c>
-      <c r="D56" s="57">
+      <c r="D56" s="56">
         <f t="shared" si="1"/>
         <v>0.32092999999999999</v>
       </c>
-      <c r="E56" s="57">
+      <c r="E56" s="56">
         <v>784116</v>
       </c>
-      <c r="F56" s="57">
+      <c r="F56" s="56">
         <f t="shared" si="2"/>
         <v>41950206</v>
       </c>
@@ -12609,18 +12766,18 @@
       <c r="B57" s="53">
         <v>349.57000000000005</v>
       </c>
-      <c r="C57" s="56">
+      <c r="C57" s="104">
         <f t="shared" si="0"/>
         <v>3.4957000000000005E-3</v>
       </c>
-      <c r="D57" s="57">
+      <c r="D57" s="56">
         <f t="shared" si="1"/>
         <v>0.34957000000000005</v>
       </c>
-      <c r="E57" s="57">
+      <c r="E57" s="56">
         <v>782532</v>
       </c>
-      <c r="F57" s="57">
+      <c r="F57" s="56">
         <f t="shared" si="2"/>
         <v>42647994</v>
       </c>
@@ -12632,18 +12789,18 @@
       <c r="B58" s="53">
         <v>382.54</v>
       </c>
-      <c r="C58" s="56">
+      <c r="C58" s="104">
         <f t="shared" si="0"/>
         <v>3.8254000000000001E-3</v>
       </c>
-      <c r="D58" s="57">
+      <c r="D58" s="56">
         <f t="shared" si="1"/>
         <v>0.38253999999999999</v>
       </c>
-      <c r="E58" s="67">
+      <c r="E58" s="66">
         <v>784299</v>
       </c>
-      <c r="F58" s="67">
+      <c r="F58" s="66">
         <f t="shared" si="2"/>
         <v>43528594.5</v>
       </c>
@@ -12655,18 +12812,18 @@
       <c r="B59" s="53">
         <v>419.935</v>
       </c>
-      <c r="C59" s="56">
+      <c r="C59" s="104">
         <f t="shared" si="0"/>
         <v>4.1993500000000001E-3</v>
       </c>
-      <c r="D59" s="57">
+      <c r="D59" s="56">
         <f t="shared" si="1"/>
         <v>0.419935</v>
       </c>
-      <c r="E59" s="67">
+      <c r="E59" s="66">
         <v>775320</v>
       </c>
-      <c r="F59" s="67">
+      <c r="F59" s="66">
         <f t="shared" si="2"/>
         <v>43805580</v>
       </c>
@@ -12678,18 +12835,18 @@
       <c r="B60" s="53">
         <v>461.96500000000003</v>
       </c>
-      <c r="C60" s="56">
+      <c r="C60" s="104">
         <f t="shared" si="0"/>
         <v>4.6196500000000003E-3</v>
       </c>
-      <c r="D60" s="57">
+      <c r="D60" s="56">
         <f t="shared" si="1"/>
         <v>0.46196500000000001</v>
       </c>
-      <c r="E60" s="67">
+      <c r="E60" s="66">
         <v>756023</v>
       </c>
-      <c r="F60" s="67">
+      <c r="F60" s="66">
         <f t="shared" si="2"/>
         <v>43471322.5</v>
       </c>
@@ -12701,18 +12858,18 @@
       <c r="B61" s="53">
         <v>508.71</v>
       </c>
-      <c r="C61" s="56">
+      <c r="C61" s="104">
         <f t="shared" si="0"/>
         <v>5.0870999999999998E-3</v>
       </c>
-      <c r="D61" s="57">
+      <c r="D61" s="56">
         <f t="shared" si="1"/>
         <v>0.50871</v>
       </c>
-      <c r="E61" s="67">
+      <c r="E61" s="66">
         <v>736939</v>
       </c>
-      <c r="F61" s="67">
+      <c r="F61" s="66">
         <f t="shared" si="2"/>
         <v>43110931.5</v>
       </c>
@@ -12724,18 +12881,18 @@
       <c r="B62" s="53">
         <v>559.84500000000003</v>
       </c>
-      <c r="C62" s="56">
+      <c r="C62" s="104">
         <f t="shared" si="0"/>
         <v>5.5984500000000005E-3</v>
       </c>
-      <c r="D62" s="57">
+      <c r="D62" s="56">
         <f t="shared" si="1"/>
         <v>0.55984500000000004</v>
       </c>
-      <c r="E62" s="67">
+      <c r="E62" s="66">
         <v>709201</v>
       </c>
-      <c r="F62" s="67">
+      <c r="F62" s="66">
         <f t="shared" si="2"/>
         <v>42197459.5</v>
       </c>
@@ -12747,18 +12904,18 @@
       <c r="B63" s="53">
         <v>614.88</v>
       </c>
-      <c r="C63" s="56">
+      <c r="C63" s="104">
         <f t="shared" si="0"/>
         <v>6.1488000000000003E-3</v>
       </c>
-      <c r="D63" s="57">
+      <c r="D63" s="56">
         <f t="shared" si="1"/>
         <v>0.61487999999999998</v>
       </c>
-      <c r="E63" s="57">
+      <c r="E63" s="56">
         <v>677962</v>
       </c>
-      <c r="F63" s="57">
+      <c r="F63" s="56">
         <f t="shared" si="2"/>
         <v>41016701</v>
       </c>
@@ -12770,18 +12927,18 @@
       <c r="B64" s="53">
         <v>673.625</v>
       </c>
-      <c r="C64" s="56">
+      <c r="C64" s="104">
         <f t="shared" si="0"/>
         <v>6.7362500000000001E-3</v>
       </c>
-      <c r="D64" s="57">
+      <c r="D64" s="56">
         <f t="shared" si="1"/>
         <v>0.67362500000000003</v>
       </c>
-      <c r="E64" s="57">
+      <c r="E64" s="56">
         <v>660419</v>
       </c>
-      <c r="F64" s="57">
+      <c r="F64" s="56">
         <f t="shared" si="2"/>
         <v>40615768.5</v>
       </c>
@@ -12793,18 +12950,18 @@
       <c r="B65" s="53">
         <v>736.15</v>
       </c>
-      <c r="C65" s="56">
+      <c r="C65" s="104">
         <f t="shared" si="0"/>
         <v>7.3615E-3</v>
       </c>
-      <c r="D65" s="57">
+      <c r="D65" s="56">
         <f t="shared" si="1"/>
         <v>0.73614999999999997</v>
       </c>
-      <c r="E65" s="57">
+      <c r="E65" s="56">
         <v>644896</v>
       </c>
-      <c r="F65" s="57">
+      <c r="F65" s="56">
         <f t="shared" si="2"/>
         <v>40306000</v>
       </c>
@@ -12816,18 +12973,18 @@
       <c r="B66" s="53">
         <v>803.19499999999994</v>
       </c>
-      <c r="C66" s="56">
+      <c r="C66" s="104">
         <f t="shared" si="0"/>
         <v>8.0319499999999995E-3</v>
       </c>
-      <c r="D66" s="57">
+      <c r="D66" s="56">
         <f t="shared" si="1"/>
         <v>0.80319499999999999</v>
       </c>
-      <c r="E66" s="57">
+      <c r="E66" s="56">
         <v>618893</v>
       </c>
-      <c r="F66" s="57">
+      <c r="F66" s="56">
         <f t="shared" si="2"/>
         <v>39299705.5</v>
       </c>
@@ -12839,18 +12996,18 @@
       <c r="B67" s="53">
         <v>875.625</v>
       </c>
-      <c r="C67" s="56">
+      <c r="C67" s="104">
         <f t="shared" si="0"/>
         <v>8.7562500000000001E-3</v>
       </c>
-      <c r="D67" s="57">
+      <c r="D67" s="56">
         <f t="shared" si="1"/>
         <v>0.87562499999999999</v>
       </c>
-      <c r="E67" s="57">
+      <c r="E67" s="56">
         <v>594643</v>
       </c>
-      <c r="F67" s="57">
+      <c r="F67" s="56">
         <f t="shared" si="2"/>
         <v>38354473.5</v>
       </c>
@@ -12862,18 +13019,18 @@
       <c r="B68" s="53">
         <v>954.79500000000007</v>
       </c>
-      <c r="C68" s="56">
+      <c r="C68" s="104">
         <f t="shared" ref="C68:C103" si="3">B68/100000</f>
         <v>9.5479500000000012E-3</v>
       </c>
-      <c r="D68" s="57">
+      <c r="D68" s="56">
         <f t="shared" ref="D68:D103" si="4">C68*100</f>
         <v>0.95479500000000017</v>
       </c>
-      <c r="E68" s="67">
+      <c r="E68" s="66">
         <v>571143</v>
       </c>
-      <c r="F68" s="67">
+      <c r="F68" s="66">
         <f t="shared" ref="F68:F103" si="5">E68*(A68+0.5)</f>
         <v>37409866.5</v>
       </c>
@@ -12885,18 +13042,18 @@
       <c r="B69" s="53">
         <v>1042.76</v>
       </c>
-      <c r="C69" s="56">
+      <c r="C69" s="104">
         <f t="shared" si="3"/>
         <v>1.04276E-2</v>
       </c>
-      <c r="D69" s="57">
+      <c r="D69" s="56">
         <f t="shared" si="4"/>
         <v>1.0427600000000001</v>
       </c>
-      <c r="E69" s="67">
+      <c r="E69" s="66">
         <v>569908</v>
       </c>
-      <c r="F69" s="67">
+      <c r="F69" s="66">
         <f t="shared" si="5"/>
         <v>37898882</v>
       </c>
@@ -12908,18 +13065,18 @@
       <c r="B70" s="53">
         <v>1140.79</v>
       </c>
-      <c r="C70" s="56">
+      <c r="C70" s="104">
         <f t="shared" si="3"/>
         <v>1.14079E-2</v>
       </c>
-      <c r="D70" s="57">
+      <c r="D70" s="56">
         <f t="shared" si="4"/>
         <v>1.14079</v>
       </c>
-      <c r="E70" s="67">
+      <c r="E70" s="66">
         <v>559844</v>
       </c>
-      <c r="F70" s="67">
+      <c r="F70" s="66">
         <f t="shared" si="5"/>
         <v>37789470</v>
       </c>
@@ -12931,18 +13088,18 @@
       <c r="B71" s="53">
         <v>1250.3800000000001</v>
       </c>
-      <c r="C71" s="56">
+      <c r="C71" s="104">
         <f t="shared" si="3"/>
         <v>1.2503800000000001E-2</v>
       </c>
-      <c r="D71" s="57">
+      <c r="D71" s="56">
         <f t="shared" si="4"/>
         <v>1.25038</v>
       </c>
-      <c r="E71" s="67">
+      <c r="E71" s="66">
         <v>541297</v>
       </c>
-      <c r="F71" s="67">
+      <c r="F71" s="66">
         <f t="shared" si="5"/>
         <v>37078844.5</v>
       </c>
@@ -12954,18 +13111,18 @@
       <c r="B72" s="53">
         <v>1373.98</v>
       </c>
-      <c r="C72" s="56">
+      <c r="C72" s="104">
         <f t="shared" si="3"/>
         <v>1.37398E-2</v>
       </c>
-      <c r="D72" s="57">
+      <c r="D72" s="56">
         <f t="shared" si="4"/>
         <v>1.37398</v>
       </c>
-      <c r="E72" s="67">
+      <c r="E72" s="66">
         <v>542108</v>
       </c>
-      <c r="F72" s="67">
+      <c r="F72" s="66">
         <f t="shared" si="5"/>
         <v>37676506</v>
       </c>
@@ -12977,18 +13134,18 @@
       <c r="B73" s="53">
         <v>1514.3</v>
       </c>
-      <c r="C73" s="56">
+      <c r="C73" s="104">
         <f t="shared" si="3"/>
         <v>1.5143E-2</v>
       </c>
-      <c r="D73" s="57">
+      <c r="D73" s="56">
         <f t="shared" si="4"/>
         <v>1.5143</v>
       </c>
-      <c r="E73" s="57">
+      <c r="E73" s="56">
         <v>550059</v>
       </c>
-      <c r="F73" s="57">
+      <c r="F73" s="56">
         <f t="shared" si="5"/>
         <v>38779159.5</v>
       </c>
@@ -13000,18 +13157,18 @@
       <c r="B74" s="53">
         <v>1674.13</v>
       </c>
-      <c r="C74" s="56">
+      <c r="C74" s="104">
         <f t="shared" si="3"/>
         <v>1.6741300000000001E-2</v>
       </c>
-      <c r="D74" s="57">
+      <c r="D74" s="56">
         <f t="shared" si="4"/>
         <v>1.6741300000000001</v>
       </c>
-      <c r="E74" s="57">
+      <c r="E74" s="56">
         <v>560762</v>
       </c>
-      <c r="F74" s="57">
+      <c r="F74" s="56">
         <f t="shared" si="5"/>
         <v>40094483</v>
       </c>
@@ -13023,18 +13180,18 @@
       <c r="B75" s="53">
         <v>1856.27</v>
       </c>
-      <c r="C75" s="56">
+      <c r="C75" s="104">
         <f t="shared" si="3"/>
         <v>1.8562700000000001E-2</v>
       </c>
-      <c r="D75" s="57">
+      <c r="D75" s="56">
         <f t="shared" si="4"/>
         <v>1.8562700000000001</v>
       </c>
-      <c r="E75" s="57">
+      <c r="E75" s="56">
         <v>587908</v>
       </c>
-      <c r="F75" s="57">
+      <c r="F75" s="56">
         <f t="shared" si="5"/>
         <v>42623330</v>
       </c>
@@ -13046,18 +13203,18 @@
       <c r="B76" s="53">
         <v>2064.19</v>
       </c>
-      <c r="C76" s="56">
+      <c r="C76" s="104">
         <f t="shared" si="3"/>
         <v>2.0641900000000001E-2</v>
       </c>
-      <c r="D76" s="57">
+      <c r="D76" s="56">
         <f t="shared" si="4"/>
         <v>2.06419</v>
       </c>
-      <c r="E76" s="57">
+      <c r="E76" s="56">
         <v>632852</v>
       </c>
-      <c r="F76" s="57">
+      <c r="F76" s="56">
         <f t="shared" si="5"/>
         <v>46514622</v>
       </c>
@@ -13069,18 +13226,18 @@
       <c r="B77" s="53">
         <v>2301.335</v>
       </c>
-      <c r="C77" s="56">
+      <c r="C77" s="104">
         <f t="shared" si="3"/>
         <v>2.3013350000000002E-2</v>
       </c>
-      <c r="D77" s="57">
+      <c r="D77" s="56">
         <f t="shared" si="4"/>
         <v>2.3013350000000004</v>
       </c>
-      <c r="E77" s="57">
+      <c r="E77" s="56">
         <v>482547</v>
       </c>
-      <c r="F77" s="57">
+      <c r="F77" s="56">
         <f t="shared" si="5"/>
         <v>35949751.5</v>
       </c>
@@ -13092,18 +13249,18 @@
       <c r="B78" s="53">
         <v>2570.0950000000003</v>
       </c>
-      <c r="C78" s="56">
+      <c r="C78" s="104">
         <f t="shared" si="3"/>
         <v>2.5700950000000004E-2</v>
       </c>
-      <c r="D78" s="57">
+      <c r="D78" s="56">
         <f t="shared" si="4"/>
         <v>2.5700950000000002</v>
       </c>
-      <c r="E78" s="67">
+      <c r="E78" s="66">
         <v>461855</v>
       </c>
-      <c r="F78" s="67">
+      <c r="F78" s="66">
         <f t="shared" si="5"/>
         <v>34870052.5</v>
       </c>
@@ -13115,18 +13272,18 @@
       <c r="B79" s="53">
         <v>2872.54</v>
       </c>
-      <c r="C79" s="56">
+      <c r="C79" s="104">
         <f t="shared" si="3"/>
         <v>2.8725399999999998E-2</v>
       </c>
-      <c r="D79" s="57">
+      <c r="D79" s="56">
         <f t="shared" si="4"/>
         <v>2.8725399999999999</v>
       </c>
-      <c r="E79" s="67">
+      <c r="E79" s="66">
         <v>453442</v>
       </c>
-      <c r="F79" s="67">
+      <c r="F79" s="66">
         <f t="shared" si="5"/>
         <v>34688313</v>
       </c>
@@ -13138,18 +13295,18 @@
       <c r="B80" s="53">
         <v>3211.6849999999999</v>
       </c>
-      <c r="C80" s="56">
+      <c r="C80" s="104">
         <f t="shared" si="3"/>
         <v>3.2116850000000002E-2</v>
       </c>
-      <c r="D80" s="57">
+      <c r="D80" s="56">
         <f t="shared" si="4"/>
         <v>3.2116850000000001</v>
       </c>
-      <c r="E80" s="67">
+      <c r="E80" s="66">
         <v>413706</v>
       </c>
-      <c r="F80" s="67">
+      <c r="F80" s="66">
         <f t="shared" si="5"/>
         <v>32062215</v>
       </c>
@@ -13161,18 +13318,18 @@
       <c r="B81" s="53">
         <v>3592.0750000000003</v>
       </c>
-      <c r="C81" s="56">
+      <c r="C81" s="104">
         <f t="shared" si="3"/>
         <v>3.5920750000000001E-2</v>
       </c>
-      <c r="D81" s="57">
+      <c r="D81" s="56">
         <f t="shared" si="4"/>
         <v>3.5920750000000004</v>
       </c>
-      <c r="E81" s="67">
+      <c r="E81" s="66">
         <v>362412</v>
       </c>
-      <c r="F81" s="67">
+      <c r="F81" s="66">
         <f t="shared" si="5"/>
         <v>28449342</v>
       </c>
@@ -13184,18 +13341,18 @@
       <c r="B82" s="53">
         <v>4019.915</v>
       </c>
-      <c r="C82" s="56">
+      <c r="C82" s="104">
         <f t="shared" si="3"/>
         <v>4.0199150000000003E-2</v>
       </c>
-      <c r="D82" s="57">
+      <c r="D82" s="56">
         <f t="shared" si="4"/>
         <v>4.0199150000000001</v>
       </c>
-      <c r="E82" s="67">
+      <c r="E82" s="66">
         <v>318577</v>
       </c>
-      <c r="F82" s="67">
+      <c r="F82" s="66">
         <f t="shared" si="5"/>
         <v>25326871.5</v>
       </c>
@@ -13207,18 +13364,18 @@
       <c r="B83" s="53">
         <v>4504.67</v>
       </c>
-      <c r="C83" s="56">
+      <c r="C83" s="104">
         <f t="shared" si="3"/>
         <v>4.5046700000000002E-2</v>
       </c>
-      <c r="D83" s="57">
+      <c r="D83" s="56">
         <f t="shared" si="4"/>
         <v>4.50467</v>
       </c>
-      <c r="E83" s="57">
+      <c r="E83" s="56">
         <v>323778</v>
       </c>
-      <c r="F83" s="57">
+      <c r="F83" s="56">
         <f t="shared" si="5"/>
         <v>26064129</v>
       </c>
@@ -13230,18 +13387,18 @@
       <c r="B84" s="53">
         <v>5061.2749999999996</v>
       </c>
-      <c r="C84" s="56">
+      <c r="C84" s="104">
         <f t="shared" si="3"/>
         <v>5.0612749999999998E-2</v>
       </c>
-      <c r="D84" s="57">
+      <c r="D84" s="56">
         <f t="shared" si="4"/>
         <v>5.0612750000000002</v>
       </c>
-      <c r="E84" s="57">
+      <c r="E84" s="56">
         <v>313081</v>
       </c>
-      <c r="F84" s="57">
+      <c r="F84" s="56">
         <f t="shared" si="5"/>
         <v>25516101.5</v>
       </c>
@@ -13253,18 +13410,18 @@
       <c r="B85" s="53">
         <v>5704.2449999999999</v>
       </c>
-      <c r="C85" s="56">
+      <c r="C85" s="104">
         <f t="shared" si="3"/>
         <v>5.7042450000000001E-2</v>
       </c>
-      <c r="D85" s="57">
+      <c r="D85" s="56">
         <f t="shared" si="4"/>
         <v>5.7042450000000002</v>
       </c>
-      <c r="E85" s="57">
+      <c r="E85" s="56">
         <v>294838</v>
       </c>
-      <c r="F85" s="57">
+      <c r="F85" s="56">
         <f t="shared" si="5"/>
         <v>24324135</v>
       </c>
@@ -13276,18 +13433,18 @@
       <c r="B86" s="53">
         <v>6444.9750000000004</v>
       </c>
-      <c r="C86" s="56">
+      <c r="C86" s="104">
         <f t="shared" si="3"/>
         <v>6.444975E-2</v>
       </c>
-      <c r="D86" s="57">
+      <c r="D86" s="56">
         <f t="shared" si="4"/>
         <v>6.4449750000000003</v>
       </c>
-      <c r="E86" s="57">
+      <c r="E86" s="56">
         <v>271063</v>
       </c>
-      <c r="F86" s="57">
+      <c r="F86" s="56">
         <f t="shared" si="5"/>
         <v>22633760.5</v>
       </c>
@@ -13299,18 +13456,18 @@
       <c r="B87" s="53">
         <v>7295.1449999999995</v>
       </c>
-      <c r="C87" s="56">
+      <c r="C87" s="104">
         <f t="shared" si="3"/>
         <v>7.2951450000000001E-2</v>
       </c>
-      <c r="D87" s="57">
+      <c r="D87" s="56">
         <f t="shared" si="4"/>
         <v>7.2951449999999998</v>
       </c>
-      <c r="E87" s="57">
+      <c r="E87" s="56">
         <v>246429</v>
       </c>
-      <c r="F87" s="57">
+      <c r="F87" s="56">
         <f t="shared" si="5"/>
         <v>20823250.5</v>
       </c>
@@ -13322,18 +13479,18 @@
       <c r="B88" s="53">
         <v>8262.02</v>
       </c>
-      <c r="C88" s="56">
+      <c r="C88" s="104">
         <f t="shared" si="3"/>
         <v>8.2620200000000005E-2</v>
       </c>
-      <c r="D88" s="57">
+      <c r="D88" s="56">
         <f t="shared" si="4"/>
         <v>8.2620199999999997</v>
       </c>
-      <c r="E88" s="67">
+      <c r="E88" s="66">
         <v>223058</v>
       </c>
-      <c r="F88" s="67">
+      <c r="F88" s="66">
         <f t="shared" si="5"/>
         <v>19071459</v>
       </c>
@@ -13345,18 +13502,18 @@
       <c r="B89" s="53">
         <v>9346.0550000000003</v>
       </c>
-      <c r="C89" s="56">
+      <c r="C89" s="104">
         <f t="shared" si="3"/>
         <v>9.3460550000000003E-2</v>
       </c>
-      <c r="D89" s="57">
+      <c r="D89" s="56">
         <f t="shared" si="4"/>
         <v>9.3460549999999998</v>
       </c>
-      <c r="E89" s="67">
+      <c r="E89" s="66">
         <v>195010</v>
       </c>
-      <c r="F89" s="67">
+      <c r="F89" s="66">
         <f t="shared" si="5"/>
         <v>16868365</v>
       </c>
@@ -13368,18 +13525,18 @@
       <c r="B90" s="53">
         <v>10548.07</v>
       </c>
-      <c r="C90" s="56">
+      <c r="C90" s="104">
         <f t="shared" si="3"/>
         <v>0.1054807</v>
       </c>
-      <c r="D90" s="57">
+      <c r="D90" s="56">
         <f t="shared" si="4"/>
         <v>10.548069999999999</v>
       </c>
-      <c r="E90" s="67">
+      <c r="E90" s="66">
         <v>173861</v>
       </c>
-      <c r="F90" s="67">
+      <c r="F90" s="66">
         <f t="shared" si="5"/>
         <v>15212837.5</v>
       </c>
@@ -13391,18 +13548,18 @@
       <c r="B91" s="53">
         <v>11871.174999999999</v>
       </c>
-      <c r="C91" s="56">
+      <c r="C91" s="104">
         <f t="shared" si="3"/>
         <v>0.11871174999999999</v>
       </c>
-      <c r="D91" s="57">
+      <c r="D91" s="56">
         <f t="shared" si="4"/>
         <v>11.871174999999999</v>
       </c>
-      <c r="E91" s="67">
+      <c r="E91" s="66">
         <v>156497</v>
       </c>
-      <c r="F91" s="67">
+      <c r="F91" s="66">
         <f t="shared" si="5"/>
         <v>13849984.5</v>
       </c>
@@ -13414,18 +13571,18 @@
       <c r="B92" s="53">
         <v>13314.755000000001</v>
       </c>
-      <c r="C92" s="56">
+      <c r="C92" s="104">
         <f t="shared" si="3"/>
         <v>0.13314755</v>
       </c>
-      <c r="D92" s="57">
+      <c r="D92" s="56">
         <f t="shared" si="4"/>
         <v>13.314755</v>
       </c>
-      <c r="E92" s="67">
+      <c r="E92" s="66">
         <v>136917</v>
       </c>
-      <c r="F92" s="67">
+      <c r="F92" s="66">
         <f t="shared" si="5"/>
         <v>12254071.5</v>
       </c>
@@ -13437,19 +13594,19 @@
       <c r="B93" s="53">
         <v>14880.674999999999</v>
       </c>
-      <c r="C93" s="56">
+      <c r="C93" s="104">
         <f t="shared" si="3"/>
         <v>0.14880674999999999</v>
       </c>
-      <c r="D93" s="57">
+      <c r="D93" s="56">
         <f t="shared" si="4"/>
         <v>14.880674999999998</v>
       </c>
-      <c r="E93" s="58">
+      <c r="E93" s="57">
         <f t="shared" ref="E93:E103" si="6">E92*(1-$B93/100000)</f>
         <v>116542.82621025</v>
       </c>
-      <c r="F93" s="58">
+      <c r="F93" s="57">
         <f t="shared" si="5"/>
         <v>10547125.772027625</v>
       </c>
@@ -13461,19 +13618,19 @@
       <c r="B94" s="53">
         <v>16573.145</v>
       </c>
-      <c r="C94" s="56">
+      <c r="C94" s="104">
         <f t="shared" si="3"/>
         <v>0.16573145</v>
       </c>
-      <c r="D94" s="57">
+      <c r="D94" s="56">
         <f t="shared" si="4"/>
         <v>16.573145</v>
       </c>
-      <c r="E94" s="58">
+      <c r="E94" s="57">
         <f t="shared" si="6"/>
         <v>97228.014635327258</v>
       </c>
-      <c r="F94" s="58">
+      <c r="F94" s="57">
         <f t="shared" si="5"/>
         <v>8896363.3391324449</v>
       </c>
@@ -13485,19 +13642,19 @@
       <c r="B95" s="53">
         <v>18385.97</v>
       </c>
-      <c r="C95" s="56">
+      <c r="C95" s="104">
         <f t="shared" si="3"/>
         <v>0.18385970000000001</v>
       </c>
-      <c r="D95" s="57">
+      <c r="D95" s="56">
         <f t="shared" si="4"/>
         <v>18.38597</v>
       </c>
-      <c r="E95" s="58">
+      <c r="E95" s="57">
         <f t="shared" si="6"/>
         <v>79351.701032880388</v>
       </c>
-      <c r="F95" s="58">
+      <c r="F95" s="57">
         <f t="shared" si="5"/>
         <v>7340032.3455414362</v>
       </c>
@@ -13509,19 +13666,19 @@
       <c r="B96" s="53">
         <v>20303.440000000002</v>
       </c>
-      <c r="C96" s="56">
+      <c r="C96" s="104">
         <f t="shared" si="3"/>
         <v>0.20303440000000003</v>
       </c>
-      <c r="D96" s="57">
+      <c r="D96" s="56">
         <f t="shared" si="4"/>
         <v>20.303440000000002</v>
       </c>
-      <c r="E96" s="58">
+      <c r="E96" s="57">
         <f t="shared" si="6"/>
         <v>63240.576024690134</v>
       </c>
-      <c r="F96" s="58">
+      <c r="F96" s="57">
         <f t="shared" si="5"/>
         <v>5912993.8583085276</v>
       </c>
@@ -13533,19 +13690,19 @@
       <c r="B97" s="53">
         <v>22303.46</v>
       </c>
-      <c r="C97" s="56">
+      <c r="C97" s="104">
         <f t="shared" si="3"/>
         <v>0.2230346</v>
       </c>
-      <c r="D97" s="57">
+      <c r="D97" s="56">
         <f t="shared" si="4"/>
         <v>22.303460000000001</v>
       </c>
-      <c r="E97" s="58">
+      <c r="E97" s="57">
         <f t="shared" si="6"/>
         <v>49135.739447253778</v>
       </c>
-      <c r="F97" s="58">
+      <c r="F97" s="57">
         <f t="shared" si="5"/>
         <v>4643327.3777654823</v>
       </c>
@@ -13557,19 +13714,19 @@
       <c r="B98" s="53">
         <v>24380.18</v>
       </c>
-      <c r="C98" s="56">
+      <c r="C98" s="104">
         <f t="shared" si="3"/>
         <v>0.24380180000000001</v>
       </c>
-      <c r="D98" s="57">
+      <c r="D98" s="56">
         <f t="shared" si="4"/>
         <v>24.380180000000003</v>
       </c>
-      <c r="E98" s="118">
+      <c r="E98" s="101">
         <f t="shared" si="6"/>
         <v>37156.357725682305</v>
       </c>
-      <c r="F98" s="118">
+      <c r="F98" s="101">
         <f t="shared" si="5"/>
         <v>3548432.1628026599</v>
       </c>
@@ -13581,19 +13738,19 @@
       <c r="B99" s="53">
         <v>26588.42</v>
       </c>
-      <c r="C99" s="56">
+      <c r="C99" s="104">
         <f t="shared" si="3"/>
         <v>0.26588419999999996</v>
       </c>
-      <c r="D99" s="57">
+      <c r="D99" s="56">
         <f t="shared" si="4"/>
         <v>26.588419999999996</v>
       </c>
-      <c r="E99" s="118">
+      <c r="E99" s="101">
         <f t="shared" si="6"/>
         <v>27277.069276875449</v>
       </c>
-      <c r="F99" s="118">
+      <c r="F99" s="101">
         <f t="shared" si="5"/>
         <v>2632237.1852184809</v>
       </c>
@@ -13605,19 +13762,19 @@
       <c r="B100" s="53">
         <v>28995.33</v>
       </c>
-      <c r="C100" s="56">
+      <c r="C100" s="104">
         <f t="shared" si="3"/>
         <v>0.28995330000000002</v>
       </c>
-      <c r="D100" s="57">
+      <c r="D100" s="56">
         <f t="shared" si="4"/>
         <v>28.995330000000003</v>
       </c>
-      <c r="E100" s="118">
+      <c r="E100" s="101">
         <f t="shared" si="6"/>
         <v>19367.993025716798</v>
       </c>
-      <c r="F100" s="118">
+      <c r="F100" s="101">
         <f t="shared" si="5"/>
         <v>1888379.3200073878</v>
       </c>
@@ -13629,19 +13786,19 @@
       <c r="B101" s="53">
         <v>31575.375</v>
       </c>
-      <c r="C101" s="56">
+      <c r="C101" s="104">
         <f t="shared" si="3"/>
         <v>0.31575375</v>
       </c>
-      <c r="D101" s="57">
+      <c r="D101" s="56">
         <f t="shared" si="4"/>
         <v>31.575375000000001</v>
       </c>
-      <c r="E101" s="118">
+      <c r="E101" s="101">
         <f t="shared" si="6"/>
         <v>13252.476597872872</v>
       </c>
-      <c r="F101" s="118">
+      <c r="F101" s="101">
         <f t="shared" si="5"/>
         <v>1305368.9448904779</v>
       </c>
@@ -13653,19 +13810,19 @@
       <c r="B102" s="53">
         <v>34262.004999999997</v>
       </c>
-      <c r="C102" s="56">
+      <c r="C102" s="104">
         <f t="shared" si="3"/>
         <v>0.34262004999999995</v>
       </c>
-      <c r="D102" s="57">
+      <c r="D102" s="56">
         <f t="shared" si="4"/>
         <v>34.262004999999995</v>
       </c>
-      <c r="E102" s="118">
+      <c r="E102" s="101">
         <f t="shared" si="6"/>
         <v>8711.9124032858399</v>
       </c>
-      <c r="F102" s="118">
+      <c r="F102" s="101">
         <f t="shared" si="5"/>
         <v>866835.28412694111</v>
       </c>
@@ -13677,19 +13834,19 @@
       <c r="B103" s="53">
         <v>37014.555</v>
       </c>
-      <c r="C103" s="56">
+      <c r="C103" s="104">
         <f t="shared" si="3"/>
         <v>0.37014554999999999</v>
       </c>
-      <c r="D103" s="57">
+      <c r="D103" s="56">
         <f t="shared" si="4"/>
         <v>37.014555000000001</v>
       </c>
-      <c r="E103" s="58">
+      <c r="E103" s="57">
         <f t="shared" si="6"/>
         <v>5487.236795219781</v>
       </c>
-      <c r="F103" s="58">
+      <c r="F103" s="57">
         <f t="shared" si="5"/>
         <v>551467.29791958805</v>
       </c>
@@ -13698,41 +13855,41 @@
       <c r="B104" s="53"/>
       <c r="C104" s="53"/>
       <c r="D104" s="53"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="57"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="56"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="59" t="s">
+      <c r="A105" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B105" s="60" t="s">
+      <c r="B105" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="C105" s="60"/>
-      <c r="D105" s="60"/>
-      <c r="E105" s="58">
+      <c r="C105" s="59"/>
+      <c r="D105" s="59"/>
+      <c r="E105" s="57">
         <v>521067</v>
       </c>
-      <c r="F105" s="58"/>
+      <c r="F105" s="57"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C107" s="54" t="s">
         <v>78</v>
       </c>
       <c r="D107" s="54"/>
-      <c r="E107" s="57">
+      <c r="E107" s="56">
         <f>SUM(E3:E103)</f>
         <v>56545822.903175049</v>
       </c>
-      <c r="F107" s="57"/>
+      <c r="F107" s="56"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B108" s="57"/>
-      <c r="C108" s="62" t="s">
+      <c r="B108" s="56"/>
+      <c r="C108" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D108" s="57"/>
-      <c r="F108" s="119">
+      <c r="D108" s="56"/>
+      <c r="F108" s="102">
         <f>SUM(F3:F103)/SUM(E3:E103)</f>
         <v>40.864107139167572</v>
       </c>
@@ -13744,9 +13901,9 @@
     </row>
     <row r="110" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="52"/>
-      <c r="B110" s="57"/>
-      <c r="C110" s="57"/>
-      <c r="D110" s="57"/>
+      <c r="B110" s="56"/>
+      <c r="C110" s="56"/>
+      <c r="D110" s="56"/>
       <c r="G110"/>
       <c r="H110"/>
       <c r="I110"/>
@@ -13757,9 +13914,9 @@
     </row>
     <row r="111" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="52"/>
-      <c r="B111" s="57"/>
-      <c r="C111" s="57"/>
-      <c r="D111" s="57"/>
+      <c r="B111" s="56"/>
+      <c r="C111" s="56"/>
+      <c r="D111" s="56"/>
       <c r="G111"/>
       <c r="H111"/>
       <c r="I111"/>
@@ -13770,9 +13927,9 @@
     </row>
     <row r="112" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="52"/>
-      <c r="B112" s="57"/>
-      <c r="C112" s="57"/>
-      <c r="D112" s="57"/>
+      <c r="B112" s="56"/>
+      <c r="C112" s="56"/>
+      <c r="D112" s="56"/>
       <c r="G112"/>
       <c r="H112"/>
       <c r="I112"/>
@@ -13783,9 +13940,9 @@
     </row>
     <row r="113" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="52"/>
-      <c r="B113" s="57"/>
-      <c r="C113" s="57"/>
-      <c r="D113" s="57"/>
+      <c r="B113" s="56"/>
+      <c r="C113" s="56"/>
+      <c r="D113" s="56"/>
       <c r="G113"/>
       <c r="H113"/>
       <c r="I113"/>
